--- a/cities.xlsx
+++ b/cities.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25524"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_9248B46DC1CBB2E3ED7FF6F9903E8C1851038383" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BB22C2D-558A-4A18-98DD-F40F62B7C4C2}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_9248B46DC1CBB2E3ED7FF6F9903E8C1851038383" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{322EE725-3CA8-4E34-AE8D-41500F9B7E25}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$V$1</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -110,7 +113,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lisbon-portugal.jpg?1657497664</t>
+    <t>https://nomadlist.com/assets/img/places/lisbon-portugal.jpg?1657497664</t>
   </si>
   <si>
     <t>Miami</t>
@@ -122,7 +125,7 @@
     <t>North America</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/miami-fl-united-states.jpg?1642528503</t>
+    <t>https://nomadlist.com/assets/img/places/miami-fl-united-states.jpg?1642528503</t>
   </si>
   <si>
     <t>Gran Canaria</t>
@@ -134,7 +137,7 @@
     <t>Bad</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/gran-canaria-canary-islands-spain.jpg?1642528501</t>
+    <t>https://nomadlist.com/assets/img/places/gran-canaria-canary-islands-spain.jpg?1642528501</t>
   </si>
   <si>
     <t>Budapest</t>
@@ -146,19 +149,19 @@
     <t>No</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/budapest-hungary.jpg?1643932879</t>
+    <t>https://nomadlist.com/assets/img/places/budapest-hungary.jpg?1643932879</t>
   </si>
   <si>
     <t>Austin</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/austin-tx-united-states.jpg?1642528503</t>
+    <t>https://nomadlist.com/assets/img/places/austin-tx-united-states.jpg?1642528503</t>
   </si>
   <si>
     <t>Porto</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/porto-portugal.jpg?1642550423</t>
+    <t>https://nomadlist.com/assets/img/places/porto-portugal.jpg?1642550423</t>
   </si>
   <si>
     <t>Buenos Aires</t>
@@ -170,7 +173,7 @@
     <t>Latin America</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/buenos-aires-argentina.jpg?1650931254</t>
+    <t>https://nomadlist.com/assets/img/places/buenos-aires-argentina.jpg?1650931254</t>
   </si>
   <si>
     <t>Tbilisi</t>
@@ -179,7 +182,7 @@
     <t>Georgia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tbilisi-georgia.jpg?1653004839</t>
+    <t>https://nomadlist.com/assets/img/places/tbilisi-georgia.jpg?1653004839</t>
   </si>
   <si>
     <t>Chiang Mai</t>
@@ -191,7 +194,7 @@
     <t>Asia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/chiang-mai-thailand.jpg?1652400061</t>
+    <t>https://nomadlist.com/assets/img/places/chiang-mai-thailand.jpg?1652400061</t>
   </si>
   <si>
     <t>Sofia</t>
@@ -200,7 +203,7 @@
     <t>Bulgaria</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sofia-bulgaria.jpg?1644019313</t>
+    <t>https://nomadlist.com/assets/img/places/sofia-bulgaria.jpg?1644019313</t>
   </si>
   <si>
     <t>Warsaw</t>
@@ -209,13 +212,13 @@
     <t>Poland</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/warsaw-poland.jpg?1653004840</t>
+    <t>https://nomadlist.com/assets/img/places/warsaw-poland.jpg?1653004840</t>
   </si>
   <si>
     <t>Bangkok</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bangkok-thailand.jpg?1644710446</t>
+    <t>https://nomadlist.com/assets/img/places/bangkok-thailand.jpg?1644710446</t>
   </si>
   <si>
     <t>Belgrade</t>
@@ -224,7 +227,7 @@
     <t>Serbia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/belgrade-serbia.jpg?1655337735</t>
+    <t>https://nomadlist.com/assets/img/places/belgrade-serbia.jpg?1655337735</t>
   </si>
   <si>
     <t>Istanbul</t>
@@ -233,25 +236,25 @@
     <t>Turkey</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/istanbul-turkey.jpg?1653091252</t>
+    <t>https://nomadlist.com/assets/img/places/istanbul-turkey.jpg?1653091252</t>
   </si>
   <si>
     <t>Phuket</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/phuket-thailand.jpg?1644796846</t>
+    <t>https://nomadlist.com/assets/img/places/phuket-thailand.jpg?1644796846</t>
   </si>
   <si>
     <t>Madeira</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/madeira-portugal.jpg?1642896037</t>
+    <t>https://nomadlist.com/assets/img/places/madeira-portugal.jpg?1642896037</t>
   </si>
   <si>
     <t>Ko Pha Ngan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ko-pha-ngan-thailand.jpg?1645574436</t>
+    <t>https://nomadlist.com/assets/img/places/ko-pha-ngan-thailand.jpg?1645574436</t>
   </si>
   <si>
     <t>Da Nang</t>
@@ -260,7 +263,7 @@
     <t>Vietnam</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/da-nang-vietnam.jpg?1653004861</t>
+    <t>https://nomadlist.com/assets/img/places/da-nang-vietnam.jpg?1653004861</t>
   </si>
   <si>
     <t>Mexico City</t>
@@ -269,7 +272,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mexico-city-mexico.jpg?1642636855</t>
+    <t>https://nomadlist.com/assets/img/places/mexico-city-mexico.jpg?1642636855</t>
   </si>
   <si>
     <t>Prague</t>
@@ -278,7 +281,7 @@
     <t>Czechia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/prague-czechia.jpg?1643587247</t>
+    <t>https://nomadlist.com/assets/img/places/prague-czechia.jpg?1643587247</t>
   </si>
   <si>
     <t>Cape Town</t>
@@ -290,7 +293,7 @@
     <t>Africa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cape-town-south-africa.jpg?1644278450</t>
+    <t>https://nomadlist.com/assets/img/places/cape-town-south-africa.jpg?1644278450</t>
   </si>
   <si>
     <t>Seoul</t>
@@ -299,13 +302,13 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/seoul-south-korea.jpg?1655251235</t>
+    <t>https://nomadlist.com/assets/img/places/seoul-south-korea.jpg?1655251235</t>
   </si>
   <si>
     <t>Singapore</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/singapore-singapore.jpg?1653004870</t>
+    <t>https://nomadlist.com/assets/img/places/singapore-singapore.jpg?1653004870</t>
   </si>
   <si>
     <t>Toronto</t>
@@ -314,7 +317,7 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/toronto-canada.jpg?1656633769</t>
+    <t>https://nomadlist.com/assets/img/places/toronto-canada.jpg?1656633769</t>
   </si>
   <si>
     <t>Timisoara</t>
@@ -323,7 +326,7 @@
     <t>Romania</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/timisoara-romania.jpg?1653350503</t>
+    <t>https://nomadlist.com/assets/img/places/timisoara-romania.jpg?1653350503</t>
   </si>
   <si>
     <t>Berlin</t>
@@ -332,7 +335,7 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/berlin-germany.jpg?1652313673</t>
+    <t>https://nomadlist.com/assets/img/places/berlin-germany.jpg?1652313673</t>
   </si>
   <si>
     <t>Stockholm</t>
@@ -341,13 +344,13 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/stockholm-sweden.jpg?1643500918</t>
+    <t>https://nomadlist.com/assets/img/places/stockholm-sweden.jpg?1643500918</t>
   </si>
   <si>
     <t>Valencia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/valencia-spain.jpg?1653091267</t>
+    <t>https://nomadlist.com/assets/img/places/valencia-spain.jpg?1653091267</t>
   </si>
   <si>
     <t>Split</t>
@@ -356,7 +359,7 @@
     <t>Croatia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/split-croatia.jpg?1642528927</t>
+    <t>https://nomadlist.com/assets/img/places/split-croatia.jpg?1642528927</t>
   </si>
   <si>
     <t>Sao Paulo</t>
@@ -365,7 +368,7 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sao-paulo-brazil.jpg?1651536053</t>
+    <t>https://nomadlist.com/assets/img/places/sao-paulo-brazil.jpg?1651536053</t>
   </si>
   <si>
     <t>Canggu</t>
@@ -374,13 +377,13 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/canggu-bali-indonesia.jpg?1642528503</t>
+    <t>https://nomadlist.com/assets/img/places/canggu-bali-indonesia.jpg?1642528503</t>
   </si>
   <si>
     <t>Krakow</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/krakow-poland.jpg?1656374477</t>
+    <t>https://nomadlist.com/assets/img/places/krakow-poland.jpg?1656374477</t>
   </si>
   <si>
     <t>Bengaluru</t>
@@ -389,7 +392,7 @@
     <t>India</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bengaluru-india.jpg?1642528508</t>
+    <t>https://nomadlist.com/assets/img/places/bengaluru-india.jpg?1642528508</t>
   </si>
   <si>
     <t>Penang</t>
@@ -398,37 +401,37 @@
     <t>Malaysia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/penang-malaysia.jpg?1653004881</t>
+    <t>https://nomadlist.com/assets/img/places/penang-malaysia.jpg?1653004881</t>
   </si>
   <si>
     <t>Atlanta</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/atlanta-ga-united-states.jpg?1651968053</t>
+    <t>https://nomadlist.com/assets/img/places/atlanta-ga-united-states.jpg?1651968053</t>
   </si>
   <si>
     <t>Wroclaw</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/wroclaw-poland.jpg?1642528512</t>
+    <t>https://nomadlist.com/assets/img/places/wroclaw-poland.jpg?1642528512</t>
   </si>
   <si>
     <t>Playa Del Carmen</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/playa-del-carmen-mexico.jpg?1642528505</t>
+    <t>https://nomadlist.com/assets/img/places/playa-del-carmen-mexico.jpg?1642528505</t>
   </si>
   <si>
     <t>Zagreb</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/zagreb-croatia.jpg?1653091301</t>
+    <t>https://nomadlist.com/assets/img/places/zagreb-croatia.jpg?1653091301</t>
   </si>
   <si>
     <t>Bucharest</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bucharest-romania.jpg?1642528507</t>
+    <t>https://nomadlist.com/assets/img/places/bucharest-romania.jpg?1642528507</t>
   </si>
   <si>
     <t>Yerevan</t>
@@ -437,13 +440,13 @@
     <t>Armenia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/yerevan-armenia.jpg?1648252874</t>
+    <t>https://nomadlist.com/assets/img/places/yerevan-armenia.jpg?1648252874</t>
   </si>
   <si>
     <t>Antalya</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/antalya-turkey.jpg?1642723309</t>
+    <t>https://nomadlist.com/assets/img/places/antalya-turkey.jpg?1642723309</t>
   </si>
   <si>
     <t>Melbourne</t>
@@ -455,13 +458,13 @@
     <t>Oceania</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/melbourne-australia.jpg?1650499274</t>
+    <t>https://nomadlist.com/assets/img/places/melbourne-australia.jpg?1650499274</t>
   </si>
   <si>
     <t>Honolulu</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/honolulu-hawaii-united-states.jpg?1642528506</t>
+    <t>https://nomadlist.com/assets/img/places/honolulu-hawaii-united-states.jpg?1642528506</t>
   </si>
   <si>
     <t>Auckland</t>
@@ -470,25 +473,25 @@
     <t>New Zealand</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/auckland-new-zealand.jpg?1655165243</t>
+    <t>https://nomadlist.com/assets/img/places/auckland-new-zealand.jpg?1655165243</t>
   </si>
   <si>
     <t>Cluj</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cluj-romania.jpg?1642636879</t>
+    <t>https://nomadlist.com/assets/img/places/cluj-romania.jpg?1642636879</t>
   </si>
   <si>
     <t>Tenerife</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tenerife-canary-islands-spain.jpg?1657152110</t>
+    <t>https://nomadlist.com/assets/img/places/tenerife-canary-islands-spain.jpg?1657152110</t>
   </si>
   <si>
     <t>Sydney</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sydney-australia.jpg?1653868870</t>
+    <t>https://nomadlist.com/assets/img/places/sydney-australia.jpg?1653868870</t>
   </si>
   <si>
     <t>Florianopolis</t>
@@ -497,19 +500,19 @@
     <t>Slow</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/florianopolis-brazil.jpg?1642636859</t>
+    <t>https://nomadlist.com/assets/img/places/florianopolis-brazil.jpg?1642636859</t>
   </si>
   <si>
     <t>Vancouver</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/vancouver-canada.jpg?1642464098</t>
+    <t>https://nomadlist.com/assets/img/places/vancouver-canada.jpg?1642464098</t>
   </si>
   <si>
     <t>Madrid</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/madrid-spain.jpg?1642464143</t>
+    <t>https://nomadlist.com/assets/img/places/madrid-spain.jpg?1642464143</t>
   </si>
   <si>
     <t>Medellin</t>
@@ -518,7 +521,7 @@
     <t>Colombia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/medellin-colombia.jpg?1645142482</t>
+    <t>https://nomadlist.com/assets/img/places/medellin-colombia.jpg?1645142482</t>
   </si>
   <si>
     <t>Taipei</t>
@@ -527,13 +530,13 @@
     <t>Taiwan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/taipei-taiwan.jpg?1642528511</t>
+    <t>https://nomadlist.com/assets/img/places/taipei-taiwan.jpg?1642528511</t>
   </si>
   <si>
     <t>Novi Sad</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/novi-sad-serbia.jpg?1642896070</t>
+    <t>https://nomadlist.com/assets/img/places/novi-sad-serbia.jpg?1642896070</t>
   </si>
   <si>
     <t>London</t>
@@ -542,37 +545,37 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/london-united-kingdom.jpg?1646956882</t>
+    <t>https://nomadlist.com/assets/img/places/london-united-kingdom.jpg?1646956882</t>
   </si>
   <si>
     <t>Las Vegas</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/las-vegas-nv-united-states.jpg?1643328192</t>
+    <t>https://nomadlist.com/assets/img/places/las-vegas-nv-united-states.jpg?1643328192</t>
   </si>
   <si>
     <t>Brasov</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/brasov-romania.jpg?1642636882</t>
+    <t>https://nomadlist.com/assets/img/places/brasov-romania.jpg?1642636882</t>
   </si>
   <si>
     <t>Los Angeles</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/los-angeles-ca-united-states.jpg?1649030446</t>
+    <t>https://nomadlist.com/assets/img/places/los-angeles-ca-united-states.jpg?1649030446</t>
   </si>
   <si>
     <t>Ubud</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ubud-bali-indonesia.jpg?1644019279</t>
+    <t>https://nomadlist.com/assets/img/places/ubud-bali-indonesia.jpg?1644019279</t>
   </si>
   <si>
     <t>Munich</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/munich-germany.jpg?1642464143</t>
+    <t>https://nomadlist.com/assets/img/places/munich-germany.jpg?1642464143</t>
   </si>
   <si>
     <t>Copenhagen</t>
@@ -581,7 +584,7 @@
     <t>Denmark</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/copenhagen-denmark.jpg?1644192081</t>
+    <t>https://nomadlist.com/assets/img/places/copenhagen-denmark.jpg?1644192081</t>
   </si>
   <si>
     <t>Athens</t>
@@ -590,31 +593,31 @@
     <t>Greece</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/athens-greece.jpg?1642550448</t>
+    <t>https://nomadlist.com/assets/img/places/athens-greece.jpg?1642550448</t>
   </si>
   <si>
     <t>Barcelona</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/barcelona-spain.jpg?1644278483</t>
+    <t>https://nomadlist.com/assets/img/places/barcelona-spain.jpg?1644278483</t>
   </si>
   <si>
     <t>Rio De Janeiro</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rio-de-janeiro-brazil.jpg?1653091307</t>
+    <t>https://nomadlist.com/assets/img/places/rio-de-janeiro-brazil.jpg?1653091307</t>
   </si>
   <si>
     <t>Lagos Algarve</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lagos-portugal.jpg?1655769680</t>
+    <t>https://nomadlist.com/assets/img/places/lagos-portugal.jpg?1655769680</t>
   </si>
   <si>
     <t>New York City</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/new-york-city-ny-united-states.jpg?1646352061</t>
+    <t>https://nomadlist.com/assets/img/places/new-york-city-ny-united-states.jpg?1646352061</t>
   </si>
   <si>
     <t>Tallinn</t>
@@ -623,19 +626,19 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tallinn-estonia.jpg?1646956887</t>
+    <t>https://nomadlist.com/assets/img/places/tallinn-estonia.jpg?1646956887</t>
   </si>
   <si>
     <t>Ho Chi Minh City</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ho-chi-minh-city-vietnam.jpg?1642529078</t>
+    <t>https://nomadlist.com/assets/img/places/ho-chi-minh-city-vietnam.jpg?1642529078</t>
   </si>
   <si>
     <t>Denver</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/denver-co-united-states.jpg?1642723334</t>
+    <t>https://nomadlist.com/assets/img/places/denver-co-united-states.jpg?1642723334</t>
   </si>
   <si>
     <t>Vienna</t>
@@ -644,37 +647,37 @@
     <t>Austria</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/vienna-austria.jpg?1653091305</t>
+    <t>https://nomadlist.com/assets/img/places/vienna-austria.jpg?1653091305</t>
   </si>
   <si>
     <t>Cancun</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cancun-mexico.jpg?1654733222</t>
+    <t>https://nomadlist.com/assets/img/places/cancun-mexico.jpg?1654733222</t>
   </si>
   <si>
     <t>Washington</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/washington-dc-united-states.jpg?1653091370</t>
+    <t>https://nomadlist.com/assets/img/places/washington-dc-united-states.jpg?1653091370</t>
   </si>
   <si>
     <t>Boston</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/boston-ma-united-states.jpg?1653091382</t>
+    <t>https://nomadlist.com/assets/img/places/boston-ma-united-states.jpg?1653091382</t>
   </si>
   <si>
     <t>San Francisco</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/san-francisco-ca-united-states.jpg?1642528896</t>
+    <t>https://nomadlist.com/assets/img/places/san-francisco-ca-united-states.jpg?1642528896</t>
   </si>
   <si>
     <t>Wellington</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/wellington-new-zealand.jpg?1642723266</t>
+    <t>https://nomadlist.com/assets/img/places/wellington-new-zealand.jpg?1642723266</t>
   </si>
   <si>
     <t>Amsterdam</t>
@@ -683,55 +686,55 @@
     <t>Netherlands</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/amsterdam-netherlands.jpg?1643155472</t>
+    <t>https://nomadlist.com/assets/img/places/amsterdam-netherlands.jpg?1643155472</t>
   </si>
   <si>
     <t>Tampa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tampa-fl-united-states.jpg?1645920117</t>
+    <t>https://nomadlist.com/assets/img/places/tampa-fl-united-states.jpg?1645920117</t>
   </si>
   <si>
     <t>Thessaloniki</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/thessaloniki-greece.jpg?1650153753</t>
+    <t>https://nomadlist.com/assets/img/places/thessaloniki-greece.jpg?1650153753</t>
   </si>
   <si>
     <t>Coimbra</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/coimbra-portugal.jpg?1642464163</t>
+    <t>https://nomadlist.com/assets/img/places/coimbra-portugal.jpg?1642464163</t>
   </si>
   <si>
     <t>Hamburg</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hamburg-germany.jpg?1656201795</t>
+    <t>https://nomadlist.com/assets/img/places/hamburg-germany.jpg?1656201795</t>
   </si>
   <si>
     <t>Hong Kong</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hong-kong-hong-kong.jpg?1645488154</t>
+    <t>https://nomadlist.com/assets/img/places/hong-kong-hong-kong.jpg?1645488154</t>
   </si>
   <si>
     <t>Portland</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/portland-or-united-states.jpg?1642723300</t>
+    <t>https://nomadlist.com/assets/img/places/portland-or-united-states.jpg?1642723300</t>
   </si>
   <si>
     <t>Bansko</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bansko-bulgaria.jpg?1653004972</t>
+    <t>https://nomadlist.com/assets/img/places/bansko-bulgaria.jpg?1653004972</t>
   </si>
   <si>
     <t>Fuerteventura</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/fuerteventura-canary-islands-spain.jpg?1653091336</t>
+    <t>https://nomadlist.com/assets/img/places/fuerteventura-canary-islands-spain.jpg?1653091336</t>
   </si>
   <si>
     <t>Manila</t>
@@ -740,7 +743,7 @@
     <t>Philippines</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/manila-philippines.jpg?1653091362</t>
+    <t>https://nomadlist.com/assets/img/places/manila-philippines.jpg?1653091362</t>
   </si>
   <si>
     <t>Vilnius</t>
@@ -749,55 +752,55 @@
     <t>Lithuania</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/vilnius-lithuania.jpg?1653091410</t>
+    <t>https://nomadlist.com/assets/img/places/vilnius-lithuania.jpg?1653091410</t>
   </si>
   <si>
     <t>Plovdiv</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/plovdiv-bulgaria.jpg?1654041878</t>
+    <t>https://nomadlist.com/assets/img/places/plovdiv-bulgaria.jpg?1654041878</t>
   </si>
   <si>
     <t>Portimao</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/portimao-portugal.jpg?1656892872</t>
+    <t>https://nomadlist.com/assets/img/places/portimao-portugal.jpg?1656892872</t>
   </si>
   <si>
     <t>Dresden</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dresden-germany.jpg?1642723285</t>
+    <t>https://nomadlist.com/assets/img/places/dresden-germany.jpg?1642723285</t>
   </si>
   <si>
     <t>Quebec City</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/quebec-city-canada.jpg?1642464434</t>
+    <t>https://nomadlist.com/assets/img/places/quebec-city-canada.jpg?1642464434</t>
   </si>
   <si>
     <t>Chicago</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/chicago-il-united-states.jpg?1653091356</t>
+    <t>https://nomadlist.com/assets/img/places/chicago-il-united-states.jpg?1653091356</t>
   </si>
   <si>
     <t>Johannesburg</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/johannesburg-south-africa.jpg?1644192057</t>
+    <t>https://nomadlist.com/assets/img/places/johannesburg-south-africa.jpg?1644192057</t>
   </si>
   <si>
     <t>Davao</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/davao-philippines.jpg?1653091398</t>
+    <t>https://nomadlist.com/assets/img/places/davao-philippines.jpg?1653091398</t>
   </si>
   <si>
     <t>Dallas</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dallas-tx-united-states.jpg?1645228871</t>
+    <t>https://nomadlist.com/assets/img/places/dallas-tx-united-states.jpg?1645228871</t>
   </si>
   <si>
     <t>Taghazout</t>
@@ -806,19 +809,19 @@
     <t>Morocco</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/taghazout-morocco.jpg?1642465215</t>
+    <t>https://nomadlist.com/assets/img/places/taghazout-morocco.jpg?1642465215</t>
   </si>
   <si>
     <t>San Miguel De Allende</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/san-miguel-de-allende-mexico.jpg?1653005015</t>
+    <t>https://nomadlist.com/assets/img/places/san-miguel-de-allende-mexico.jpg?1653005015</t>
   </si>
   <si>
     <t>Dubrovnik</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dubrovnik-croatia.jpg?1642636963</t>
+    <t>https://nomadlist.com/assets/img/places/dubrovnik-croatia.jpg?1642636963</t>
   </si>
   <si>
     <t>Quito</t>
@@ -827,25 +830,25 @@
     <t>Ecuador</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/quito-ecuador.jpg?1653091345</t>
+    <t>https://nomadlist.com/assets/img/places/quito-ecuador.jpg?1653091345</t>
   </si>
   <si>
     <t>Constanta</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/constanta-romania.jpg?1643068905</t>
+    <t>https://nomadlist.com/assets/img/places/constanta-romania.jpg?1643068905</t>
   </si>
   <si>
     <t>Tulum</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tulum-mexico.jpg?1653523348</t>
+    <t>https://nomadlist.com/assets/img/places/tulum-mexico.jpg?1653523348</t>
   </si>
   <si>
     <t>Puerto Escondido</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/puerto-escondido-mexico.jpg?1643500826</t>
+    <t>https://nomadlist.com/assets/img/places/puerto-escondido-mexico.jpg?1643500826</t>
   </si>
   <si>
     <t>Lima</t>
@@ -854,43 +857,43 @@
     <t>Peru</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lima-peru.jpg?1653004922</t>
+    <t>https://nomadlist.com/assets/img/places/lima-peru.jpg?1653004922</t>
   </si>
   <si>
     <t>Tucson</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tucson-az-united-states.jpg?1653005014</t>
+    <t>https://nomadlist.com/assets/img/places/tucson-az-united-states.jpg?1653005014</t>
   </si>
   <si>
     <t>Brno</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/brno-czechia.jpg?1656201776</t>
+    <t>https://nomadlist.com/assets/img/places/brno-czechia.jpg?1656201776</t>
   </si>
   <si>
     <t>Szczecin</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/szczecin-poland.jpg?1653091391</t>
+    <t>https://nomadlist.com/assets/img/places/szczecin-poland.jpg?1653091391</t>
   </si>
   <si>
     <t>Chatham</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/chatham-canada.jpg?1642550453</t>
+    <t>https://nomadlist.com/assets/img/places/chatham-canada.jpg?1642550453</t>
   </si>
   <si>
     <t>Braga</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/braga-portugal.jpg?1642528917</t>
+    <t>https://nomadlist.com/assets/img/places/braga-portugal.jpg?1642528917</t>
   </si>
   <si>
     <t>Azores</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/azores-portugal.jpg?1650499322</t>
+    <t>https://nomadlist.com/assets/img/places/azores-portugal.jpg?1650499322</t>
   </si>
   <si>
     <t>Havana</t>
@@ -899,7 +902,7 @@
     <t>Cuba</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/havana-cuba.jpg?1653091408</t>
+    <t>https://nomadlist.com/assets/img/places/havana-cuba.jpg?1653091408</t>
   </si>
   <si>
     <t>El Gouna</t>
@@ -911,25 +914,25 @@
     <t>Middle East</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/el-gouna-egypt.jpg?1653005021</t>
+    <t>https://nomadlist.com/assets/img/places/el-gouna-egypt.jpg?1653005021</t>
   </si>
   <si>
     <t>Seville</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/seville-spain.jpg?1644710475</t>
+    <t>https://nomadlist.com/assets/img/places/seville-spain.jpg?1644710475</t>
   </si>
   <si>
     <t>Cebu</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cebu-philippines.jpg?1653091377</t>
+    <t>https://nomadlist.com/assets/img/places/cebu-philippines.jpg?1653091377</t>
   </si>
   <si>
     <t>Ottawa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ottawa-canada.jpg?1642528936</t>
+    <t>https://nomadlist.com/assets/img/places/ottawa-canada.jpg?1642528936</t>
   </si>
   <si>
     <t>Shanghai</t>
@@ -938,61 +941,61 @@
     <t>China</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/shanghai-china.jpg?1657411483</t>
+    <t>https://nomadlist.com/assets/img/places/shanghai-china.jpg?1657411483</t>
   </si>
   <si>
     <t>Queretaro</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/queretaro-mexico.jpg?1653005041</t>
+    <t>https://nomadlist.com/assets/img/places/queretaro-mexico.jpg?1653005041</t>
   </si>
   <si>
     <t>Minneapolis</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/minneapolis-mn-united-states.jpg?1642723329</t>
+    <t>https://nomadlist.com/assets/img/places/minneapolis-mn-united-states.jpg?1642723329</t>
   </si>
   <si>
     <t>Ploiesti</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ploiesti-romania.jpg?1653091384</t>
+    <t>https://nomadlist.com/assets/img/places/ploiesti-romania.jpg?1653091384</t>
   </si>
   <si>
     <t>Gdansk</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/gdansk-poland.jpg?1642528511</t>
+    <t>https://nomadlist.com/assets/img/places/gdansk-poland.jpg?1642528511</t>
   </si>
   <si>
     <t>Jeju Island</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/jeju-island-south-korea.jpg?1653004968</t>
+    <t>https://nomadlist.com/assets/img/places/jeju-island-south-korea.jpg?1653004968</t>
   </si>
   <si>
     <t>Seattle</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/seattle-wa-united-states.jpg?1644537689</t>
+    <t>https://nomadlist.com/assets/img/places/seattle-wa-united-states.jpg?1644537689</t>
   </si>
   <si>
     <t>Victoria</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/victoria-canada.jpg?1642528934</t>
+    <t>https://nomadlist.com/assets/img/places/victoria-canada.jpg?1642528934</t>
   </si>
   <si>
     <t>Edmonton</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/edmonton-canada.jpg?1642982507</t>
+    <t>https://nomadlist.com/assets/img/places/edmonton-canada.jpg?1642982507</t>
   </si>
   <si>
     <t>Cologne</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cologne-germany.jpg?1644624182</t>
+    <t>https://nomadlist.com/assets/img/places/cologne-germany.jpg?1644624182</t>
   </si>
   <si>
     <t>Paris</t>
@@ -1001,7 +1004,7 @@
     <t>France</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/paris-france.jpg?1653091378</t>
+    <t>https://nomadlist.com/assets/img/places/paris-france.jpg?1653091378</t>
   </si>
   <si>
     <t>Brussels</t>
@@ -1010,19 +1013,19 @@
     <t>Belgium</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/brussels-belgium.jpg?1642464172</t>
+    <t>https://nomadlist.com/assets/img/places/brussels-belgium.jpg?1642464172</t>
   </si>
   <si>
     <t>Krabi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/krabi-thailand.jpg?1644883468</t>
+    <t>https://nomadlist.com/assets/img/places/krabi-thailand.jpg?1644883468</t>
   </si>
   <si>
     <t>Mumbai</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mumbai-india.jpg?1656028984</t>
+    <t>https://nomadlist.com/assets/img/places/mumbai-india.jpg?1656028984</t>
   </si>
   <si>
     <t>Luang Prabang</t>
@@ -1031,25 +1034,25 @@
     <t>Laos</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/luang-prabang-laos.jpg?1642464209</t>
+    <t>https://nomadlist.com/assets/img/places/luang-prabang-laos.jpg?1642464209</t>
   </si>
   <si>
     <t>Salt Lake City</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/salta-argentina.jpg?1642529064</t>
+    <t>https://nomadlist.com/assets/img/places/salta-argentina.jpg?1642529064</t>
   </si>
   <si>
     <t>Varna</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/varna-bulgaria.jpg?1642464133</t>
+    <t>https://nomadlist.com/assets/img/places/varna-bulgaria.jpg?1642464133</t>
   </si>
   <si>
     <t>Poznan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/poznan-poland.jpg?1653091389</t>
+    <t>https://nomadlist.com/assets/img/places/poznan-poland.jpg?1653091389</t>
   </si>
   <si>
     <t>Tirana</t>
@@ -1058,43 +1061,43 @@
     <t>Albania</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tirana-albania.jpg?1642723325</t>
+    <t>https://nomadlist.com/assets/img/places/tirana-albania.jpg?1642723325</t>
   </si>
   <si>
     <t>Perth</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/perth-australia.jpg?1642464128</t>
+    <t>https://nomadlist.com/assets/img/places/perth-australia.jpg?1642464128</t>
   </si>
   <si>
     <t>Aveiro</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/aveiro-portugal.jpg?1642637032</t>
+    <t>https://nomadlist.com/assets/img/places/aveiro-portugal.jpg?1642637032</t>
   </si>
   <si>
     <t>Christchurch</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/christchurch-new-zealand.jpg?1652400153</t>
+    <t>https://nomadlist.com/assets/img/places/christchurch-new-zealand.jpg?1652400153</t>
   </si>
   <si>
     <t>Hoi An</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hoi-an-vietnam.jpg?1642528942</t>
+    <t>https://nomadlist.com/assets/img/places/hoi-an-vietnam.jpg?1642528942</t>
   </si>
   <si>
     <t>Porto Alegre</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/porto-alegre-brazil.jpg?1644019357</t>
+    <t>https://nomadlist.com/assets/img/places/porto-alegre-brazil.jpg?1644019357</t>
   </si>
   <si>
     <t>Leipzig</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/leipzig-germany.jpg?1646265743</t>
+    <t>https://nomadlist.com/assets/img/places/leipzig-germany.jpg?1646265743</t>
   </si>
   <si>
     <t>Suva</t>
@@ -1103,7 +1106,7 @@
     <t>Fiji</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/suva-fiji.jpg?1642464200</t>
+    <t>https://nomadlist.com/assets/img/places/suva-fiji.jpg?1642464200</t>
   </si>
   <si>
     <t>Praia</t>
@@ -1112,13 +1115,13 @@
     <t>Cape Verde</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/praia-cape-verde.jpg?1654647283</t>
+    <t>https://nomadlist.com/assets/img/places/praia-cape-verde.jpg?1654647283</t>
   </si>
   <si>
     <t>Katowice</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/katowice-poland.jpg?1653091474</t>
+    <t>https://nomadlist.com/assets/img/places/katowice-poland.jpg?1653091474</t>
   </si>
   <si>
     <t>Tokyo</t>
@@ -1127,121 +1130,121 @@
     <t>Japan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tokyo-japan.jpg?1653091419</t>
+    <t>https://nomadlist.com/assets/img/places/tokyo-japan.jpg?1653091419</t>
   </si>
   <si>
     <t>San Diego</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/san-diego-ca-united-states.jpg?1642723296</t>
+    <t>https://nomadlist.com/assets/img/places/san-diego-ca-united-states.jpg?1642723296</t>
   </si>
   <si>
     <t>Galapagos Islands</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/galapagos-islands-ecuador.jpg?1654041957</t>
+    <t>https://nomadlist.com/assets/img/places/galapagos-islands-ecuador.jpg?1654041957</t>
   </si>
   <si>
     <t>Palawan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/palawan-philippines.jpg?1642464203</t>
+    <t>https://nomadlist.com/assets/img/places/palawan-philippines.jpg?1642464203</t>
   </si>
   <si>
     <t>Orlando</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/orlando-fl-united-states.jpg?1643673809</t>
+    <t>https://nomadlist.com/assets/img/places/orlando-fl-united-states.jpg?1643673809</t>
   </si>
   <si>
     <t>Puerto Vallarta</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/puerto-vallarta-mexico.jpg?1653005206</t>
+    <t>https://nomadlist.com/assets/img/places/puerto-vallarta-mexico.jpg?1653005206</t>
   </si>
   <si>
     <t>Nis</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nis-serbia.jpg?1646957155</t>
+    <t>https://nomadlist.com/assets/img/places/nis-serbia.jpg?1646957155</t>
   </si>
   <si>
     <t>Lodz</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lodz-poland.jpg?1642464179</t>
+    <t>https://nomadlist.com/assets/img/places/lodz-poland.jpg?1642464179</t>
   </si>
   <si>
     <t>Frankfurt</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/frankfurt-germany.jpg?1646524956</t>
+    <t>https://nomadlist.com/assets/img/places/frankfurt-germany.jpg?1646524956</t>
   </si>
   <si>
     <t>Dusseldorf</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dusseldorf-germany.jpg?1646438859</t>
+    <t>https://nomadlist.com/assets/img/places/dusseldorf-germany.jpg?1646438859</t>
   </si>
   <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lille-france.jpg?1653091460</t>
+    <t>https://nomadlist.com/assets/img/places/lille-france.jpg?1653091460</t>
   </si>
   <si>
     <t>New Orleans</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/new-orleans-la-united-states.jpg?1655426944</t>
+    <t>https://nomadlist.com/assets/img/places/new-orleans-la-united-states.jpg?1655426944</t>
   </si>
   <si>
     <t>Aberdeen</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/aberdeen-united-kingdom.jpg?1655078884</t>
+    <t>https://nomadlist.com/assets/img/places/aberdeen-united-kingdom.jpg?1655078884</t>
   </si>
   <si>
     <t>Winnipeg</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/winnipeg-canada.jpg?1653091426</t>
+    <t>https://nomadlist.com/assets/img/places/winnipeg-canada.jpg?1653091426</t>
   </si>
   <si>
     <t>Brampton</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/brampton-canada.jpg?1653091441</t>
+    <t>https://nomadlist.com/assets/img/places/brampton-canada.jpg?1653091441</t>
   </si>
   <si>
     <t>Liverpool</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/liverpool-united-kingdom.jpg?1656892906</t>
+    <t>https://nomadlist.com/assets/img/places/liverpool-united-kingdom.jpg?1656892906</t>
   </si>
   <si>
     <t>Senggigi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/senggigi-lombok-indonesia.jpg?1642464326</t>
+    <t>https://nomadlist.com/assets/img/places/senggigi-lombok-indonesia.jpg?1642464326</t>
   </si>
   <si>
     <t>Lublin</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lublin-poland.jpg?1653005179</t>
+    <t>https://nomadlist.com/assets/img/places/lublin-poland.jpg?1653005179</t>
   </si>
   <si>
     <t>Tartu</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tartu-estonia.jpg?1656461391</t>
+    <t>https://nomadlist.com/assets/img/places/tartu-estonia.jpg?1656461391</t>
   </si>
   <si>
     <t>Queenstown</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/queenstown-new-zealand.jpg?1642723399</t>
+    <t>https://nomadlist.com/assets/img/places/queenstown-new-zealand.jpg?1642723399</t>
   </si>
   <si>
     <t>Asuncion</t>
@@ -1250,19 +1253,19 @@
     <t>Paraguay</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/asuncion-paraguay.jpg?1652832442</t>
+    <t>https://nomadlist.com/assets/img/places/asuncion-paraguay.jpg?1652832442</t>
   </si>
   <si>
     <t>Hyderabad</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hyderabad-india.jpg?1642464581</t>
+    <t>https://nomadlist.com/assets/img/places/hyderabad-india.jpg?1642464581</t>
   </si>
   <si>
     <t>Port Elizabeth</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/port-elizabeth-south-africa.jpg?1646006656</t>
+    <t>https://nomadlist.com/assets/img/places/port-elizabeth-south-africa.jpg?1646006656</t>
   </si>
   <si>
     <t>Paphos</t>
@@ -1271,97 +1274,97 @@
     <t>Cyprus</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/paphos-cyprus.jpg?1654906741</t>
+    <t>https://nomadlist.com/assets/img/places/paphos-cyprus.jpg?1654906741</t>
   </si>
   <si>
     <t>Lake Balaton</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lake-balaton-hungary.jpg?1642464370</t>
+    <t>https://nomadlist.com/assets/img/places/lake-balaton-hungary.jpg?1642464370</t>
   </si>
   <si>
     <t>Newcastle Upon Tyne</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/newcastle-upon-tyne-united-kingdom.jpg?1642636992</t>
+    <t>https://nomadlist.com/assets/img/places/newcastle-upon-tyne-united-kingdom.jpg?1642636992</t>
   </si>
   <si>
     <t>Osijek</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/osijek-croatia.jpg?1653091502</t>
+    <t>https://nomadlist.com/assets/img/places/osijek-croatia.jpg?1653091502</t>
   </si>
   <si>
     <t>Pretoria</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/pretoria-south-africa.jpg?1653006455</t>
+    <t>https://nomadlist.com/assets/img/places/pretoria-south-africa.jpg?1653006455</t>
   </si>
   <si>
     <t>Calgary</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/calgary-canada.jpg?1642723429</t>
+    <t>https://nomadlist.com/assets/img/places/calgary-canada.jpg?1642723429</t>
   </si>
   <si>
     <t>Cuenca</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cuenca-ecuador.jpg?1642464166</t>
+    <t>https://nomadlist.com/assets/img/places/cuenca-ecuador.jpg?1642464166</t>
   </si>
   <si>
     <t>Marrakesh</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/marrakesh-morocco.jpg?1646784329</t>
+    <t>https://nomadlist.com/assets/img/places/marrakesh-morocco.jpg?1646784329</t>
   </si>
   <si>
     <t>Saskatoon</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/saskatoon-canada.jpg?1642464283</t>
+    <t>https://nomadlist.com/assets/img/places/saskatoon-canada.jpg?1642464283</t>
   </si>
   <si>
     <t>Osaka</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/osaka-japan.jpg?1645401802</t>
+    <t>https://nomadlist.com/assets/img/places/osaka-japan.jpg?1645401802</t>
   </si>
   <si>
     <t>Regina</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/regina-canada.jpg?1643587954</t>
+    <t>https://nomadlist.com/assets/img/places/regina-canada.jpg?1643587954</t>
   </si>
   <si>
     <t>Kansas City</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kansas-city-mo-united-states.jpg?1642464136</t>
+    <t>https://nomadlist.com/assets/img/places/kansas-city-mo-united-states.jpg?1642464136</t>
   </si>
   <si>
     <t>Vadodara</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/vadodara-india.jpg?1653006834</t>
+    <t>https://nomadlist.com/assets/img/places/vadodara-india.jpg?1653006834</t>
   </si>
   <si>
     <t>Fayetteville</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/fayetteville-nc-united-states.jpg?1653005380</t>
+    <t>https://nomadlist.com/assets/img/places/fayetteville-nc-united-states.jpg?1653005380</t>
   </si>
   <si>
     <t>Haikou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/haikou-china.jpg?1653005104</t>
+    <t>https://nomadlist.com/assets/img/places/haikou-china.jpg?1653005104</t>
   </si>
   <si>
     <t>San Antonio</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/san-antonio-tx-united-states.jpg?1655339389</t>
+    <t>https://nomadlist.com/assets/img/places/san-antonio-tx-united-states.jpg?1655339389</t>
   </si>
   <si>
     <t>Palermo</t>
@@ -1370,19 +1373,19 @@
     <t>Italy</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/palermo-italy.jpg?1642637428</t>
+    <t>https://nomadlist.com/assets/img/places/palermo-italy.jpg?1642637428</t>
   </si>
   <si>
     <t>General Santos</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/general-santos-philippines.jpg?1653091495</t>
+    <t>https://nomadlist.com/assets/img/places/general-santos-philippines.jpg?1653091495</t>
   </si>
   <si>
     <t>Adelaide</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/adelaide-australia.jpg?1653005190</t>
+    <t>https://nomadlist.com/assets/img/places/adelaide-australia.jpg?1653005190</t>
   </si>
   <si>
     <t>Antigua</t>
@@ -1391,91 +1394,91 @@
     <t>Guatemala</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/antigua-guatemala.jpg?1642464221</t>
+    <t>https://nomadlist.com/assets/img/places/antigua-guatemala.jpg?1642464221</t>
   </si>
   <si>
     <t>Seminyak</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/seminyak-bali-indonesia.jpg?1653091353</t>
+    <t>https://nomadlist.com/assets/img/places/seminyak-bali-indonesia.jpg?1653091353</t>
   </si>
   <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/toulouse-france.jpg?1654301374</t>
+    <t>https://nomadlist.com/assets/img/places/toulouse-france.jpg?1654301374</t>
   </si>
   <si>
     <t>Busan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/busan-south-korea.jpg?1642637119</t>
+    <t>https://nomadlist.com/assets/img/places/busan-south-korea.jpg?1642637119</t>
   </si>
   <si>
     <t>Mcallen</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mcallen-tx-united-states.jpg?1653437202</t>
+    <t>https://nomadlist.com/assets/img/places/mcallen-tx-united-states.jpg?1653437202</t>
   </si>
   <si>
     <t>Jamshedpur</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/jamshedpur-india.jpg?1651190839</t>
+    <t>https://nomadlist.com/assets/img/places/jamshedpur-india.jpg?1651190839</t>
   </si>
   <si>
     <t>Rijeka</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rijeka-croatia.jpg?1646611319</t>
+    <t>https://nomadlist.com/assets/img/places/rijeka-croatia.jpg?1646611319</t>
   </si>
   <si>
     <t>Oaxaca</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/oaxaca-mexico.jpg?1642464123</t>
+    <t>https://nomadlist.com/assets/img/places/oaxaca-mexico.jpg?1642464123</t>
   </si>
   <si>
     <t>Kuching</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kuching-malaysia.jpg?1647389092</t>
+    <t>https://nomadlist.com/assets/img/places/kuching-malaysia.jpg?1647389092</t>
   </si>
   <si>
     <t>Rotterdam</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rotterdam-netherlands.jpg?1642637080</t>
+    <t>https://nomadlist.com/assets/img/places/rotterdam-netherlands.jpg?1642637080</t>
   </si>
   <si>
     <t>Winston</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/winston-nc-united-states.jpg?1653006264</t>
+    <t>https://nomadlist.com/assets/img/places/winston-nc-united-states.jpg?1653006264</t>
   </si>
   <si>
     <t>Ogden</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ogden-ut-united-states.jpg?1653005202</t>
+    <t>https://nomadlist.com/assets/img/places/ogden-ut-united-states.jpg?1653005202</t>
   </si>
   <si>
     <t>Dhanbad</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dhanbad-india.jpg?1653006209</t>
+    <t>https://nomadlist.com/assets/img/places/dhanbad-india.jpg?1653006209</t>
   </si>
   <si>
     <t>Columbus</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/columbus-oh-united-states.jpg?1653005212</t>
+    <t>https://nomadlist.com/assets/img/places/columbus-oh-united-states.jpg?1653005212</t>
   </si>
   <si>
     <t>Pattaya</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/pattaya-thailand.jpg?1643069043</t>
+    <t>https://nomadlist.com/assets/img/places/pattaya-thailand.jpg?1643069043</t>
   </si>
   <si>
     <t>Reykjavik</t>
@@ -1484,193 +1487,193 @@
     <t>Iceland</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/reykjavik-iceland.jpg?1642464331</t>
+    <t>https://nomadlist.com/assets/img/places/reykjavik-iceland.jpg?1642464331</t>
   </si>
   <si>
     <t>Faro</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/faro-portugal.jpg?1642464318</t>
+    <t>https://nomadlist.com/assets/img/places/faro-portugal.jpg?1642464318</t>
   </si>
   <si>
     <t>Sioux Falls</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sioux-falls-sd-united-states.jpg?1653005317</t>
+    <t>https://nomadlist.com/assets/img/places/sioux-falls-sd-united-states.jpg?1653005317</t>
   </si>
   <si>
     <t>Brisbane</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/brisbane-australia.jpg?1653005103</t>
+    <t>https://nomadlist.com/assets/img/places/brisbane-australia.jpg?1653005103</t>
   </si>
   <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nantes-france.jpg?1642464268</t>
+    <t>https://nomadlist.com/assets/img/places/nantes-france.jpg?1642464268</t>
   </si>
   <si>
     <t>Malmo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/malmo-sweden.jpg?1653177768</t>
+    <t>https://nomadlist.com/assets/img/places/malmo-sweden.jpg?1653177768</t>
   </si>
   <si>
     <t>Stuttgart</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/stuttgart-germany.jpg?1642464290</t>
+    <t>https://nomadlist.com/assets/img/places/stuttgart-germany.jpg?1642464290</t>
   </si>
   <si>
     <t>Ko Lanta</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ko-lanta-thailand.jpg?1653005191</t>
+    <t>https://nomadlist.com/assets/img/places/ko-lanta-thailand.jpg?1653005191</t>
   </si>
   <si>
     <t>Craiova</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/craiova-romania.jpg?1642529019</t>
+    <t>https://nomadlist.com/assets/img/places/craiova-romania.jpg?1642529019</t>
   </si>
   <si>
     <t>Goa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/goa-india.jpg?1643156632</t>
+    <t>https://nomadlist.com/assets/img/places/goa-india.jpg?1643156632</t>
   </si>
   <si>
     <t>Salta</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/salt-lake-city-ut-united-states.jpg?1653091416</t>
+    <t>https://nomadlist.com/assets/img/places/salt-lake-city-ut-united-states.jpg?1653091416</t>
   </si>
   <si>
     <t>Manchester</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/manchester-united-kingdom.jpg?1653091430</t>
+    <t>https://nomadlist.com/assets/img/places/manchester-united-kingdom.jpg?1653091430</t>
   </si>
   <si>
     <t>Hua Hin</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hua-hin-thailand.jpg?1653005176</t>
+    <t>https://nomadlist.com/assets/img/places/hua-hin-thailand.jpg?1653005176</t>
   </si>
   <si>
     <t>Zadar</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/zadar-croatia.jpg?1643155578</t>
+    <t>https://nomadlist.com/assets/img/places/zadar-croatia.jpg?1643155578</t>
   </si>
   <si>
     <t>Surrey</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/surrey-canada.jpg?1642529014</t>
+    <t>https://nomadlist.com/assets/img/places/surrey-canada.jpg?1642529014</t>
   </si>
   <si>
     <t>Leicester</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/leicester-united-kingdom.jpg?1653005233</t>
+    <t>https://nomadlist.com/assets/img/places/leicester-united-kingdom.jpg?1653005233</t>
   </si>
   <si>
     <t>Cairns</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cairns-australia.jpg?1656288294</t>
+    <t>https://nomadlist.com/assets/img/places/cairns-australia.jpg?1656288294</t>
   </si>
   <si>
     <t>Kingsport</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kingsport-tn-united-states.jpg?1653005683</t>
+    <t>https://nomadlist.com/assets/img/places/kingsport-tn-united-states.jpg?1653005683</t>
   </si>
   <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/montpellier-france.jpg?1651708940</t>
+    <t>https://nomadlist.com/assets/img/places/montpellier-france.jpg?1651708940</t>
   </si>
   <si>
     <t>Kochi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kochi-india.jpg?1642724599</t>
+    <t>https://nomadlist.com/assets/img/places/kochi-india.jpg?1642724599</t>
   </si>
   <si>
     <t>Hilo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hilo-hawaii-united-states.jpg?1653005198</t>
+    <t>https://nomadlist.com/assets/img/places/hilo-hawaii-united-states.jpg?1653005198</t>
   </si>
   <si>
     <t>La Plata</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/la-plata-argentina.jpg?1642464323</t>
+    <t>https://nomadlist.com/assets/img/places/la-plata-argentina.jpg?1642464323</t>
   </si>
   <si>
     <t>Birmingham</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/birmingham-united-kingdom.jpg?1653955502</t>
+    <t>https://nomadlist.com/assets/img/places/birmingham-united-kingdom.jpg?1653955502</t>
   </si>
   <si>
     <t>Limassol</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/limassol-cyprus.jpg?1651363487</t>
+    <t>https://nomadlist.com/assets/img/places/limassol-cyprus.jpg?1651363487</t>
   </si>
   <si>
     <t>Gainesville</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/gainesville-fl-united-states.jpg?1653005355</t>
+    <t>https://nomadlist.com/assets/img/places/gainesville-fl-united-states.jpg?1653005355</t>
   </si>
   <si>
     <t>Guadalajara</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/guadalajara-mexico.jpg?1653091349</t>
+    <t>https://nomadlist.com/assets/img/places/guadalajara-mexico.jpg?1653091349</t>
   </si>
   <si>
     <t>Nuremberg</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nuremberg-germany.jpg?1642464894</t>
+    <t>https://nomadlist.com/assets/img/places/nuremberg-germany.jpg?1642464894</t>
   </si>
   <si>
     <t>Eau Claire</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/eau-claire-wi-united-states.jpg?1653005265</t>
+    <t>https://nomadlist.com/assets/img/places/eau-claire-wi-united-states.jpg?1653005265</t>
   </si>
   <si>
     <t>Abbotsford</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/abbotsford-canada.jpg?1653005293</t>
+    <t>https://nomadlist.com/assets/img/places/abbotsford-canada.jpg?1653005293</t>
   </si>
   <si>
     <t>Indianapolis</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/indianapolis-in-united-states.jpg?1653005259</t>
+    <t>https://nomadlist.com/assets/img/places/indianapolis-in-united-states.jpg?1653005259</t>
   </si>
   <si>
     <t>Fargo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/fargo-nd-united-states.jpg?1653005227</t>
+    <t>https://nomadlist.com/assets/img/places/fargo-nd-united-states.jpg?1653005227</t>
   </si>
   <si>
     <t>Hull</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hull-united-kingdom.jpg?1642637390</t>
+    <t>https://nomadlist.com/assets/img/places/hull-united-kingdom.jpg?1642637390</t>
   </si>
   <si>
     <t>Santo Domingo</t>
@@ -1679,91 +1682,91 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/santo-domingo-dominican-republic.jpg?1646352258</t>
+    <t>https://nomadlist.com/assets/img/places/santo-domingo-dominican-republic.jpg?1646352258</t>
   </si>
   <si>
     <t>Dunedin</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dunedin-new-zealand.jpg?1642982707</t>
+    <t>https://nomadlist.com/assets/img/places/dunedin-new-zealand.jpg?1642982707</t>
   </si>
   <si>
     <t>Mysore</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mysore-india.jpg?1642637133</t>
+    <t>https://nomadlist.com/assets/img/places/mysore-india.jpg?1642637133</t>
   </si>
   <si>
     <t>Laredo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/laredo-tx-united-states.jpg?1653006003</t>
+    <t>https://nomadlist.com/assets/img/places/laredo-tx-united-states.jpg?1653006003</t>
   </si>
   <si>
     <t>Beaumont</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/beaumont-tx-united-states.jpg?1653005181</t>
+    <t>https://nomadlist.com/assets/img/places/beaumont-tx-united-states.jpg?1653005181</t>
   </si>
   <si>
     <t>Naha</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/naha-okinawa-japan.jpg?1653005268</t>
+    <t>https://nomadlist.com/assets/img/places/naha-okinawa-japan.jpg?1653005268</t>
   </si>
   <si>
     <t>Pittsburgh</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/pittsburgh-pa-united-states.jpg?1642723361</t>
+    <t>https://nomadlist.com/assets/img/places/pittsburgh-pa-united-states.jpg?1642723361</t>
   </si>
   <si>
     <t>Cincinnati</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cincinnati-oh-united-states.jpg?1653005468</t>
+    <t>https://nomadlist.com/assets/img/places/cincinnati-oh-united-states.jpg?1653005468</t>
   </si>
   <si>
     <t>Fukuoka</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/fukuoka-japan.jpg?1642465152</t>
+    <t>https://nomadlist.com/assets/img/places/fukuoka-japan.jpg?1642465152</t>
   </si>
   <si>
     <t>Nha Trang</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nha-trang-vietnam.jpg?1653264138</t>
+    <t>https://nomadlist.com/assets/img/places/nha-trang-vietnam.jpg?1653264138</t>
   </si>
   <si>
     <t>Iasi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/iasi-romania.jpg?1653005242</t>
+    <t>https://nomadlist.com/assets/img/places/iasi-romania.jpg?1653005242</t>
   </si>
   <si>
     <t>Chiang Rai</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/chiang-rai-thailand.jpg?1642464356</t>
+    <t>https://nomadlist.com/assets/img/places/chiang-rai-thailand.jpg?1642464356</t>
   </si>
   <si>
     <t>Aachen</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/aachen-germany.jpg?1644796925</t>
+    <t>https://nomadlist.com/assets/img/places/aachen-germany.jpg?1644796925</t>
   </si>
   <si>
     <t>Rosario</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rosario-argentina.jpg?1642464486</t>
+    <t>https://nomadlist.com/assets/img/places/rosario-argentina.jpg?1642464486</t>
   </si>
   <si>
     <t>Mallorca</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mallorca-spain.jpg?1653005273</t>
+    <t>https://nomadlist.com/assets/img/places/mallorca-spain.jpg?1653005273</t>
   </si>
   <si>
     <t>Chittagong</t>
@@ -1772,199 +1775,199 @@
     <t>Bangladesh</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/chittagong-bangladesh.jpg?1642529032</t>
+    <t>https://nomadlist.com/assets/img/places/chittagong-bangladesh.jpg?1642529032</t>
   </si>
   <si>
     <t>Cusco</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cusco-peru.jpg?1653696191</t>
+    <t>https://nomadlist.com/assets/img/places/cusco-peru.jpg?1653696191</t>
   </si>
   <si>
     <t>Roanoke</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/roanoke-va-united-states.jpg?1653005364</t>
+    <t>https://nomadlist.com/assets/img/places/roanoke-va-united-states.jpg?1653005364</t>
   </si>
   <si>
     <t>Oklahoma City</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/oklahoma-city-ok-united-states.jpg?1653005552</t>
+    <t>https://nomadlist.com/assets/img/places/oklahoma-city-ok-united-states.jpg?1653005552</t>
   </si>
   <si>
     <t>Tangier</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tangier-morocco.jpg?1642464332</t>
+    <t>https://nomadlist.com/assets/img/places/tangier-morocco.jpg?1642464332</t>
   </si>
   <si>
     <t>Kokomo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kokomo-in-united-states.jpg?1653005393</t>
+    <t>https://nomadlist.com/assets/img/places/kokomo-in-united-states.jpg?1653005393</t>
   </si>
   <si>
     <t>Grande Prairie</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/grande-prairie-canada.jpg?1642529083</t>
+    <t>https://nomadlist.com/assets/img/places/grande-prairie-canada.jpg?1642529083</t>
   </si>
   <si>
     <t>Conroe</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/conroe-tx-united-states.jpg?1653437292</t>
+    <t>https://nomadlist.com/assets/img/places/conroe-tx-united-states.jpg?1653437292</t>
   </si>
   <si>
     <t>Antwerp</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/antwerp-belgium.jpg?1653005879</t>
+    <t>https://nomadlist.com/assets/img/places/antwerp-belgium.jpg?1653005879</t>
   </si>
   <si>
     <t>Fredericton</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/fredericton-canada.jpg?1653005403</t>
+    <t>https://nomadlist.com/assets/img/places/fredericton-canada.jpg?1653005403</t>
   </si>
   <si>
     <t>Gothenburg</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/gothenburg-sweden.jpg?1657238624</t>
+    <t>https://nomadlist.com/assets/img/places/gothenburg-sweden.jpg?1657238624</t>
   </si>
   <si>
     <t>Phoenix</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/phoenix-az-united-states.jpg?1651449794</t>
+    <t>https://nomadlist.com/assets/img/places/phoenix-az-united-states.jpg?1651449794</t>
   </si>
   <si>
     <t>Alicante</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/alicante-spain.jpg?1642550475</t>
+    <t>https://nomadlist.com/assets/img/places/alicante-spain.jpg?1642550475</t>
   </si>
   <si>
     <t>Pai</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/pai-thailand.jpg?1653005393</t>
+    <t>https://nomadlist.com/assets/img/places/pai-thailand.jpg?1653005393</t>
   </si>
   <si>
     <t>Salvador</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/salvador-brazil.jpg?1652227654</t>
+    <t>https://nomadlist.com/assets/img/places/salvador-brazil.jpg?1652227654</t>
   </si>
   <si>
     <t>Merida</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/merida-mexico.jpg?1654734144</t>
+    <t>https://nomadlist.com/assets/img/places/merida-mexico.jpg?1654734144</t>
   </si>
   <si>
     <t>Halifax</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/halifax-canada.jpg?1656547540</t>
+    <t>https://nomadlist.com/assets/img/places/halifax-canada.jpg?1656547540</t>
   </si>
   <si>
     <t>Evansville</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/evansville-in-united-states.jpg?1653005170</t>
+    <t>https://nomadlist.com/assets/img/places/evansville-in-united-states.jpg?1653005170</t>
   </si>
   <si>
     <t>El Jadida</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/el-jadida-morocco.jpg?1642529523</t>
+    <t>https://nomadlist.com/assets/img/places/el-jadida-morocco.jpg?1642529523</t>
   </si>
   <si>
     <t>Charlotte</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/charlotte-nc-united-states.jpg?1653005702</t>
+    <t>https://nomadlist.com/assets/img/places/charlotte-nc-united-states.jpg?1653005702</t>
   </si>
   <si>
     <t>Groningen</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/groningen-netherlands.jpg?1643846503</t>
+    <t>https://nomadlist.com/assets/img/places/groningen-netherlands.jpg?1643846503</t>
   </si>
   <si>
     <t>Minot</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/minot-nd-united-states.jpg?1653005302</t>
+    <t>https://nomadlist.com/assets/img/places/minot-nd-united-states.jpg?1653005302</t>
   </si>
   <si>
     <t>Brownsville</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/brownsville-tx-united-states.jpg?1653005387</t>
+    <t>https://nomadlist.com/assets/img/places/brownsville-tx-united-states.jpg?1653005387</t>
   </si>
   <si>
     <t>Las Cruces</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/las-cruces-nm-united-states.jpg?1653005398</t>
+    <t>https://nomadlist.com/assets/img/places/las-cruces-nm-united-states.jpg?1653005398</t>
   </si>
   <si>
     <t>Richmond</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/richmond-va-united-states.jpg?1653005388</t>
+    <t>https://nomadlist.com/assets/img/places/richmond-va-united-states.jpg?1653005388</t>
   </si>
   <si>
     <t>Hagen</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hagen-germany.jpg?1643328290</t>
+    <t>https://nomadlist.com/assets/img/places/hagen-germany.jpg?1643328290</t>
   </si>
   <si>
     <t>Bordeaux</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bordeaux-france.jpg?1642464820</t>
+    <t>https://nomadlist.com/assets/img/places/bordeaux-france.jpg?1642464820</t>
   </si>
   <si>
     <t>Ushuaia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ushuaia-argentina.jpg?1642723529</t>
+    <t>https://nomadlist.com/assets/img/places/ushuaia-argentina.jpg?1642723529</t>
   </si>
   <si>
     <t>Oshawa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/oshawa-canada.jpg?1642464339</t>
+    <t>https://nomadlist.com/assets/img/places/oshawa-canada.jpg?1642464339</t>
   </si>
   <si>
     <t>Graz</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/graz-austria.jpg?1653005493</t>
+    <t>https://nomadlist.com/assets/img/places/graz-austria.jpg?1653005493</t>
   </si>
   <si>
     <t>Chico</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/chico-ca-united-states.jpg?1642464313</t>
+    <t>https://nomadlist.com/assets/img/places/chico-ca-united-states.jpg?1642464313</t>
   </si>
   <si>
     <t>Waterloo Ia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/waterloo-ia-united-states.jpg?1653005147</t>
+    <t>https://nomadlist.com/assets/img/places/waterloo-ia-united-states.jpg?1653005147</t>
   </si>
   <si>
     <t>Arequipa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/arequipa-peru.jpg?1647389575</t>
+    <t>https://nomadlist.com/assets/img/places/arequipa-peru.jpg?1647389575</t>
   </si>
   <si>
     <t>Apia</t>
@@ -1973,49 +1976,49 @@
     <t>Samoa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/apia-samoa.jpg?1653005404</t>
+    <t>https://nomadlist.com/assets/img/places/apia-samoa.jpg?1653005404</t>
   </si>
   <si>
     <t>Sumperk</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sumperk-czechia.jpg?1642723684</t>
+    <t>https://nomadlist.com/assets/img/places/sumperk-czechia.jpg?1642723684</t>
   </si>
   <si>
     <t>Fortaleza</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/fortaleza-brazil.jpg?1642464420</t>
+    <t>https://nomadlist.com/assets/img/places/fortaleza-brazil.jpg?1642464420</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/malaga-spain.jpg?1642896149</t>
+    <t>https://nomadlist.com/assets/img/places/malaga-spain.jpg?1642896149</t>
   </si>
   <si>
     <t>Ranchi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ranchi-india.jpg?1653006582</t>
+    <t>https://nomadlist.com/assets/img/places/ranchi-india.jpg?1653006582</t>
   </si>
   <si>
     <t>Gaziantep</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/gaziantep-turkey.jpg?1653005419</t>
+    <t>https://nomadlist.com/assets/img/places/gaziantep-turkey.jpg?1653005419</t>
   </si>
   <si>
     <t>Adana</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/adana-turkey.jpg?1653005375</t>
+    <t>https://nomadlist.com/assets/img/places/adana-turkey.jpg?1653005375</t>
   </si>
   <si>
     <t>Houston</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/houston-tx-united-states.jpg?1657325118</t>
+    <t>https://nomadlist.com/assets/img/places/houston-tx-united-states.jpg?1657325118</t>
   </si>
   <si>
     <t>Georgetown</t>
@@ -2024,67 +2027,67 @@
     <t>Guyana</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/georgetown-guyana.jpg?1653005992</t>
+    <t>https://nomadlist.com/assets/img/places/georgetown-guyana.jpg?1653005992</t>
   </si>
   <si>
     <t>Surabaya</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/surabaya-indonesia.jpg?1643156208</t>
+    <t>https://nomadlist.com/assets/img/places/surabaya-indonesia.jpg?1643156208</t>
   </si>
   <si>
     <t>Nakhon Ratchasima</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nakhon-ratchasima-thailand.jpg?1651881823</t>
+    <t>https://nomadlist.com/assets/img/places/nakhon-ratchasima-thailand.jpg?1651881823</t>
   </si>
   <si>
     <t>Jena</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/jena-germany.jpg?1642809855</t>
+    <t>https://nomadlist.com/assets/img/places/jena-germany.jpg?1642809855</t>
   </si>
   <si>
     <t>Kitchener</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kitchener-canada.jpg?1642529280</t>
+    <t>https://nomadlist.com/assets/img/places/kitchener-canada.jpg?1642529280</t>
   </si>
   <si>
     <t>Kaohsiung</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kaohsiung-taiwan.jpg?1642464225</t>
+    <t>https://nomadlist.com/assets/img/places/kaohsiung-taiwan.jpg?1642464225</t>
   </si>
   <si>
     <t>Recife</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/recife-brazil.jpg?1644192245</t>
+    <t>https://nomadlist.com/assets/img/places/recife-brazil.jpg?1644192245</t>
   </si>
   <si>
     <t>Greensboro</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/greensboro-nc-united-states.jpg?1653005634</t>
+    <t>https://nomadlist.com/assets/img/places/greensboro-nc-united-states.jpg?1653005634</t>
   </si>
   <si>
     <t>Pharr</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/pharr-tx-united-states.jpg?1653264434</t>
+    <t>https://nomadlist.com/assets/img/places/pharr-tx-united-states.jpg?1653264434</t>
   </si>
   <si>
     <t>Bakersfield</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bakersfield-ca-united-states.jpg?1653005910</t>
+    <t>https://nomadlist.com/assets/img/places/bakersfield-ca-united-states.jpg?1653005910</t>
   </si>
   <si>
     <t>Montgomery</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/montgomery-al-united-states.jpg?1653005428</t>
+    <t>https://nomadlist.com/assets/img/places/montgomery-al-united-states.jpg?1653005428</t>
   </si>
   <si>
     <t>Zurich</t>
@@ -2093,73 +2096,73 @@
     <t>Switzerland</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/zurich-switzerland.jpg?1642809826</t>
+    <t>https://nomadlist.com/assets/img/places/zurich-switzerland.jpg?1642809826</t>
   </si>
   <si>
     <t>Karlsruhe</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/karlsruhe-germany.jpg?1645229131</t>
+    <t>https://nomadlist.com/assets/img/places/karlsruhe-germany.jpg?1645229131</t>
   </si>
   <si>
     <t>Tulsa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tulsa-ok-united-states.jpg?1653006819</t>
+    <t>https://nomadlist.com/assets/img/places/tulsa-ok-united-states.jpg?1653006819</t>
   </si>
   <si>
     <t>Cartagena</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cartagena-colombia.jpg?1642637131</t>
+    <t>https://nomadlist.com/assets/img/places/cartagena-colombia.jpg?1642637131</t>
   </si>
   <si>
     <t>Raleigh</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/raleigh-nc-united-states.jpg?1653005733</t>
+    <t>https://nomadlist.com/assets/img/places/raleigh-nc-united-states.jpg?1653005733</t>
   </si>
   <si>
     <t>Hanoi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hanoi-vietnam.jpg?1642464241</t>
+    <t>https://nomadlist.com/assets/img/places/hanoi-vietnam.jpg?1642464241</t>
   </si>
   <si>
     <t>Visalia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/visalia-ca-united-states.jpg?1653005861</t>
+    <t>https://nomadlist.com/assets/img/places/visalia-ca-united-states.jpg?1653005861</t>
   </si>
   <si>
     <t>Izmir</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/izmir-turkey.jpg?1655513318</t>
+    <t>https://nomadlist.com/assets/img/places/izmir-turkey.jpg?1655513318</t>
   </si>
   <si>
     <t>Guelph</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/guelph-canada.jpg?1642637306</t>
+    <t>https://nomadlist.com/assets/img/places/guelph-canada.jpg?1642637306</t>
   </si>
   <si>
     <t>Edinburg</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/edinburg-tx-united-states.jpg?1653006460</t>
+    <t>https://nomadlist.com/assets/img/places/edinburg-tx-united-states.jpg?1653006460</t>
   </si>
   <si>
     <t>Boracay</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/boracay-philippines.jpg?1653005394</t>
+    <t>https://nomadlist.com/assets/img/places/boracay-philippines.jpg?1653005394</t>
   </si>
   <si>
     <t>Ankara</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ankara-turkey.jpg?1655513439</t>
+    <t>https://nomadlist.com/assets/img/places/ankara-turkey.jpg?1655513439</t>
   </si>
   <si>
     <t>Helsinki</t>
@@ -2168,241 +2171,241 @@
     <t>Finland</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/helsinki-finland.jpg?1642464214</t>
+    <t>https://nomadlist.com/assets/img/places/helsinki-finland.jpg?1642464214</t>
   </si>
   <si>
     <t>Lyon</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lyon-france.jpg?1650153786</t>
+    <t>https://nomadlist.com/assets/img/places/lyon-france.jpg?1650153786</t>
   </si>
   <si>
     <t>Salem</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/salem-or-united-states.jpg?1653005375</t>
+    <t>https://nomadlist.com/assets/img/places/salem-or-united-states.jpg?1653005375</t>
   </si>
   <si>
     <t>Moncton</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/moncton-canada.jpg?1642637247</t>
+    <t>https://nomadlist.com/assets/img/places/moncton-canada.jpg?1642637247</t>
   </si>
   <si>
     <t>Javea</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/javea-spain.jpg?1653005798</t>
+    <t>https://nomadlist.com/assets/img/places/javea-spain.jpg?1653005798</t>
   </si>
   <si>
     <t>Changzhou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/changzhou-china.jpg?1652918892</t>
+    <t>https://nomadlist.com/assets/img/places/changzhou-china.jpg?1652918892</t>
   </si>
   <si>
     <t>Beacon</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/beacon-ny-united-states.jpg?1644192349</t>
+    <t>https://nomadlist.com/assets/img/places/beacon-ny-united-states.jpg?1644192349</t>
   </si>
   <si>
     <t>Valdosta</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/valdosta-ga-united-states.jpg?1653005745</t>
+    <t>https://nomadlist.com/assets/img/places/valdosta-ga-united-states.jpg?1653005745</t>
   </si>
   <si>
     <t>Rocky Mount</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rocky-mount-nc-united-states.jpg?1653005845</t>
+    <t>https://nomadlist.com/assets/img/places/rocky-mount-nc-united-states.jpg?1653005845</t>
   </si>
   <si>
     <t>Huddersfield</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/huddersfield-united-kingdom.jpg?1643069262</t>
+    <t>https://nomadlist.com/assets/img/places/huddersfield-united-kingdom.jpg?1643069262</t>
   </si>
   <si>
     <t>Columbus Ga</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/columbus-ga-united-states.jpg?1653005752</t>
+    <t>https://nomadlist.com/assets/img/places/columbus-ga-united-states.jpg?1653005752</t>
   </si>
   <si>
     <t>Nashville</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nashville-tn-united-states.jpg?1643068909</t>
+    <t>https://nomadlist.com/assets/img/places/nashville-tn-united-states.jpg?1643068909</t>
   </si>
   <si>
     <t>Rzeszow</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rzeszow-poland.jpg?1642529227</t>
+    <t>https://nomadlist.com/assets/img/places/rzeszow-poland.jpg?1642529227</t>
   </si>
   <si>
     <t>Syracuse</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/syracuse-ny-united-states.jpg?1649808628</t>
+    <t>https://nomadlist.com/assets/img/places/syracuse-ny-united-states.jpg?1649808628</t>
   </si>
   <si>
     <t>Sacramento</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sacramento-ca-united-states.jpg?1652832746</t>
+    <t>https://nomadlist.com/assets/img/places/sacramento-ca-united-states.jpg?1652832746</t>
   </si>
   <si>
     <t>Youngstown</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/youngstown-oh-united-states.jpg?1653005762</t>
+    <t>https://nomadlist.com/assets/img/places/youngstown-oh-united-states.jpg?1653005762</t>
   </si>
   <si>
     <t>Augusta</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/augusta-ga-united-states.jpg?1653005981</t>
+    <t>https://nomadlist.com/assets/img/places/augusta-ga-united-states.jpg?1653005981</t>
   </si>
   <si>
     <t>Tyler</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tyler-tx-united-states.jpg?1653005501</t>
+    <t>https://nomadlist.com/assets/img/places/tyler-tx-united-states.jpg?1653005501</t>
   </si>
   <si>
     <t>Tijuana</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tijuana-mexico.jpg?1654473792</t>
+    <t>https://nomadlist.com/assets/img/places/tijuana-mexico.jpg?1654473792</t>
   </si>
   <si>
     <t>Bristol</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bristol-united-kingdom.jpg?1653005599</t>
+    <t>https://nomadlist.com/assets/img/places/bristol-united-kingdom.jpg?1653005599</t>
   </si>
   <si>
     <t>Detroit</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/detroit-mi-united-states.jpg?1653005525</t>
+    <t>https://nomadlist.com/assets/img/places/detroit-mi-united-states.jpg?1653005525</t>
   </si>
   <si>
     <t>Da Lat</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/da-lat-vietnam.jpg?1653005437</t>
+    <t>https://nomadlist.com/assets/img/places/da-lat-vietnam.jpg?1653005437</t>
   </si>
   <si>
     <t>Bremen</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bremen-germany.jpg?1655429079</t>
+    <t>https://nomadlist.com/assets/img/places/bremen-germany.jpg?1655429079</t>
   </si>
   <si>
     <t>Semarang</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/semarang-indonesia.jpg?1642465021</t>
+    <t>https://nomadlist.com/assets/img/places/semarang-indonesia.jpg?1642465021</t>
   </si>
   <si>
     <t>Makati</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/makati-philippines.jpg?1655769815</t>
+    <t>https://nomadlist.com/assets/img/places/makati-philippines.jpg?1655769815</t>
   </si>
   <si>
     <t>Brasilia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/brasilia-brazil.jpg?1642637196</t>
+    <t>https://nomadlist.com/assets/img/places/brasilia-brazil.jpg?1642637196</t>
   </si>
   <si>
     <t>Varanasi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/varanasi-india.jpg?1642810097</t>
+    <t>https://nomadlist.com/assets/img/places/varanasi-india.jpg?1642810097</t>
   </si>
   <si>
     <t>Thiruvananthapuram</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/thiruvananthapuram-india.jpg?1653005575</t>
+    <t>https://nomadlist.com/assets/img/places/thiruvananthapuram-india.jpg?1653005575</t>
   </si>
   <si>
     <t>Bismarck</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bismarck-nd-united-states.jpg?1653005451</t>
+    <t>https://nomadlist.com/assets/img/places/bismarck-nd-united-states.jpg?1653005451</t>
   </si>
   <si>
     <t>Rochester</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rochester-ny-united-states.jpg?1657238772</t>
+    <t>https://nomadlist.com/assets/img/places/rochester-ny-united-states.jpg?1657238772</t>
   </si>
   <si>
     <t>Alanya</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/alanya-turkey.jpg?1654301706</t>
+    <t>https://nomadlist.com/assets/img/places/alanya-turkey.jpg?1654301706</t>
   </si>
   <si>
     <t>Oakland</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/oakland-ca-united-states.jpg?1652918835</t>
+    <t>https://nomadlist.com/assets/img/places/oakland-ca-united-states.jpg?1652918835</t>
   </si>
   <si>
     <t>Terre Haute</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/terre-haute-in-united-states.jpg?1653005674</t>
+    <t>https://nomadlist.com/assets/img/places/terre-haute-in-united-states.jpg?1653005674</t>
   </si>
   <si>
     <t>Great Falls</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/great-falls-mt-united-states.jpg?1653005441</t>
+    <t>https://nomadlist.com/assets/img/places/great-falls-mt-united-states.jpg?1653005441</t>
   </si>
   <si>
     <t>Fort Wayne</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/fort-wayne-in-united-states.jpg?1653005305</t>
+    <t>https://nomadlist.com/assets/img/places/fort-wayne-in-united-states.jpg?1653005305</t>
   </si>
   <si>
     <t>Rishikesh</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rishikesh-india.jpg?1653007306</t>
+    <t>https://nomadlist.com/assets/img/places/rishikesh-india.jpg?1653007306</t>
   </si>
   <si>
     <t>Wichita</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/wichita-ks-united-states.jpg?1653005522</t>
+    <t>https://nomadlist.com/assets/img/places/wichita-ks-united-states.jpg?1653005522</t>
   </si>
   <si>
     <t>Langkawi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/langkawi-malaysia.jpg?1653005331</t>
+    <t>https://nomadlist.com/assets/img/places/langkawi-malaysia.jpg?1653005331</t>
   </si>
   <si>
     <t>Chengdu</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/chengdu-china.jpg?1642637853</t>
+    <t>https://nomadlist.com/assets/img/places/chengdu-china.jpg?1642637853</t>
   </si>
   <si>
     <t>Richland</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/richland-wa-united-states.jpg?1653005430</t>
+    <t>https://nomadlist.com/assets/img/places/richland-wa-united-states.jpg?1653005430</t>
   </si>
   <si>
     <t>Dubai</t>
@@ -2411,37 +2414,37 @@
     <t>United Arab Emirates</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dubai-united-arab-emirates.jpg?1643069088</t>
+    <t>https://nomadlist.com/assets/img/places/dubai-united-arab-emirates.jpg?1643069088</t>
   </si>
   <si>
     <t>Porterville</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/porterville-ca-united-states.jpg?1652918971</t>
+    <t>https://nomadlist.com/assets/img/places/porterville-ca-united-states.jpg?1652918971</t>
   </si>
   <si>
     <t>Pekanbaru</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/pekanbaru-sumatra-indonesia.jpg?1642464593</t>
+    <t>https://nomadlist.com/assets/img/places/pekanbaru-sumatra-indonesia.jpg?1642464593</t>
   </si>
   <si>
     <t>Curitiba</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/curitiba-brazil.jpg?1655599745</t>
+    <t>https://nomadlist.com/assets/img/places/curitiba-brazil.jpg?1655599745</t>
   </si>
   <si>
     <t>Allahabad</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/allahabad-india.jpg?1653006635</t>
+    <t>https://nomadlist.com/assets/img/places/allahabad-india.jpg?1653006635</t>
   </si>
   <si>
     <t>Espoo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/espoo-finland.jpg?1649117434</t>
+    <t>https://nomadlist.com/assets/img/places/espoo-finland.jpg?1649117434</t>
   </si>
   <si>
     <t>Montevideo</t>
@@ -2450,31 +2453,31 @@
     <t>Uruguay</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/montevideo-uruguay.jpg?1642637005</t>
+    <t>https://nomadlist.com/assets/img/places/montevideo-uruguay.jpg?1642637005</t>
   </si>
   <si>
     <t>Hobart</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hobart-australia.jpg?1653869022</t>
+    <t>https://nomadlist.com/assets/img/places/hobart-australia.jpg?1653869022</t>
   </si>
   <si>
     <t>Owensboro</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/owensboro-ky-united-states.jpg?1653005459</t>
+    <t>https://nomadlist.com/assets/img/places/owensboro-ky-united-states.jpg?1653005459</t>
   </si>
   <si>
     <t>Fresno</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/fresno-ca-united-states.jpg?1653005638</t>
+    <t>https://nomadlist.com/assets/img/places/fresno-ca-united-states.jpg?1653005638</t>
   </si>
   <si>
     <t>Windsor</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/windsor-canada.jpg?1644106108</t>
+    <t>https://nomadlist.com/assets/img/places/windsor-canada.jpg?1644106108</t>
   </si>
   <si>
     <t>Port Louis</t>
@@ -2483,13 +2486,13 @@
     <t>Mauritius</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/port-louis-mauritius.jpg?1653005528</t>
+    <t>https://nomadlist.com/assets/img/places/port-louis-mauritius.jpg?1653005528</t>
   </si>
   <si>
     <t>Sandpoint</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sandpoint-id-united-states.jpg?1653005598</t>
+    <t>https://nomadlist.com/assets/img/places/sandpoint-id-united-states.jpg?1653005598</t>
   </si>
   <si>
     <t>Cork</t>
@@ -2498,217 +2501,217 @@
     <t>Ireland</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cork-ireland.jpg?1642723725</t>
+    <t>https://nomadlist.com/assets/img/places/cork-ireland.jpg?1642723725</t>
   </si>
   <si>
     <t>Pune</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/pune-india.jpg?1642465141</t>
+    <t>https://nomadlist.com/assets/img/places/pune-india.jpg?1642465141</t>
   </si>
   <si>
     <t>Merced</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/merced-ca-united-states.jpg?1653005870</t>
+    <t>https://nomadlist.com/assets/img/places/merced-ca-united-states.jpg?1653005870</t>
   </si>
   <si>
     <t>Pocatello</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/pocatello-id-united-states.jpg?1653006590</t>
+    <t>https://nomadlist.com/assets/img/places/pocatello-id-united-states.jpg?1653006590</t>
   </si>
   <si>
     <t>Boise</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/boise-id-united-states.jpg?1655514868</t>
+    <t>https://nomadlist.com/assets/img/places/boise-id-united-states.jpg?1655514868</t>
   </si>
   <si>
     <t>Delano</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/delano-ca-united-states.jpg?1653005909</t>
+    <t>https://nomadlist.com/assets/img/places/delano-ca-united-states.jpg?1653005909</t>
   </si>
   <si>
     <t>Lubbock</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lubbock-tx-united-states.jpg?1653005782</t>
+    <t>https://nomadlist.com/assets/img/places/lubbock-tx-united-states.jpg?1653005782</t>
   </si>
   <si>
     <t>Natal</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/natal-brazil.jpg?1652227837</t>
+    <t>https://nomadlist.com/assets/img/places/natal-brazil.jpg?1652227837</t>
   </si>
   <si>
     <t>Lancaster</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lancaster-ca-united-states.jpg?1653005643</t>
+    <t>https://nomadlist.com/assets/img/places/lancaster-ca-united-states.jpg?1653005643</t>
   </si>
   <si>
     <t>Montreal</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/montreal-canada.jpg?1642464123</t>
+    <t>https://nomadlist.com/assets/img/places/montreal-canada.jpg?1642464123</t>
   </si>
   <si>
     <t>Fes</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/fes-morocco.jpg?1656634067</t>
+    <t>https://nomadlist.com/assets/img/places/fes-morocco.jpg?1656634067</t>
   </si>
   <si>
     <t>Bogota</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bogota-colombia.jpg?1653005164</t>
+    <t>https://nomadlist.com/assets/img/places/bogota-colombia.jpg?1653005164</t>
   </si>
   <si>
     <t>Tainan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tainan-taiwan.jpg?1653005957</t>
+    <t>https://nomadlist.com/assets/img/places/tainan-taiwan.jpg?1653005957</t>
   </si>
   <si>
     <t>Hof</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hof-germany.jpg?1653005483</t>
+    <t>https://nomadlist.com/assets/img/places/hof-germany.jpg?1653005483</t>
   </si>
   <si>
     <t>Burgas</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/burgas-bulgaria.jpg?1653091425</t>
+    <t>https://nomadlist.com/assets/img/places/burgas-bulgaria.jpg?1653091425</t>
   </si>
   <si>
     <t>Huizhou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/huizhou-china.jpg?1642529240</t>
+    <t>https://nomadlist.com/assets/img/places/huizhou-china.jpg?1642529240</t>
   </si>
   <si>
     <t>Guiyang</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/guiyang-china.jpg?1653006523</t>
+    <t>https://nomadlist.com/assets/img/places/guiyang-china.jpg?1653006523</t>
   </si>
   <si>
     <t>Dongguan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dongguan-china.jpg?1653006441</t>
+    <t>https://nomadlist.com/assets/img/places/dongguan-china.jpg?1653006441</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rennes-france.jpg?1651190758</t>
+    <t>https://nomadlist.com/assets/img/places/rennes-france.jpg?1651190758</t>
   </si>
   <si>
     <t>Belem</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/belem-brazil.jpg?1644970248</t>
+    <t>https://nomadlist.com/assets/img/places/belem-brazil.jpg?1644970248</t>
   </si>
   <si>
     <t>Amed</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/amed-bali-indonesia.jpg?1642637315</t>
+    <t>https://nomadlist.com/assets/img/places/amed-bali-indonesia.jpg?1642637315</t>
   </si>
   <si>
     <t>Genoa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/genoa-italy.jpg?1643156752</t>
+    <t>https://nomadlist.com/assets/img/places/genoa-italy.jpg?1643156752</t>
   </si>
   <si>
     <t>Madurai</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/madurai-india.jpg?1653005288</t>
+    <t>https://nomadlist.com/assets/img/places/madurai-india.jpg?1653005288</t>
   </si>
   <si>
     <t>Utrecht</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/utrecht-netherlands.jpg?1646439427</t>
+    <t>https://nomadlist.com/assets/img/places/utrecht-netherlands.jpg?1646439427</t>
   </si>
   <si>
     <t>Malacca</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/malacca-malaysia.jpg?1643155813</t>
+    <t>https://nomadlist.com/assets/img/places/malacca-malaysia.jpg?1643155813</t>
   </si>
   <si>
     <t>Cavtat</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cavtat-croatia.jpg?1642529131</t>
+    <t>https://nomadlist.com/assets/img/places/cavtat-croatia.jpg?1642529131</t>
   </si>
   <si>
     <t>Pisa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/pisa-italy.jpg?1642465124</t>
+    <t>https://nomadlist.com/assets/img/places/pisa-italy.jpg?1642465124</t>
   </si>
   <si>
     <t>Ipoh</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ipoh-malaysia.jpg?1645401847</t>
+    <t>https://nomadlist.com/assets/img/places/ipoh-malaysia.jpg?1645401847</t>
   </si>
   <si>
     <t>Wollongong</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/wollongong-australia.jpg?1643414922</t>
+    <t>https://nomadlist.com/assets/img/places/wollongong-australia.jpg?1643414922</t>
   </si>
   <si>
     <t>Ghent</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ghent-belgium.jpg?1642464928</t>
+    <t>https://nomadlist.com/assets/img/places/ghent-belgium.jpg?1642464928</t>
   </si>
   <si>
     <t>Stockton</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/stockton-ca-united-states.jpg?1653005698</t>
+    <t>https://nomadlist.com/assets/img/places/stockton-ca-united-states.jpg?1653005698</t>
   </si>
   <si>
     <t>Peoria</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/peoria-il-united-states.jpg?1653005154</t>
+    <t>https://nomadlist.com/assets/img/places/peoria-il-united-states.jpg?1653005154</t>
   </si>
   <si>
     <t>Kaunas</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kaunas-lithuania.jpg?1643933093</t>
+    <t>https://nomadlist.com/assets/img/places/kaunas-lithuania.jpg?1643933093</t>
   </si>
   <si>
     <t>Lake Tahoe</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lake-tahoe-ca-united-states.jpg?1653005518</t>
+    <t>https://nomadlist.com/assets/img/places/lake-tahoe-ca-united-states.jpg?1653005518</t>
   </si>
   <si>
     <t>Bologna</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bologna-italy.jpg?1642464960</t>
+    <t>https://nomadlist.com/assets/img/places/bologna-italy.jpg?1642464960</t>
   </si>
   <si>
     <t>Makassar</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/makassar-indonesia.jpg?1642809846</t>
+    <t>https://nomadlist.com/assets/img/places/makassar-indonesia.jpg?1642809846</t>
   </si>
   <si>
     <t>Santiago</t>
@@ -2717,67 +2720,67 @@
     <t>Chile</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/santiago-chile.jpg?1642464120</t>
+    <t>https://nomadlist.com/assets/img/places/santiago-chile.jpg?1642464120</t>
   </si>
   <si>
     <t>Bath</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bath-united-kingdom.jpg?1656547971</t>
+    <t>https://nomadlist.com/assets/img/places/bath-united-kingdom.jpg?1656547971</t>
   </si>
   <si>
     <t>Scranton</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/scranton-pa-united-states.jpg?1653005343</t>
+    <t>https://nomadlist.com/assets/img/places/scranton-pa-united-states.jpg?1653005343</t>
   </si>
   <si>
     <t>Billings</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/billings-mt-united-states.jpg?1657067694</t>
+    <t>https://nomadlist.com/assets/img/places/billings-mt-united-states.jpg?1657067694</t>
   </si>
   <si>
     <t>Dothan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dothan-al-united-states.jpg?1652918994</t>
+    <t>https://nomadlist.com/assets/img/places/dothan-al-united-states.jpg?1652918994</t>
   </si>
   <si>
     <t>Jacksonville</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/jacksonville-fl-united-states.jpg?1653005726</t>
+    <t>https://nomadlist.com/assets/img/places/jacksonville-fl-united-states.jpg?1653005726</t>
   </si>
   <si>
     <t>Tulare</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tulare-ca-united-states.jpg?1653006176</t>
+    <t>https://nomadlist.com/assets/img/places/tulare-ca-united-states.jpg?1653006176</t>
   </si>
   <si>
     <t>Oregon City</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/oregon-city-or-united-states.jpg?1653005755</t>
+    <t>https://nomadlist.com/assets/img/places/oregon-city-or-united-states.jpg?1653005755</t>
   </si>
   <si>
     <t>Schenectady</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/schenectady-ny-united-states.jpg?1653005654</t>
+    <t>https://nomadlist.com/assets/img/places/schenectady-ny-united-states.jpg?1653005654</t>
   </si>
   <si>
     <t>Grenoble</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/grenoble-france.jpg?1642465486</t>
+    <t>https://nomadlist.com/assets/img/places/grenoble-france.jpg?1642465486</t>
   </si>
   <si>
     <t>Okinawa City</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/okinawa-city-okinawa-japan.jpg?1643069321</t>
+    <t>https://nomadlist.com/assets/img/places/okinawa-city-okinawa-japan.jpg?1643069321</t>
   </si>
   <si>
     <t>Tehran</t>
@@ -2786,19 +2789,19 @@
     <t>Iran</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tehran-iran.jpg?1642637816</t>
+    <t>https://nomadlist.com/assets/img/places/tehran-iran.jpg?1642637816</t>
   </si>
   <si>
     <t>St Catharines</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/st-catharines-canada.jpg?1656634602</t>
+    <t>https://nomadlist.com/assets/img/places/st-catharines-canada.jpg?1656634602</t>
   </si>
   <si>
     <t>Cixi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cixi-china.jpg?1653006628</t>
+    <t>https://nomadlist.com/assets/img/places/cixi-china.jpg?1653006628</t>
   </si>
   <si>
     <t>Bandar Seri Begawan</t>
@@ -2807,13 +2810,13 @@
     <t>Brunei</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bandar-seri-begawan-brunei.jpg?1643155973</t>
+    <t>https://nomadlist.com/assets/img/places/bandar-seri-begawan-brunei.jpg?1643155973</t>
   </si>
   <si>
     <t>Palmdale</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/palm-desert-ca-united-states.jpg?1653007278</t>
+    <t>https://nomadlist.com/assets/img/places/palm-desert-ca-united-states.jpg?1653007278</t>
   </si>
   <si>
     <t>Tel Aviv</t>
@@ -2822,79 +2825,79 @@
     <t>Israel</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tel-aviv-israel.jpg?1644106058</t>
+    <t>https://nomadlist.com/assets/img/places/tel-aviv-israel.jpg?1644106058</t>
   </si>
   <si>
     <t>Edinburgh</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/edinburgh-united-kingdom.jpg?1656288252</t>
+    <t>https://nomadlist.com/assets/img/places/edinburgh-united-kingdom.jpg?1656288252</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cordoba-argentina.jpg?1645574648</t>
+    <t>https://nomadlist.com/assets/img/places/cordoba-argentina.jpg?1645574648</t>
   </si>
   <si>
     <t>Ko Chang</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ko-chang-thailand.jpg?1650931548</t>
+    <t>https://nomadlist.com/assets/img/places/ko-chang-thailand.jpg?1650931548</t>
   </si>
   <si>
     <t>Lake Charles</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lake-charles-la-united-states.jpg?1653005959</t>
+    <t>https://nomadlist.com/assets/img/places/lake-charles-la-united-states.jpg?1653005959</t>
   </si>
   <si>
     <t>St George</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/st-george-ut-united-states.jpg?1652918922</t>
+    <t>https://nomadlist.com/assets/img/places/st-george-ut-united-states.jpg?1652918922</t>
   </si>
   <si>
     <t>Bielefeld</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bielefeld-germany.jpg?1642464667</t>
+    <t>https://nomadlist.com/assets/img/places/bielefeld-germany.jpg?1642464667</t>
   </si>
   <si>
     <t>Campinas</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/campinas-brazil.jpg?1642529170</t>
+    <t>https://nomadlist.com/assets/img/places/campinas-brazil.jpg?1642529170</t>
   </si>
   <si>
     <t>Longview</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/longview-tx-united-states.jpg?1653351105</t>
+    <t>https://nomadlist.com/assets/img/places/longview-tx-united-states.jpg?1653351105</t>
   </si>
   <si>
     <t>Jakarta</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/jakarta-indonesia.jpg?1642464278</t>
+    <t>https://nomadlist.com/assets/img/places/jakarta-indonesia.jpg?1642464278</t>
   </si>
   <si>
     <t>Muncie</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/muncie-in-united-states.jpg?1644365871</t>
+    <t>https://nomadlist.com/assets/img/places/muncie-in-united-states.jpg?1644365871</t>
   </si>
   <si>
     <t>Belo Horizonte</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/belo-horizonte-brazil.jpg?1642809881</t>
+    <t>https://nomadlist.com/assets/img/places/belo-horizonte-brazil.jpg?1642809881</t>
   </si>
   <si>
     <t>Greenville</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/greenville-sc-united-states.jpg?1654736692</t>
+    <t>https://nomadlist.com/assets/img/places/greenville-sc-united-states.jpg?1654736692</t>
   </si>
   <si>
     <t>Bocas Del Toro</t>
@@ -2903,49 +2906,49 @@
     <t>Panama</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bocas-del-toro-panama.jpg?1642464793</t>
+    <t>https://nomadlist.com/assets/img/places/bocas-del-toro-panama.jpg?1642464793</t>
   </si>
   <si>
     <t>Hue</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hue-vietnam.jpg?1642464601</t>
+    <t>https://nomadlist.com/assets/img/places/hue-vietnam.jpg?1642464601</t>
   </si>
   <si>
     <t>Norwich</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/norwich-united-kingdom.jpg?1642529375</t>
+    <t>https://nomadlist.com/assets/img/places/norwich-united-kingdom.jpg?1642529375</t>
   </si>
   <si>
     <t>Jiangmen</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/jiangmen-china.jpg?1653006535</t>
+    <t>https://nomadlist.com/assets/img/places/jiangmen-china.jpg?1653006535</t>
   </si>
   <si>
     <t>Kennewick</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kennewick-wa-united-states.jpg?1653005757</t>
+    <t>https://nomadlist.com/assets/img/places/kennewick-wa-united-states.jpg?1653005757</t>
   </si>
   <si>
     <t>Mui Ne</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mui-ne-vietnam.jpg?1653007187</t>
+    <t>https://nomadlist.com/assets/img/places/mui-ne-vietnam.jpg?1653007187</t>
   </si>
   <si>
     <t>Bedford</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bedford-oh-united-states.jpg?1653005987</t>
+    <t>https://nomadlist.com/assets/img/places/bedford-oh-united-states.jpg?1653005987</t>
   </si>
   <si>
     <t>Harlingen</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/harlingen-tx-united-states.jpg?1653264281</t>
+    <t>https://nomadlist.com/assets/img/places/harlingen-tx-united-states.jpg?1653264281</t>
   </si>
   <si>
     <t>Benin City</t>
@@ -2954,25 +2957,25 @@
     <t>Nigeria</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/benin-city-nigeria.jpg?1642529533</t>
+    <t>https://nomadlist.com/assets/img/places/benin-city-nigeria.jpg?1642529533</t>
   </si>
   <si>
     <t>Turku</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/turku-finland.jpg?1645401790</t>
+    <t>https://nomadlist.com/assets/img/places/turku-finland.jpg?1645401790</t>
   </si>
   <si>
     <t>Northampton</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/north-little-rock-ar-united-states.jpg?1654215168</t>
+    <t>https://nomadlist.com/assets/img/places/north-little-rock-ar-united-states.jpg?1654215168</t>
   </si>
   <si>
     <t>Grand Forks</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/grand-forks-nd-united-states.jpg?1653005775</t>
+    <t>https://nomadlist.com/assets/img/places/grand-forks-nd-united-states.jpg?1653005775</t>
   </si>
   <si>
     <t>Antananarivo</t>
@@ -2981,181 +2984,181 @@
     <t>Madagascar</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/antananarivo-madagascar.jpg?1655943204</t>
+    <t>https://nomadlist.com/assets/img/places/antananarivo-madagascar.jpg?1655943204</t>
   </si>
   <si>
     <t>Bloomington</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bloomington-in-united-states.jpg?1653005359</t>
+    <t>https://nomadlist.com/assets/img/places/bloomington-in-united-states.jpg?1653005359</t>
   </si>
   <si>
     <t>Vasai</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/vasai-india.jpg?1642810116</t>
+    <t>https://nomadlist.com/assets/img/places/vasai-india.jpg?1642810116</t>
   </si>
   <si>
     <t>St Joseph</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/st-joseph-mo-united-states.jpg?1653005641</t>
+    <t>https://nomadlist.com/assets/img/places/st-joseph-mo-united-states.jpg?1653005641</t>
   </si>
   <si>
     <t>Gili Air</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/gili-air-indonesia.jpg?1653005864</t>
+    <t>https://nomadlist.com/assets/img/places/gili-air-indonesia.jpg?1653005864</t>
   </si>
   <si>
     <t>Apple Valley</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/apple-valley-ca-united-states.jpg?1652918983</t>
+    <t>https://nomadlist.com/assets/img/places/apple-valley-ca-united-states.jpg?1652918983</t>
   </si>
   <si>
     <t>Fort Lauderdale</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/fort-lauderdale-fl-united-states.jpg?1653006171</t>
+    <t>https://nomadlist.com/assets/img/places/fort-lauderdale-fl-united-states.jpg?1653006171</t>
   </si>
   <si>
     <t>Philadelphia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/philadelphia-pa-united-states.jpg?1653006485</t>
+    <t>https://nomadlist.com/assets/img/places/philadelphia-pa-united-states.jpg?1653006485</t>
   </si>
   <si>
     <t>Udon Thani</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/udon-thani-thailand.jpg?1652919177</t>
+    <t>https://nomadlist.com/assets/img/places/udon-thani-thailand.jpg?1652919177</t>
   </si>
   <si>
     <t>Reading Pa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/reading-pa-united-states.jpg?1644797080</t>
+    <t>https://nomadlist.com/assets/img/places/reading-pa-united-states.jpg?1644797080</t>
   </si>
   <si>
     <t>Torshavn</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/torshavn-faroe-islands-denmark.jpg?1642982697</t>
+    <t>https://nomadlist.com/assets/img/places/torshavn-faroe-islands-denmark.jpg?1642982697</t>
   </si>
   <si>
     <t>Dublin</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dublin-ireland.jpg?1651537303</t>
+    <t>https://nomadlist.com/assets/img/places/dublin-ireland.jpg?1651537303</t>
   </si>
   <si>
     <t>Thane</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/thane-india.jpg?1653006111</t>
+    <t>https://nomadlist.com/assets/img/places/thane-india.jpg?1653006111</t>
   </si>
   <si>
     <t>Springdale</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/springdale-ar-united-states.jpg?1653005628</t>
+    <t>https://nomadlist.com/assets/img/places/springdale-ar-united-states.jpg?1653005628</t>
   </si>
   <si>
     <t>Moradabad</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/moradabad-india.jpg?1653006977</t>
+    <t>https://nomadlist.com/assets/img/places/moradabad-india.jpg?1653006977</t>
   </si>
   <si>
     <t>Guwahati</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/guwahati-india.jpg?1653005258</t>
+    <t>https://nomadlist.com/assets/img/places/guwahati-india.jpg?1653005258</t>
   </si>
   <si>
     <t>Chania</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/chania-crete-greece.jpg?1657067395</t>
+    <t>https://nomadlist.com/assets/img/places/chania-crete-greece.jpg?1657067395</t>
   </si>
   <si>
     <t>Jyvaskyla</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/jyvaskyla-finland.jpg?1652918811</t>
+    <t>https://nomadlist.com/assets/img/places/jyvaskyla-finland.jpg?1652918811</t>
   </si>
   <si>
     <t>Glasgow</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/glasgow-united-kingdom.jpg?1642464645</t>
+    <t>https://nomadlist.com/assets/img/places/glasgow-united-kingdom.jpg?1642464645</t>
   </si>
   <si>
     <t>Marbella</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/marbella-spain.jpg?1653005565</t>
+    <t>https://nomadlist.com/assets/img/places/marbella-spain.jpg?1653005565</t>
   </si>
   <si>
     <t>New Haven</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/new-haven-ct-united-states.jpg?1653005705</t>
+    <t>https://nomadlist.com/assets/img/places/new-haven-ct-united-states.jpg?1653005705</t>
   </si>
   <si>
     <t>Menorca</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/menorca-spain.jpg?1644884107</t>
+    <t>https://nomadlist.com/assets/img/places/menorca-spain.jpg?1644884107</t>
   </si>
   <si>
     <t>Hermosillo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hermosillo-mexico.jpg?1653005559</t>
+    <t>https://nomadlist.com/assets/img/places/hermosillo-mexico.jpg?1653005559</t>
   </si>
   <si>
     <t>Mar Del Plata</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mar-del-plata-argentina.jpg?1642637260</t>
+    <t>https://nomadlist.com/assets/img/places/mar-del-plata-argentina.jpg?1642637260</t>
   </si>
   <si>
     <t>Dortmund</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dortmund-germany.jpg?1655856674</t>
+    <t>https://nomadlist.com/assets/img/places/dortmund-germany.jpg?1655856674</t>
   </si>
   <si>
     <t>Gwangju</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/gwangju-south-korea.jpg?1643156761</t>
+    <t>https://nomadlist.com/assets/img/places/gwangju-south-korea.jpg?1643156761</t>
   </si>
   <si>
     <t>Agra</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/agra-india.jpg?1642464596</t>
+    <t>https://nomadlist.com/assets/img/places/agra-india.jpg?1642464596</t>
   </si>
   <si>
     <t>Elkhart</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/elkhart-in-united-states.jpg?1653005596</t>
+    <t>https://nomadlist.com/assets/img/places/elkhart-in-united-states.jpg?1653005596</t>
   </si>
   <si>
     <t>Rhodes</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rhodes-greece.jpg?1642464901</t>
+    <t>https://nomadlist.com/assets/img/places/rhodes-greece.jpg?1642464901</t>
   </si>
   <si>
     <t>Alexandria</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/alexandria-egypt.jpg?1653006075</t>
+    <t>https://nomadlist.com/assets/img/places/alexandria-egypt.jpg?1653006075</t>
   </si>
   <si>
     <t>Galle</t>
@@ -3164,55 +3167,55 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/galle-sri-lanka.jpg?1653005207</t>
+    <t>https://nomadlist.com/assets/img/places/galle-sri-lanka.jpg?1653005207</t>
   </si>
   <si>
     <t>Birmingham Al</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/birmingham-al-united-states.jpg?1655943069</t>
+    <t>https://nomadlist.com/assets/img/places/birmingham-al-united-states.jpg?1655943069</t>
   </si>
   <si>
     <t>San Jose</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/san-jose-ca-united-states.jpg?1653006007</t>
+    <t>https://nomadlist.com/assets/img/places/san-jose-ca-united-states.jpg?1653006007</t>
   </si>
   <si>
     <t>Dayton</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dayton-oh-united-states.jpg?1653006364</t>
+    <t>https://nomadlist.com/assets/img/places/dayton-oh-united-states.jpg?1653006364</t>
   </si>
   <si>
     <t>Huaian</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/huaian-china.jpg?1653007243</t>
+    <t>https://nomadlist.com/assets/img/places/huaian-china.jpg?1653007243</t>
   </si>
   <si>
     <t>Waterloo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/waterloo-canada.jpg?1653523767</t>
+    <t>https://nomadlist.com/assets/img/places/waterloo-canada.jpg?1653523767</t>
   </si>
   <si>
     <t>Bareilly</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bareilly-india.jpg?1653782890</t>
+    <t>https://nomadlist.com/assets/img/places/bareilly-india.jpg?1653782890</t>
   </si>
   <si>
     <t>Durban</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/durban-south-africa.jpg?1653007184</t>
+    <t>https://nomadlist.com/assets/img/places/durban-south-africa.jpg?1653007184</t>
   </si>
   <si>
     <t>Chifeng</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/chifeng-china.jpg?1642465168</t>
+    <t>https://nomadlist.com/assets/img/places/chifeng-china.jpg?1642465168</t>
   </si>
   <si>
     <t>Santa Cruz</t>
@@ -3221,91 +3224,91 @@
     <t>Bolivia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/santa-cruz-bolivia.jpg?1642896391</t>
+    <t>https://nomadlist.com/assets/img/places/santa-cruz-bolivia.jpg?1642896391</t>
   </si>
   <si>
     <t>Casablanca</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/casablanca-morocco.jpg?1657584572</t>
+    <t>https://nomadlist.com/assets/img/places/casablanca-morocco.jpg?1657584572</t>
   </si>
   <si>
     <t>Medford</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/medford-or-united-states.jpg?1642723592</t>
+    <t>https://nomadlist.com/assets/img/places/medford-or-united-states.jpg?1642723592</t>
   </si>
   <si>
     <t>Campo Grande</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/campo-grande-brazil.jpg?1642529202</t>
+    <t>https://nomadlist.com/assets/img/places/campo-grande-brazil.jpg?1642529202</t>
   </si>
   <si>
     <t>Mataram</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mataram-lombok-indonesia.jpg?1642464809</t>
+    <t>https://nomadlist.com/assets/img/places/mataram-lombok-indonesia.jpg?1642464809</t>
   </si>
   <si>
     <t>Bhubaneswar</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bhubaneswar-india.jpg?1653005531</t>
+    <t>https://nomadlist.com/assets/img/places/bhubaneswar-india.jpg?1653005531</t>
   </si>
   <si>
     <t>Mission</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mission-tx-united-states.jpg?1653005456</t>
+    <t>https://nomadlist.com/assets/img/places/mission-tx-united-states.jpg?1653005456</t>
   </si>
   <si>
     <t>Suwon</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/suwon-south-korea.jpg?1643157035</t>
+    <t>https://nomadlist.com/assets/img/places/suwon-south-korea.jpg?1643157035</t>
   </si>
   <si>
     <t>Luxor</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/luxor-egypt.jpg?1643156843</t>
+    <t>https://nomadlist.com/assets/img/places/luxor-egypt.jpg?1643156843</t>
   </si>
   <si>
     <t>Madison</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/madison-wi-united-states.jpg?1653005325</t>
+    <t>https://nomadlist.com/assets/img/places/madison-wi-united-states.jpg?1653005325</t>
   </si>
   <si>
     <t>Logan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/logan-ut-united-states.jpg?1642724065</t>
+    <t>https://nomadlist.com/assets/img/places/logan-ut-united-states.jpg?1642724065</t>
   </si>
   <si>
     <t>Norfolk</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/norfolk-va-united-states.jpg?1653006113</t>
+    <t>https://nomadlist.com/assets/img/places/norfolk-va-united-states.jpg?1653006113</t>
   </si>
   <si>
     <t>Leiden</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/leiden-netherlands.jpg?1653005829</t>
+    <t>https://nomadlist.com/assets/img/places/leiden-netherlands.jpg?1653005829</t>
   </si>
   <si>
     <t>Auburn</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/auburn-al-united-states.jpg?1653006068</t>
+    <t>https://nomadlist.com/assets/img/places/auburn-al-united-states.jpg?1653006068</t>
   </si>
   <si>
     <t>Asheville</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/asheville-nc-united-states.jpg?1642723764</t>
+    <t>https://nomadlist.com/assets/img/places/asheville-nc-united-states.jpg?1642723764</t>
   </si>
   <si>
     <t>Freetown</t>
@@ -3314,37 +3317,37 @@
     <t>Sierra Leone</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/freetown-sierra-leone.jpg?1653005876</t>
+    <t>https://nomadlist.com/assets/img/places/freetown-sierra-leone.jpg?1653005876</t>
   </si>
   <si>
     <t>Yakima</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/yakima-wa-united-states.jpg?1653005877</t>
+    <t>https://nomadlist.com/assets/img/places/yakima-wa-united-states.jpg?1653005877</t>
   </si>
   <si>
     <t>Bursa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bursa-turkey.jpg?1642465415</t>
+    <t>https://nomadlist.com/assets/img/places/bursa-turkey.jpg?1642465415</t>
   </si>
   <si>
     <t>Fairfield</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/fairfield-ca-united-states.jpg?1653006088</t>
+    <t>https://nomadlist.com/assets/img/places/fairfield-ca-united-states.jpg?1653006088</t>
   </si>
   <si>
     <t>Itapema</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/itapema-brazil.jpg?1642464834</t>
+    <t>https://nomadlist.com/assets/img/places/itapema-brazil.jpg?1642464834</t>
   </si>
   <si>
     <t>Oulu</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/oulu-finland.jpg?1653005472</t>
+    <t>https://nomadlist.com/assets/img/places/oulu-finland.jpg?1653005472</t>
   </si>
   <si>
     <t>Pristina</t>
@@ -3353,235 +3356,235 @@
     <t>Kosovo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/pristina-kosovo.jpg?1655344935</t>
+    <t>https://nomadlist.com/assets/img/places/pristina-kosovo.jpg?1655344935</t>
   </si>
   <si>
     <t>Aguascalientes</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/aguascalientes-mexico.jpg?1644192699</t>
+    <t>https://nomadlist.com/assets/img/places/aguascalientes-mexico.jpg?1644192699</t>
   </si>
   <si>
     <t>Bowling Green</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bowling-green-ky-united-states.jpg?1652918831</t>
+    <t>https://nomadlist.com/assets/img/places/bowling-green-ky-united-states.jpg?1652918831</t>
   </si>
   <si>
     <t>Hohhot</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hohhot-china.jpg?1642724679</t>
+    <t>https://nomadlist.com/assets/img/places/hohhot-china.jpg?1642724679</t>
   </si>
   <si>
     <t>Daegu</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/daegu-south-korea.jpg?1642637725</t>
+    <t>https://nomadlist.com/assets/img/places/daegu-south-korea.jpg?1642637725</t>
   </si>
   <si>
     <t>Redding</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/redding-ca-united-states.jpg?1653006130</t>
+    <t>https://nomadlist.com/assets/img/places/redding-ca-united-states.jpg?1653006130</t>
   </si>
   <si>
     <t>Oxford</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/oxford-united-kingdom.jpg?1653005896</t>
+    <t>https://nomadlist.com/assets/img/places/oxford-united-kingdom.jpg?1653005896</t>
   </si>
   <si>
     <t>Fort Smith</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/fort-smith-ar-united-states.jpg?1654128546</t>
+    <t>https://nomadlist.com/assets/img/places/fort-smith-ar-united-states.jpg?1654128546</t>
   </si>
   <si>
     <t>Louisville</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/louisville-ky-united-states.jpg?1653005722</t>
+    <t>https://nomadlist.com/assets/img/places/louisville-ky-united-states.jpg?1653005722</t>
   </si>
   <si>
     <t>Jodhpur</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/jodhpur-india.jpg?1651450090</t>
+    <t>https://nomadlist.com/assets/img/places/jodhpur-india.jpg?1651450090</t>
   </si>
   <si>
     <t>Melbourne Fl</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/melbourne-fl-united-states.jpg?1653005937</t>
+    <t>https://nomadlist.com/assets/img/places/melbourne-fl-united-states.jpg?1653005937</t>
   </si>
   <si>
     <t>Ann Arbor</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ann-arbor-mi-united-states.jpg?1657067454</t>
+    <t>https://nomadlist.com/assets/img/places/ann-arbor-mi-united-states.jpg?1657067454</t>
   </si>
   <si>
     <t>Zwolle</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/zwolle-netherlands.jpg?1653005860</t>
+    <t>https://nomadlist.com/assets/img/places/zwolle-netherlands.jpg?1653005860</t>
   </si>
   <si>
     <t>Sao Luis</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sao-luis-brazil.jpg?1642464645</t>
+    <t>https://nomadlist.com/assets/img/places/sao-luis-brazil.jpg?1642464645</t>
   </si>
   <si>
     <t>Bethlehem</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bethlehem-pa-united-states.jpg?1652918944</t>
+    <t>https://nomadlist.com/assets/img/places/bethlehem-pa-united-states.jpg?1652918944</t>
   </si>
   <si>
     <t>Ocala</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ocala-fl-united-states.jpg?1653006125</t>
+    <t>https://nomadlist.com/assets/img/places/ocala-fl-united-states.jpg?1653006125</t>
   </si>
   <si>
     <t>Rochester Mn</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rochester-mn-united-states.jpg?1653005745</t>
+    <t>https://nomadlist.com/assets/img/places/rochester-mn-united-states.jpg?1653005745</t>
   </si>
   <si>
     <t>Greeley</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/greeley-co-united-states.jpg?1653005768</t>
+    <t>https://nomadlist.com/assets/img/places/greeley-co-united-states.jpg?1653005768</t>
   </si>
   <si>
     <t>Hubli</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hubli-india.jpg?1643156904</t>
+    <t>https://nomadlist.com/assets/img/places/hubli-india.jpg?1643156904</t>
   </si>
   <si>
     <t>Turlock</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/turlock-ca-united-states.jpg?1652919045</t>
+    <t>https://nomadlist.com/assets/img/places/turlock-ca-united-states.jpg?1652919045</t>
   </si>
   <si>
     <t>Almere</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/almere-netherlands.jpg?1642637446</t>
+    <t>https://nomadlist.com/assets/img/places/almere-netherlands.jpg?1642637446</t>
   </si>
   <si>
     <t>Amritsar</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/amritsar-india.jpg?1653005943</t>
+    <t>https://nomadlist.com/assets/img/places/amritsar-india.jpg?1653005943</t>
   </si>
   <si>
     <t>Fuzhou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/fuzhou-china.jpg?1653006375</t>
+    <t>https://nomadlist.com/assets/img/places/fuzhou-china.jpg?1653006375</t>
   </si>
   <si>
     <t>Florence</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/florence-italy.jpg?1653005944</t>
+    <t>https://nomadlist.com/assets/img/places/florence-italy.jpg?1653005944</t>
   </si>
   <si>
     <t>Panama City</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/panama-city-panama.jpg?1657066171</t>
+    <t>https://nomadlist.com/assets/img/places/panama-city-panama.jpg?1657066171</t>
   </si>
   <si>
     <t>Allentown</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/allentown-pa-united-states.jpg?1653006097</t>
+    <t>https://nomadlist.com/assets/img/places/allentown-pa-united-states.jpg?1653006097</t>
   </si>
   <si>
     <t>Gwalior</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/gwalior-india.jpg?1653006912</t>
+    <t>https://nomadlist.com/assets/img/places/gwalior-india.jpg?1653006912</t>
   </si>
   <si>
     <t>Sao Jose Dos Campos</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sao-jose-dos-campos-brazil.jpg?1642529312</t>
+    <t>https://nomadlist.com/assets/img/places/sao-jose-dos-campos-brazil.jpg?1642529312</t>
   </si>
   <si>
     <t>Nijmegen</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nijmegen-netherlands.jpg?1642464843</t>
+    <t>https://nomadlist.com/assets/img/places/nijmegen-netherlands.jpg?1642464843</t>
   </si>
   <si>
     <t>Johnson City</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/johnson-city-tn-united-states.jpg?1653006475</t>
+    <t>https://nomadlist.com/assets/img/places/johnson-city-tn-united-states.jpg?1653006475</t>
   </si>
   <si>
     <t>Iowa City</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/iowa-city-ia-united-states.jpg?1653005352</t>
+    <t>https://nomadlist.com/assets/img/places/iowa-city-ia-united-states.jpg?1653005352</t>
   </si>
   <si>
     <t>Sorocaba</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sorocaba-brazil.jpg?1642464808</t>
+    <t>https://nomadlist.com/assets/img/places/sorocaba-brazil.jpg?1642464808</t>
   </si>
   <si>
     <t>Ao Nang</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ao-nang-thailand.jpg?1657584692</t>
+    <t>https://nomadlist.com/assets/img/places/ao-nang-thailand.jpg?1657584692</t>
   </si>
   <si>
     <t>Yuba City</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/yuba-city-ca-united-states.jpg?1653006225</t>
+    <t>https://nomadlist.com/assets/img/places/yuba-city-ca-united-states.jpg?1653006225</t>
   </si>
   <si>
     <t>Abuja</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/abuja-nigeria.jpg?1642465118</t>
+    <t>https://nomadlist.com/assets/img/places/abuja-nigeria.jpg?1642465118</t>
   </si>
   <si>
     <t>Arugam Bay</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/arugam-bay-sri-lanka.jpg?1653005284</t>
+    <t>https://nomadlist.com/assets/img/places/arugam-bay-sri-lanka.jpg?1653005284</t>
   </si>
   <si>
     <t>Thrissur</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/thrissur-india.jpg?1642464879</t>
+    <t>https://nomadlist.com/assets/img/places/thrissur-india.jpg?1642464879</t>
   </si>
   <si>
     <t>Bradenton</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bradenton-fl-united-states.jpg?1652918970</t>
+    <t>https://nomadlist.com/assets/img/places/bradenton-fl-united-states.jpg?1652918970</t>
   </si>
   <si>
     <t>Jiamusi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/jiamusi-china.jpg?1652918937</t>
+    <t>https://nomadlist.com/assets/img/places/jiamusi-china.jpg?1652918937</t>
   </si>
   <si>
     <t>Nukualofa</t>
@@ -3590,289 +3593,289 @@
     <t>Tonga</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nukualofa-tonga.jpg?1653005998</t>
+    <t>https://nomadlist.com/assets/img/places/nukualofa-tonga.jpg?1653005998</t>
   </si>
   <si>
     <t>Durg</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/durg-india.jpg?1652918957</t>
+    <t>https://nomadlist.com/assets/img/places/durg-india.jpg?1652918957</t>
   </si>
   <si>
     <t>Larnaca</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/larnaca-cyprus.jpg?1652919102</t>
+    <t>https://nomadlist.com/assets/img/places/larnaca-cyprus.jpg?1652919102</t>
   </si>
   <si>
     <t>Asansol</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/asansol-india.jpg?1653006078</t>
+    <t>https://nomadlist.com/assets/img/places/asansol-india.jpg?1653006078</t>
   </si>
   <si>
     <t>Champaign</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/champaign-il-united-states.jpg?1653005560</t>
+    <t>https://nomadlist.com/assets/img/places/champaign-il-united-states.jpg?1653005560</t>
   </si>
   <si>
     <t>La Paz</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/la-paz-bolivia.jpg?1653006199</t>
+    <t>https://nomadlist.com/assets/img/places/la-paz-bolivia.jpg?1653006199</t>
   </si>
   <si>
     <t>Kannur</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kannur-india.jpg?1642637821</t>
+    <t>https://nomadlist.com/assets/img/places/kannur-india.jpg?1642637821</t>
   </si>
   <si>
     <t>Tracy</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tracy-ca-united-states.jpg?1652833275</t>
+    <t>https://nomadlist.com/assets/img/places/tracy-ca-united-states.jpg?1652833275</t>
   </si>
   <si>
     <t>Kalyan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kalyan-india.jpg?1653696255</t>
+    <t>https://nomadlist.com/assets/img/places/kalyan-india.jpg?1653696255</t>
   </si>
   <si>
     <t>Lanzarote</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lanzarote-canary-islands-spain.jpg?1655690217</t>
+    <t>https://nomadlist.com/assets/img/places/lanzarote-canary-islands-spain.jpg?1655690217</t>
   </si>
   <si>
     <t>Des Moines</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/des-moines-ia-united-states.jpg?1653005667</t>
+    <t>https://nomadlist.com/assets/img/places/des-moines-ia-united-states.jpg?1653005667</t>
   </si>
   <si>
     <t>College Station</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/college-station-tx-united-states.jpg?1642637348</t>
+    <t>https://nomadlist.com/assets/img/places/college-station-tx-united-states.jpg?1642637348</t>
   </si>
   <si>
     <t>Galway</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/galway-ireland.jpg?1643156507</t>
+    <t>https://nomadlist.com/assets/img/places/galway-ireland.jpg?1643156507</t>
   </si>
   <si>
     <t>Baltimore</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/baltimore-md-united-states.jpg?1652918910</t>
+    <t>https://nomadlist.com/assets/img/places/baltimore-md-united-states.jpg?1652918910</t>
   </si>
   <si>
     <t>Cirebon</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cirebon-indonesia.jpg?1653005584</t>
+    <t>https://nomadlist.com/assets/img/places/cirebon-indonesia.jpg?1653005584</t>
   </si>
   <si>
     <t>Aurora</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/aurora-il-united-states.jpg?1653091664</t>
+    <t>https://nomadlist.com/assets/img/places/aurora-il-united-states.jpg?1653091664</t>
   </si>
   <si>
     <t>Normal</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/normal-il-united-states.jpg?1642723645</t>
+    <t>https://nomadlist.com/assets/img/places/normal-il-united-states.jpg?1642723645</t>
   </si>
   <si>
     <t>Cochabamba</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cochabamba-bolivia.jpg?1642464857</t>
+    <t>https://nomadlist.com/assets/img/places/cochabamba-bolivia.jpg?1642464857</t>
   </si>
   <si>
     <t>Colorado Springs</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/colorado-springs-co-united-states.jpg?1653005889</t>
+    <t>https://nomadlist.com/assets/img/places/colorado-springs-co-united-states.jpg?1653005889</t>
   </si>
   <si>
     <t>Cleveland</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cleveland-oh-united-states.jpg?1653005802</t>
+    <t>https://nomadlist.com/assets/img/places/cleveland-oh-united-states.jpg?1653005802</t>
   </si>
   <si>
     <t>Ko Phi Phi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ko-phi-phi-thailand.jpg?1652918814</t>
+    <t>https://nomadlist.com/assets/img/places/ko-phi-phi-thailand.jpg?1652918814</t>
   </si>
   <si>
     <t>Erie</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/erie-pa-united-states.jpg?1653006152</t>
+    <t>https://nomadlist.com/assets/img/places/erie-pa-united-states.jpg?1653006152</t>
   </si>
   <si>
     <t>Kitakyushu</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kitakyushu-japan.jpg?1653006228</t>
+    <t>https://nomadlist.com/assets/img/places/kitakyushu-japan.jpg?1653006228</t>
   </si>
   <si>
     <t>Changchun</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/changchun-china.jpg?1653523659</t>
+    <t>https://nomadlist.com/assets/img/places/changchun-china.jpg?1653523659</t>
   </si>
   <si>
     <t>Santa Maria</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/santa-maria-ca-united-states.jpg?1652919121</t>
+    <t>https://nomadlist.com/assets/img/places/santa-maria-ca-united-states.jpg?1652919121</t>
   </si>
   <si>
     <t>Huaibei</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/huaibei-china.jpg?1652919255</t>
+    <t>https://nomadlist.com/assets/img/places/huaibei-china.jpg?1652919255</t>
   </si>
   <si>
     <t>Enid</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/enid-ok-united-states.jpg?1653006161</t>
+    <t>https://nomadlist.com/assets/img/places/enid-ok-united-states.jpg?1653006161</t>
   </si>
   <si>
     <t>Nagasaki</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nagasaki-japan.jpg?1642724181</t>
+    <t>https://nomadlist.com/assets/img/places/nagasaki-japan.jpg?1642724181</t>
   </si>
   <si>
     <t>Riverside</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/riverside-ca-united-states.jpg?1653006765</t>
+    <t>https://nomadlist.com/assets/img/places/riverside-ca-united-states.jpg?1653006765</t>
   </si>
   <si>
     <t>Khulna</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/khulna-bangladesh.jpg?1655769918</t>
+    <t>https://nomadlist.com/assets/img/places/khulna-bangladesh.jpg?1655769918</t>
   </si>
   <si>
     <t>Medan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/medan-sumatra-indonesia.jpg?1652833921</t>
+    <t>https://nomadlist.com/assets/img/places/medan-sumatra-indonesia.jpg?1652833921</t>
   </si>
   <si>
     <t>Goiania</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/goiania-brazil.jpg?1643501321</t>
+    <t>https://nomadlist.com/assets/img/places/goiania-brazil.jpg?1643501321</t>
   </si>
   <si>
     <t>Srinagar</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/srinagar-india.jpg?1643069432</t>
+    <t>https://nomadlist.com/assets/img/places/srinagar-india.jpg?1643069432</t>
   </si>
   <si>
     <t>Kandy</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kandy-sri-lanka.jpg?1647043599</t>
+    <t>https://nomadlist.com/assets/img/places/kandy-sri-lanka.jpg?1647043599</t>
   </si>
   <si>
     <t>Leeds</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/leeds-united-kingdom.jpg?1642464809</t>
+    <t>https://nomadlist.com/assets/img/places/leeds-united-kingdom.jpg?1642464809</t>
   </si>
   <si>
     <t>Ashland</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ashland-or-united-states.jpg?1653005947</t>
+    <t>https://nomadlist.com/assets/img/places/ashland-or-united-states.jpg?1653005947</t>
   </si>
   <si>
     <t>Hvar</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hvar-croatia.jpg?1642464791</t>
+    <t>https://nomadlist.com/assets/img/places/hvar-croatia.jpg?1642464791</t>
   </si>
   <si>
     <t>Lethbridge</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lethbridge-canada.jpg?1653006140</t>
+    <t>https://nomadlist.com/assets/img/places/lethbridge-canada.jpg?1653006140</t>
   </si>
   <si>
     <t>Lafayette</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lafayette-la-united-states.jpg?1653006017</t>
+    <t>https://nomadlist.com/assets/img/places/lafayette-la-united-states.jpg?1653006017</t>
   </si>
   <si>
     <t>Lianyungang</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lianyungang-china.jpg?1642465299</t>
+    <t>https://nomadlist.com/assets/img/places/lianyungang-china.jpg?1642465299</t>
   </si>
   <si>
     <t>Agadir</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/agadir-morocco.jpg?1653005795</t>
+    <t>https://nomadlist.com/assets/img/places/agadir-morocco.jpg?1653005795</t>
   </si>
   <si>
     <t>Vijayawada</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/vijayawada-india.jpg?1645057028</t>
+    <t>https://nomadlist.com/assets/img/places/vijayawada-india.jpg?1645057028</t>
   </si>
   <si>
     <t>Montanita</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/montanita-ecuador.jpg?1656202068</t>
+    <t>https://nomadlist.com/assets/img/places/montanita-ecuador.jpg?1656202068</t>
   </si>
   <si>
     <t>Salzburg</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/salzburg-austria.jpg?1642464659</t>
+    <t>https://nomadlist.com/assets/img/places/salzburg-austria.jpg?1642464659</t>
   </si>
   <si>
     <t>Modesto</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/modesto-ca-united-states.jpg?1652919436</t>
+    <t>https://nomadlist.com/assets/img/places/modesto-ca-united-states.jpg?1652919436</t>
   </si>
   <si>
     <t>Kyoto</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kyoto-japan.jpg?1642465051</t>
+    <t>https://nomadlist.com/assets/img/places/kyoto-japan.jpg?1642465051</t>
   </si>
   <si>
     <t>Manteca</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/manteca-ca-united-states.jpg?1653006169</t>
+    <t>https://nomadlist.com/assets/img/places/manteca-ca-united-states.jpg?1653006169</t>
   </si>
   <si>
     <t>Appleton</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/appleton-wi-united-states.jpg?1653005950</t>
+    <t>https://nomadlist.com/assets/img/places/appleton-wi-united-states.jpg?1653005950</t>
   </si>
   <si>
     <t>Lusaka</t>
@@ -3881,31 +3884,31 @@
     <t>Zambia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lusaka-zambia.jpg?1644279060</t>
+    <t>https://nomadlist.com/assets/img/places/lusaka-zambia.jpg?1644279060</t>
   </si>
   <si>
     <t>Aalborg</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/aalborg-denmark.jpg?1642465091</t>
+    <t>https://nomadlist.com/assets/img/places/aalborg-denmark.jpg?1642465091</t>
   </si>
   <si>
     <t>Providence</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/providence-ri-united-states.jpg?1642724315</t>
+    <t>https://nomadlist.com/assets/img/places/providence-ri-united-states.jpg?1642724315</t>
   </si>
   <si>
     <t>Bryan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bryan-tx-united-states.jpg?1642464468</t>
+    <t>https://nomadlist.com/assets/img/places/bryan-tx-united-states.jpg?1642464468</t>
   </si>
   <si>
     <t>Tsushima Island</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tsushima-island-japan.jpg?1657497889</t>
+    <t>https://nomadlist.com/assets/img/places/tsushima-island-japan.jpg?1657497889</t>
   </si>
   <si>
     <t>Mombasa</t>
@@ -3914,13 +3917,13 @@
     <t>Kenya</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mombasa-kenya.jpg?1653006510</t>
+    <t>https://nomadlist.com/assets/img/places/mombasa-kenya.jpg?1653006510</t>
   </si>
   <si>
     <t>Visakhapatnam</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/visakhapatnam-india.jpg?1653005374</t>
+    <t>https://nomadlist.com/assets/img/places/visakhapatnam-india.jpg?1653005374</t>
   </si>
   <si>
     <t>Banjul</t>
@@ -3929,61 +3932,61 @@
     <t>Gambia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/banjul-gambia.jpg?1647821159</t>
+    <t>https://nomadlist.com/assets/img/places/banjul-gambia.jpg?1647821159</t>
   </si>
   <si>
     <t>St Louis</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/st-louis-mo-united-states.jpg?1653005599</t>
+    <t>https://nomadlist.com/assets/img/places/st-louis-mo-united-states.jpg?1653005599</t>
   </si>
   <si>
     <t>Kozhikode</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kozhikode-india.jpg?1653005442</t>
+    <t>https://nomadlist.com/assets/img/places/kozhikode-india.jpg?1653005442</t>
   </si>
   <si>
     <t>Naples</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/naples-italy.jpg?1642810105</t>
+    <t>https://nomadlist.com/assets/img/places/naples-italy.jpg?1642810105</t>
   </si>
   <si>
     <t>Ko Lipe</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ko-lipe-thailand.jpg?1652918897</t>
+    <t>https://nomadlist.com/assets/img/places/ko-lipe-thailand.jpg?1652918897</t>
   </si>
   <si>
     <t>Shantou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/shantou-china.jpg?1653006814</t>
+    <t>https://nomadlist.com/assets/img/places/shantou-china.jpg?1653006814</t>
   </si>
   <si>
     <t>Southampton</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/southampton-united-kingdom.jpg?1642465213</t>
+    <t>https://nomadlist.com/assets/img/places/southampton-united-kingdom.jpg?1642465213</t>
   </si>
   <si>
     <t>Baotou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/baotou-china.jpg?1653006710</t>
+    <t>https://nomadlist.com/assets/img/places/baotou-china.jpg?1653006710</t>
   </si>
   <si>
     <t>Jilin</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/jilin-china.jpg?1643328675</t>
+    <t>https://nomadlist.com/assets/img/places/jilin-china.jpg?1643328675</t>
   </si>
   <si>
     <t>Raipur</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/raipur-india.jpg?1642637401</t>
+    <t>https://nomadlist.com/assets/img/places/raipur-india.jpg?1642637401</t>
   </si>
   <si>
     <t>Hagatna</t>
@@ -3992,169 +3995,169 @@
     <t>Guam</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hagatna-guam.jpg?1642464815</t>
+    <t>https://nomadlist.com/assets/img/places/hagatna-guam.jpg?1642464815</t>
   </si>
   <si>
     <t>Quanzhou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/quanzhou-china.jpg?1653006793</t>
+    <t>https://nomadlist.com/assets/img/places/quanzhou-china.jpg?1653006793</t>
   </si>
   <si>
     <t>Olympia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/olympia-wa-united-states.jpg?1653006192</t>
+    <t>https://nomadlist.com/assets/img/places/olympia-wa-united-states.jpg?1653006192</t>
   </si>
   <si>
     <t>Palm Bay</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/palm-bay-fl-united-states.jpg?1653006195</t>
+    <t>https://nomadlist.com/assets/img/places/palm-bay-fl-united-states.jpg?1653006195</t>
   </si>
   <si>
     <t>Lynchburg</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lynchburg-va-united-states.jpg?1653006107</t>
+    <t>https://nomadlist.com/assets/img/places/lynchburg-va-united-states.jpg?1653006107</t>
   </si>
   <si>
     <t>Port Harcourt</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/port-harcourt-nigeria.jpg?1642529591</t>
+    <t>https://nomadlist.com/assets/img/places/port-harcourt-nigeria.jpg?1642529591</t>
   </si>
   <si>
     <t>Kunshan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kunshan-china.jpg?1652833761</t>
+    <t>https://nomadlist.com/assets/img/places/kunshan-china.jpg?1652833761</t>
   </si>
   <si>
     <t>Tirupur</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tirupur-india.jpg?1653005514</t>
+    <t>https://nomadlist.com/assets/img/places/tirupur-india.jpg?1653005514</t>
   </si>
   <si>
     <t>Kolkata</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kolkata-india.jpg?1646786261</t>
+    <t>https://nomadlist.com/assets/img/places/kolkata-india.jpg?1646786261</t>
   </si>
   <si>
     <t>Grand Rapids</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/grand-rapids-mi-united-states.jpg?1653006818</t>
+    <t>https://nomadlist.com/assets/img/places/grand-rapids-mi-united-states.jpg?1653006818</t>
   </si>
   <si>
     <t>Portsmouth</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/portsmouth-united-kingdom.jpg?1648944368</t>
+    <t>https://nomadlist.com/assets/img/places/portsmouth-united-kingdom.jpg?1648944368</t>
   </si>
   <si>
     <t>El Alto</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/el-alto-bolivia.jpg?1652919034</t>
+    <t>https://nomadlist.com/assets/img/places/el-alto-bolivia.jpg?1652919034</t>
   </si>
   <si>
     <t>Davenport</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/davenport-ia-united-states.jpg?1653006392</t>
+    <t>https://nomadlist.com/assets/img/places/davenport-ia-united-states.jpg?1653006392</t>
   </si>
   <si>
     <t>Trento</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/trento-italy.jpg?1642550546</t>
+    <t>https://nomadlist.com/assets/img/places/trento-italy.jpg?1642550546</t>
   </si>
   <si>
     <t>Nanaimo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nanaimo-canada.jpg?1655520642</t>
+    <t>https://nomadlist.com/assets/img/places/nanaimo-canada.jpg?1655520642</t>
   </si>
   <si>
     <t>Trier</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/trier-germany.jpg?1642465117</t>
+    <t>https://nomadlist.com/assets/img/places/trier-germany.jpg?1642465117</t>
   </si>
   <si>
     <t>Bellingham</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bellingham-wa-united-states.jpg?1653006330</t>
+    <t>https://nomadlist.com/assets/img/places/bellingham-wa-united-states.jpg?1653006330</t>
   </si>
   <si>
     <t>Wenling</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/wenling-china.jpg?1652919394</t>
+    <t>https://nomadlist.com/assets/img/places/wenling-china.jpg?1652919394</t>
   </si>
   <si>
     <t>Joplin</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/joplin-mo-united-states.jpg?1652918963</t>
+    <t>https://nomadlist.com/assets/img/places/joplin-mo-united-states.jpg?1652918963</t>
   </si>
   <si>
     <t>Taizhou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/taizhou-china.jpg?1653006815</t>
+    <t>https://nomadlist.com/assets/img/places/taizhou-china.jpg?1653006815</t>
   </si>
   <si>
     <t>Kollam</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kollam-india.jpg?1642529399</t>
+    <t>https://nomadlist.com/assets/img/places/kollam-india.jpg?1642529399</t>
   </si>
   <si>
     <t>Cedar Rapids</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cedar-rapids-ia-united-states.jpg?1642896138</t>
+    <t>https://nomadlist.com/assets/img/places/cedar-rapids-ia-united-states.jpg?1642896138</t>
   </si>
   <si>
     <t>Bridgeton</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bridgeton-mo-united-states.jpg?1652918881</t>
+    <t>https://nomadlist.com/assets/img/places/bridgeton-mo-united-states.jpg?1652918881</t>
   </si>
   <si>
     <t>Puebla</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/puebla-mexico.jpg?1646266307</t>
+    <t>https://nomadlist.com/assets/img/places/puebla-mexico.jpg?1646266307</t>
   </si>
   <si>
     <t>Trieste</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/trieste-italy.jpg?1643069380</t>
+    <t>https://nomadlist.com/assets/img/places/trieste-italy.jpg?1643069380</t>
   </si>
   <si>
     <t>Huntsville</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/huntsville-al-united-states.jpg?1653005944</t>
+    <t>https://nomadlist.com/assets/img/places/huntsville-al-united-states.jpg?1653005944</t>
   </si>
   <si>
     <t>Nashik</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nashik-india.jpg?1653006230</t>
+    <t>https://nomadlist.com/assets/img/places/nashik-india.jpg?1653006230</t>
   </si>
   <si>
     <t>Geneva</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/geneva-switzerland.jpg?1642465286</t>
+    <t>https://nomadlist.com/assets/img/places/geneva-switzerland.jpg?1642465286</t>
   </si>
   <si>
     <t>Conakry</t>
@@ -4163,145 +4166,145 @@
     <t>Guinea</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/conakry-guinea.jpg?1646006793</t>
+    <t>https://nomadlist.com/assets/img/places/conakry-guinea.jpg?1646006793</t>
   </si>
   <si>
     <t>Nicosia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nicosia-cyprus.jpg?1652919202</t>
+    <t>https://nomadlist.com/assets/img/places/nicosia-cyprus.jpg?1652919202</t>
   </si>
   <si>
     <t>Dahab</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dahab-egypt.jpg?1643156779</t>
+    <t>https://nomadlist.com/assets/img/places/dahab-egypt.jpg?1643156779</t>
   </si>
   <si>
     <t>Shiraz</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/shiraz-iran.jpg?1642464970</t>
+    <t>https://nomadlist.com/assets/img/places/shiraz-iran.jpg?1642464970</t>
   </si>
   <si>
     <t>High Point</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/high-point-nc-united-states.jpg?1642724078</t>
+    <t>https://nomadlist.com/assets/img/places/high-point-nc-united-states.jpg?1642724078</t>
   </si>
   <si>
     <t>Puning</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/puning-china.jpg?1643157264</t>
+    <t>https://nomadlist.com/assets/img/places/puning-china.jpg?1643157264</t>
   </si>
   <si>
     <t>Pasco</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/pasco-wa-united-states.jpg?1653006021</t>
+    <t>https://nomadlist.com/assets/img/places/pasco-wa-united-states.jpg?1653006021</t>
   </si>
   <si>
     <t>Vitoria</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/vitoria-brazil.jpg?1653005920</t>
+    <t>https://nomadlist.com/assets/img/places/vitoria-brazil.jpg?1653005920</t>
   </si>
   <si>
     <t>Cambridge</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cambridge-united-kingdom.jpg?1644192463</t>
+    <t>https://nomadlist.com/assets/img/places/cambridge-united-kingdom.jpg?1644192463</t>
   </si>
   <si>
     <t>Nanjing</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nanjing-china.jpg?1643933453</t>
+    <t>https://nomadlist.com/assets/img/places/nanjing-china.jpg?1643933453</t>
   </si>
   <si>
     <t>Rabat</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rabat-morocco.jpg?1653006088</t>
+    <t>https://nomadlist.com/assets/img/places/rabat-morocco.jpg?1653006088</t>
   </si>
   <si>
     <t>Bandung</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bandung-indonesia.jpg?1642529098</t>
+    <t>https://nomadlist.com/assets/img/places/bandung-indonesia.jpg?1642529098</t>
   </si>
   <si>
     <t>Zhongshan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/zhongshan-china.jpg?1642465108</t>
+    <t>https://nomadlist.com/assets/img/places/zhongshan-china.jpg?1642465108</t>
   </si>
   <si>
     <t>St Cloud</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/st-cloud-mn-united-states.jpg?1653006261</t>
+    <t>https://nomadlist.com/assets/img/places/st-cloud-mn-united-states.jpg?1653006261</t>
   </si>
   <si>
     <t>Nottingham</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nottingham-united-kingdom.jpg?1653006187</t>
+    <t>https://nomadlist.com/assets/img/places/nottingham-united-kingdom.jpg?1653006187</t>
   </si>
   <si>
     <t>Lelystad</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lelystad-netherlands.jpg?1642465077</t>
+    <t>https://nomadlist.com/assets/img/places/lelystad-netherlands.jpg?1642465077</t>
   </si>
   <si>
     <t>Zunyi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/zunyi-china.jpg?1653006549</t>
+    <t>https://nomadlist.com/assets/img/places/zunyi-china.jpg?1653006549</t>
   </si>
   <si>
     <t>Taiyuan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/taiyuan-china.jpg?1653006828</t>
+    <t>https://nomadlist.com/assets/img/places/taiyuan-china.jpg?1653006828</t>
   </si>
   <si>
     <t>Qingdao</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/qingdao-china.jpg?1653006410</t>
+    <t>https://nomadlist.com/assets/img/places/qingdao-china.jpg?1653006410</t>
   </si>
   <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/strasbourg-france.jpg?1642529463</t>
+    <t>https://nomadlist.com/assets/img/places/strasbourg-france.jpg?1642529463</t>
   </si>
   <si>
     <t>Chongqing</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/chongqing-china.jpg?1642465525</t>
+    <t>https://nomadlist.com/assets/img/places/chongqing-china.jpg?1642465525</t>
   </si>
   <si>
     <t>Joao Pessoa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/joao-pessoa-brazil.jpg?1642465104</t>
+    <t>https://nomadlist.com/assets/img/places/joao-pessoa-brazil.jpg?1642465104</t>
   </si>
   <si>
     <t>Barrie</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/barrie-canada.jpg?1653006332</t>
+    <t>https://nomadlist.com/assets/img/places/barrie-canada.jpg?1653006332</t>
   </si>
   <si>
     <t>Jackson</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/jackson-tn-united-states.jpg?1650240188</t>
+    <t>https://nomadlist.com/assets/img/places/jackson-tn-united-states.jpg?1650240188</t>
   </si>
   <si>
     <t>Mbuji Mayi</t>
@@ -4310,13 +4313,13 @@
     <t>DR Congo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mbuji-mayi-dr-congo.jpg?1653006200</t>
+    <t>https://nomadlist.com/assets/img/places/mbuji-mayi-dr-congo.jpg?1653006200</t>
   </si>
   <si>
     <t>Rockford</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rockford-il-united-states.jpg?1653005896</t>
+    <t>https://nomadlist.com/assets/img/places/rockford-il-united-states.jpg?1653005896</t>
   </si>
   <si>
     <t>Algiers</t>
@@ -4325,97 +4328,97 @@
     <t>Algeria</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/algiers-algeria.jpg?1653610164</t>
+    <t>https://nomadlist.com/assets/img/places/algiers-algeria.jpg?1653610164</t>
   </si>
   <si>
     <t>La Crosse</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/la-crosse-wi-united-states.jpg?1653006022</t>
+    <t>https://nomadlist.com/assets/img/places/la-crosse-wi-united-states.jpg?1653006022</t>
   </si>
   <si>
     <t>A Coruna</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/a-coruna-spain.jpg?1653006286</t>
+    <t>https://nomadlist.com/assets/img/places/a-coruna-spain.jpg?1653006286</t>
   </si>
   <si>
     <t>Beijing</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/beijing-china.jpg?1643674936</t>
+    <t>https://nomadlist.com/assets/img/places/beijing-china.jpg?1643674936</t>
   </si>
   <si>
     <t>Burlington</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/burlington-nc-united-states.jpg?1653006431</t>
+    <t>https://nomadlist.com/assets/img/places/burlington-nc-united-states.jpg?1653006431</t>
   </si>
   <si>
     <t>Bucaramanga</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bucaramanga-colombia.jpg?1642637477</t>
+    <t>https://nomadlist.com/assets/img/places/bucaramanga-colombia.jpg?1642637477</t>
   </si>
   <si>
     <t>York</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/york-united-kingdom.jpg?1642810117</t>
+    <t>https://nomadlist.com/assets/img/places/york-united-kingdom.jpg?1642810117</t>
   </si>
   <si>
     <t>Matara</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/matara-sri-lanka.jpg?1653005496</t>
+    <t>https://nomadlist.com/assets/img/places/matara-sri-lanka.jpg?1653005496</t>
   </si>
   <si>
     <t>Avellino</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/avellino-italy.jpg?1653006068</t>
+    <t>https://nomadlist.com/assets/img/places/avellino-italy.jpg?1653006068</t>
   </si>
   <si>
     <t>Hannover</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hannover-germany.jpg?1653006117</t>
+    <t>https://nomadlist.com/assets/img/places/hannover-germany.jpg?1653006117</t>
   </si>
   <si>
     <t>Yiwu</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/yiwu-china.jpg?1642465337</t>
+    <t>https://nomadlist.com/assets/img/places/yiwu-china.jpg?1642465337</t>
   </si>
   <si>
     <t>The Hague</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/the-hague-netherlands.jpg?1653006346</t>
+    <t>https://nomadlist.com/assets/img/places/the-hague-netherlands.jpg?1653006346</t>
   </si>
   <si>
     <t>Konya</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/konya-turkey.jpg?1642465012</t>
+    <t>https://nomadlist.com/assets/img/places/konya-turkey.jpg?1642465012</t>
   </si>
   <si>
     <t>San Luis Potosi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/san-luis-potosi-mexico.jpg?1652919566</t>
+    <t>https://nomadlist.com/assets/img/places/san-luis-potosi-mexico.jpg?1652919566</t>
   </si>
   <si>
     <t>Breda</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/breda-netherlands.jpg?1642465312</t>
+    <t>https://nomadlist.com/assets/img/places/breda-netherlands.jpg?1642465312</t>
   </si>
   <si>
     <t>Pasto</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/pasto-colombia.jpg?1653006134</t>
+    <t>https://nomadlist.com/assets/img/places/pasto-colombia.jpg?1653006134</t>
   </si>
   <si>
     <t>Port Of Spain</t>
@@ -4424,37 +4427,37 @@
     <t>Trinidad and Tobago</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/port-of-spain-trinidad-and-tobago.jpg?1653006896</t>
+    <t>https://nomadlist.com/assets/img/places/port-of-spain-trinidad-and-tobago.jpg?1653006896</t>
   </si>
   <si>
     <t>Patna</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/patna-india.jpg?1653006627</t>
+    <t>https://nomadlist.com/assets/img/places/patna-india.jpg?1653006627</t>
   </si>
   <si>
     <t>Campos Dos Goytacazes</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/campos-dos-goytacazes-brazil.jpg?1642529348</t>
+    <t>https://nomadlist.com/assets/img/places/campos-dos-goytacazes-brazil.jpg?1642529348</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/granada-spain.jpg?1654738679</t>
+    <t>https://nomadlist.com/assets/img/places/granada-spain.jpg?1654738679</t>
   </si>
   <si>
     <t>Rogers</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rogers-ar-united-states.jpg?1653006206</t>
+    <t>https://nomadlist.com/assets/img/places/rogers-ar-united-states.jpg?1653006206</t>
   </si>
   <si>
     <t>Oran</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/oran-algeria.jpg?1642637666</t>
+    <t>https://nomadlist.com/assets/img/places/oran-algeria.jpg?1642637666</t>
   </si>
   <si>
     <t>Oslo</t>
@@ -4463,97 +4466,97 @@
     <t>Norway</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/oslo-norway.jpg?1642529179</t>
+    <t>https://nomadlist.com/assets/img/places/oslo-norway.jpg?1642529179</t>
   </si>
   <si>
     <t>Treviso</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/treviso-italy.jpg?1652833399</t>
+    <t>https://nomadlist.com/assets/img/places/treviso-italy.jpg?1652833399</t>
   </si>
   <si>
     <t>Hemet</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hemet-ca-united-states.jpg?1653006283</t>
+    <t>https://nomadlist.com/assets/img/places/hemet-ca-united-states.jpg?1653006283</t>
   </si>
   <si>
     <t>Coventry</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/coventry-united-kingdom.jpg?1642637598</t>
+    <t>https://nomadlist.com/assets/img/places/coventry-united-kingdom.jpg?1642637598</t>
   </si>
   <si>
     <t>Reading</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/reading-united-kingdom.jpg?1642465355</t>
+    <t>https://nomadlist.com/assets/img/places/reading-united-kingdom.jpg?1642465355</t>
   </si>
   <si>
     <t>Cozumel</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cozumel-mexico.jpg?1652919143</t>
+    <t>https://nomadlist.com/assets/img/places/cozumel-mexico.jpg?1652919143</t>
   </si>
   <si>
     <t>Bournemouth</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bournemouth-united-kingdom.jpg?1653006257</t>
+    <t>https://nomadlist.com/assets/img/places/bournemouth-united-kingdom.jpg?1653006257</t>
   </si>
   <si>
     <t>Fort Mcmurray</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/fort-mcmurray-canada.jpg?1642896421</t>
+    <t>https://nomadlist.com/assets/img/places/fort-mcmurray-canada.jpg?1642896421</t>
   </si>
   <si>
     <t>Changshu</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/changshu-china.jpg?1653006376</t>
+    <t>https://nomadlist.com/assets/img/places/changshu-china.jpg?1653006376</t>
   </si>
   <si>
     <t>Leuven</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/leuven-belgium.jpg?1643328588</t>
+    <t>https://nomadlist.com/assets/img/places/leuven-belgium.jpg?1643328588</t>
   </si>
   <si>
     <t>Guayaquil</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/guayaquil-ecuador.jpg?1652919056</t>
+    <t>https://nomadlist.com/assets/img/places/guayaquil-ecuador.jpg?1652919056</t>
   </si>
   <si>
     <t>Dalian</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dalian-china.jpg?1642465432</t>
+    <t>https://nomadlist.com/assets/img/places/dalian-china.jpg?1642465432</t>
   </si>
   <si>
     <t>Santa Fe</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/santa-fe-nm-united-states.jpg?1642465464</t>
+    <t>https://nomadlist.com/assets/img/places/santa-fe-nm-united-states.jpg?1642465464</t>
   </si>
   <si>
     <t>Heidelberg</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/heidelberg-germany.jpg?1642465124</t>
+    <t>https://nomadlist.com/assets/img/places/heidelberg-germany.jpg?1642465124</t>
   </si>
   <si>
     <t>Darmstadt</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/darmstadt-germany.jpg?1642723877</t>
+    <t>https://nomadlist.com/assets/img/places/darmstadt-germany.jpg?1642723877</t>
   </si>
   <si>
     <t>Virginia Beach</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/virginia-beach-va-united-states.jpg?1653006620</t>
+    <t>https://nomadlist.com/assets/img/places/virginia-beach-va-united-states.jpg?1653006620</t>
   </si>
   <si>
     <t>Sihanoukville</t>
@@ -4562,43 +4565,43 @@
     <t>Cambodia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sihanoukville-cambodia.jpg?1652919073</t>
+    <t>https://nomadlist.com/assets/img/places/sihanoukville-cambodia.jpg?1652919073</t>
   </si>
   <si>
     <t>Ningbo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ningbo-china.jpg?1652919111</t>
+    <t>https://nomadlist.com/assets/img/places/ningbo-china.jpg?1652919111</t>
   </si>
   <si>
     <t>Suzhou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/suzhou-china.jpg?1642465555</t>
+    <t>https://nomadlist.com/assets/img/places/suzhou-china.jpg?1642465555</t>
   </si>
   <si>
     <t>Nagoya</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nagoya-japan.jpg?1642810016</t>
+    <t>https://nomadlist.com/assets/img/places/nagoya-japan.jpg?1642810016</t>
   </si>
   <si>
     <t>Zhangzhou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/zhangzhou-china.jpg?1653006619</t>
+    <t>https://nomadlist.com/assets/img/places/zhangzhou-china.jpg?1653006619</t>
   </si>
   <si>
     <t>Surat</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/surat-india.jpg?1643157027</t>
+    <t>https://nomadlist.com/assets/img/places/surat-india.jpg?1643157027</t>
   </si>
   <si>
     <t>Jundiai</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/jundiai-brazil.jpg?1653006510</t>
+    <t>https://nomadlist.com/assets/img/places/jundiai-brazil.jpg?1653006510</t>
   </si>
   <si>
     <t>Oranjestad</t>
@@ -4607,7 +4610,7 @@
     <t>Aruba</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/oranjestad-aruba.jpg?1653006072</t>
+    <t>https://nomadlist.com/assets/img/places/oranjestad-aruba.jpg?1653006072</t>
   </si>
   <si>
     <t>Dili</t>
@@ -4616,7 +4619,7 @@
     <t>East Timor</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dili-east-timor.jpg?1647043697</t>
+    <t>https://nomadlist.com/assets/img/places/dili-east-timor.jpg?1647043697</t>
   </si>
   <si>
     <t>Maseru</t>
@@ -4625,79 +4628,79 @@
     <t>Lesotho</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/maseru-lesotho.jpg?1649894830</t>
+    <t>https://nomadlist.com/assets/img/places/maseru-lesotho.jpg?1649894830</t>
   </si>
   <si>
     <t>Provo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/provo-ut-united-states.jpg?1652919154</t>
+    <t>https://nomadlist.com/assets/img/places/provo-ut-united-states.jpg?1652919154</t>
   </si>
   <si>
     <t>Albany</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/albany-or-united-states.jpg?1653006241</t>
+    <t>https://nomadlist.com/assets/img/places/albany-or-united-states.jpg?1653006241</t>
   </si>
   <si>
     <t>Foshan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/foshan-china.jpg?1642465095</t>
+    <t>https://nomadlist.com/assets/img/places/foshan-china.jpg?1642465095</t>
   </si>
   <si>
     <t>Taos</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/taos-nm-united-states.jpg?1653006405</t>
+    <t>https://nomadlist.com/assets/img/places/taos-nm-united-states.jpg?1653006405</t>
   </si>
   <si>
     <t>Delhi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/delhi-india.jpg?1642529466</t>
+    <t>https://nomadlist.com/assets/img/places/delhi-india.jpg?1642529466</t>
   </si>
   <si>
     <t>Toluca</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/toluca-mexico.jpg?1642724568</t>
+    <t>https://nomadlist.com/assets/img/places/toluca-mexico.jpg?1642724568</t>
   </si>
   <si>
     <t>Klaipeda</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/klaipeda-lithuania.jpg?1643328296</t>
+    <t>https://nomadlist.com/assets/img/places/klaipeda-lithuania.jpg?1643328296</t>
   </si>
   <si>
     <t>Guatemala City</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/guatemala-city-guatemala.jpg?1642637481</t>
+    <t>https://nomadlist.com/assets/img/places/guatemala-city-guatemala.jpg?1642637481</t>
   </si>
   <si>
     <t>Chennai</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/chennai-india.jpg?1655856393</t>
+    <t>https://nomadlist.com/assets/img/places/chennai-india.jpg?1655856393</t>
   </si>
   <si>
     <t>Uberlandia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/uberlandia-brazil.jpg?1643069307</t>
+    <t>https://nomadlist.com/assets/img/places/uberlandia-brazil.jpg?1643069307</t>
   </si>
   <si>
     <t>Harrisonburg</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/harrisonburg-va-united-states.jpg?1652919108</t>
+    <t>https://nomadlist.com/assets/img/places/harrisonburg-va-united-states.jpg?1652919108</t>
   </si>
   <si>
     <t>Pamplona</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/pamplona-spain.jpg?1652919048</t>
+    <t>https://nomadlist.com/assets/img/places/pamplona-spain.jpg?1652919048</t>
   </si>
   <si>
     <t>Ouagadougou</t>
@@ -4706,49 +4709,49 @@
     <t>Burkina Faso</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ouagadougou-burkina-faso.jpg?1653523824</t>
+    <t>https://nomadlist.com/assets/img/places/ouagadougou-burkina-faso.jpg?1653523824</t>
   </si>
   <si>
     <t>Zhangjiakou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/zhangjiakou-china.jpg?1653006466</t>
+    <t>https://nomadlist.com/assets/img/places/zhangjiakou-china.jpg?1653006466</t>
   </si>
   <si>
     <t>Mendoza</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mendoza-argentina.jpg?1642465269</t>
+    <t>https://nomadlist.com/assets/img/places/mendoza-argentina.jpg?1642465269</t>
   </si>
   <si>
     <t>Uluwatu</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/uluwatu-bali-indonesia.jpg?1642809787</t>
+    <t>https://nomadlist.com/assets/img/places/uluwatu-bali-indonesia.jpg?1642809787</t>
   </si>
   <si>
     <t>Elgin</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/elgin-il-united-states.jpg?1653005986</t>
+    <t>https://nomadlist.com/assets/img/places/elgin-il-united-states.jpg?1653005986</t>
   </si>
   <si>
     <t>Carson City</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/carson-city-nv-united-states.jpg?1657152978</t>
+    <t>https://nomadlist.com/assets/img/places/carson-city-nv-united-states.jpg?1657152978</t>
   </si>
   <si>
     <t>Padova</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/padova-italy.jpg?1644192571</t>
+    <t>https://nomadlist.com/assets/img/places/padova-italy.jpg?1644192571</t>
   </si>
   <si>
     <t>Meerut</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/meerut-india.jpg?1653006894</t>
+    <t>https://nomadlist.com/assets/img/places/meerut-india.jpg?1653006894</t>
   </si>
   <si>
     <t>San Juan</t>
@@ -4757,7 +4760,7 @@
     <t>Puerto Rico</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/san-juan-puerto-rico.jpg?1644883976</t>
+    <t>https://nomadlist.com/assets/img/places/san-juan-puerto-rico.jpg?1644883976</t>
   </si>
   <si>
     <t>Lome</t>
@@ -4766,25 +4769,25 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lome-togo.jpg?1653006219</t>
+    <t>https://nomadlist.com/assets/img/places/lome-togo.jpg?1653006219</t>
   </si>
   <si>
     <t>Coimbatore</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/coimbatore-india.jpg?1653006573</t>
+    <t>https://nomadlist.com/assets/img/places/coimbatore-india.jpg?1653006573</t>
   </si>
   <si>
     <t>Palembang</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/palembang-sumatra-indonesia.jpg?1642529224</t>
+    <t>https://nomadlist.com/assets/img/places/palembang-sumatra-indonesia.jpg?1642529224</t>
   </si>
   <si>
     <t>Luton</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/luton-united-kingdom.jpg?1646266447</t>
+    <t>https://nomadlist.com/assets/img/places/luton-united-kingdom.jpg?1646266447</t>
   </si>
   <si>
     <t>Kumasi</t>
@@ -4793,25 +4796,25 @@
     <t>Ghana</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kumasi-ghana.jpg?1642465147</t>
+    <t>https://nomadlist.com/assets/img/places/kumasi-ghana.jpg?1642465147</t>
   </si>
   <si>
     <t>Innsbruck</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/innsbruck-austria.jpg?1653006359</t>
+    <t>https://nomadlist.com/assets/img/places/innsbruck-austria.jpg?1653006359</t>
   </si>
   <si>
     <t>Battle Creek</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/battle-creek-mi-united-states.jpg?1651536922</t>
+    <t>https://nomadlist.com/assets/img/places/battle-creek-mi-united-states.jpg?1651536922</t>
   </si>
   <si>
     <t>Hefei</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hefei-china.jpg?1653006053</t>
+    <t>https://nomadlist.com/assets/img/places/hefei-china.jpg?1653006053</t>
   </si>
   <si>
     <t>Mandalay</t>
@@ -4820,13 +4823,13 @@
     <t>Myanmar</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mandalay-myanmar.jpg?1653006425</t>
+    <t>https://nomadlist.com/assets/img/places/mandalay-myanmar.jpg?1653006425</t>
   </si>
   <si>
     <t>Chachapoyas</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/chachapoyas-peru.jpg?1653006181</t>
+    <t>https://nomadlist.com/assets/img/places/chachapoyas-peru.jpg?1653006181</t>
   </si>
   <si>
     <t>Huambo</t>
@@ -4835,7 +4838,7 @@
     <t>Angola</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/huambo-angola.jpg?1642465135</t>
+    <t>https://nomadlist.com/assets/img/places/huambo-angola.jpg?1642465135</t>
   </si>
   <si>
     <t>Gaborone</t>
@@ -4844,235 +4847,235 @@
     <t>Botswana</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/gaborone-botswana.jpg?1653005953</t>
+    <t>https://nomadlist.com/assets/img/places/gaborone-botswana.jpg?1653005953</t>
   </si>
   <si>
     <t>Kananga</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kananga-dr-congo.jpg?1652919109</t>
+    <t>https://nomadlist.com/assets/img/places/kananga-dr-congo.jpg?1652919109</t>
   </si>
   <si>
     <t>Kassel</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kassel-germany.jpg?1653006207</t>
+    <t>https://nomadlist.com/assets/img/places/kassel-germany.jpg?1653006207</t>
   </si>
   <si>
     <t>Guilin</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/guilin-china.jpg?1652834122</t>
+    <t>https://nomadlist.com/assets/img/places/guilin-china.jpg?1652834122</t>
   </si>
   <si>
     <t>Kagoshima</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kagoshima-japan.jpg?1642465322</t>
+    <t>https://nomadlist.com/assets/img/places/kagoshima-japan.jpg?1642465322</t>
   </si>
   <si>
     <t>Boumerdas</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/boumerdas-algeria.jpg?1642637934</t>
+    <t>https://nomadlist.com/assets/img/places/boumerdas-algeria.jpg?1642637934</t>
   </si>
   <si>
     <t>Patras</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/patras-greece.jpg?1642465451</t>
+    <t>https://nomadlist.com/assets/img/places/patras-greece.jpg?1642465451</t>
   </si>
   <si>
     <t>Mashhad</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mashhad-iran.jpg?1642896510</t>
+    <t>https://nomadlist.com/assets/img/places/mashhad-iran.jpg?1642896510</t>
   </si>
   <si>
     <t>Janesville</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/janesville-wi-united-states.jpg?1653006147</t>
+    <t>https://nomadlist.com/assets/img/places/janesville-wi-united-states.jpg?1653006147</t>
   </si>
   <si>
     <t>Spokane Valley</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/spokane-valley-wa-united-states.jpg?1653006384</t>
+    <t>https://nomadlist.com/assets/img/places/spokane-valley-wa-united-states.jpg?1653006384</t>
   </si>
   <si>
     <t>Manchester Nh</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/manchester-nh-united-states.jpg?1653006218</t>
+    <t>https://nomadlist.com/assets/img/places/manchester-nh-united-states.jpg?1653006218</t>
   </si>
   <si>
     <t>Taichung</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/taichung-taiwan.jpg?1642465329</t>
+    <t>https://nomadlist.com/assets/img/places/taichung-taiwan.jpg?1642465329</t>
   </si>
   <si>
     <t>San Sebastian</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/san-sebastian-spain.jpg?1643846783</t>
+    <t>https://nomadlist.com/assets/img/places/san-sebastian-spain.jpg?1643846783</t>
   </si>
   <si>
     <t>Wuxi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/wuxi-china.jpg?1652919119</t>
+    <t>https://nomadlist.com/assets/img/places/wuxi-china.jpg?1652919119</t>
   </si>
   <si>
     <t>Barranquilla</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/barranquilla-colombia.jpg?1653006300</t>
+    <t>https://nomadlist.com/assets/img/places/barranquilla-colombia.jpg?1653006300</t>
   </si>
   <si>
     <t>Varkala</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/varkala-india.jpg?1642724370</t>
+    <t>https://nomadlist.com/assets/img/places/varkala-india.jpg?1642724370</t>
   </si>
   <si>
     <t>Zhuhai</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/zhuhai-china.jpg?1653007067</t>
+    <t>https://nomadlist.com/assets/img/places/zhuhai-china.jpg?1653007067</t>
   </si>
   <si>
     <t>Huainan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/huainan-china.jpg?1642724388</t>
+    <t>https://nomadlist.com/assets/img/places/huainan-china.jpg?1642724388</t>
   </si>
   <si>
     <t>Baton Rouge</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/baton-rouge-la-united-states.jpg?1653006187</t>
+    <t>https://nomadlist.com/assets/img/places/baton-rouge-la-united-states.jpg?1653006187</t>
   </si>
   <si>
     <t>Brighton</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/brighton-united-kingdom.jpg?1656634513</t>
+    <t>https://nomadlist.com/assets/img/places/brighton-united-kingdom.jpg?1656634513</t>
   </si>
   <si>
     <t>Indore</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/indore-india.jpg?1642529495</t>
+    <t>https://nomadlist.com/assets/img/places/indore-india.jpg?1642529495</t>
   </si>
   <si>
     <t>Zhangjiagang</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/zhangjiagang-china.jpg?1652834113</t>
+    <t>https://nomadlist.com/assets/img/places/zhangjiagang-china.jpg?1652834113</t>
   </si>
   <si>
     <t>Tilburg</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tilburg-netherlands.jpg?1653006421</t>
+    <t>https://nomadlist.com/assets/img/places/tilburg-netherlands.jpg?1653006421</t>
   </si>
   <si>
     <t>Topeka</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/topeka-ks-united-states.jpg?1653005614</t>
+    <t>https://nomadlist.com/assets/img/places/topeka-ks-united-states.jpg?1653005614</t>
   </si>
   <si>
     <t>Chattanooga</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/chattanooga-tn-united-states.jpg?1653006606</t>
+    <t>https://nomadlist.com/assets/img/places/chattanooga-tn-united-states.jpg?1653006606</t>
   </si>
   <si>
     <t>Shenyang</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/shenyang-china.jpg?1652919477</t>
+    <t>https://nomadlist.com/assets/img/places/shenyang-china.jpg?1652919477</t>
   </si>
   <si>
     <t>Kinmen</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kinmen-taiwan.jpg?1653006687</t>
+    <t>https://nomadlist.com/assets/img/places/kinmen-taiwan.jpg?1653006687</t>
   </si>
   <si>
     <t>Manaus</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/manaus-brazil.jpg?1653006476</t>
+    <t>https://nomadlist.com/assets/img/places/manaus-brazil.jpg?1653006476</t>
   </si>
   <si>
     <t>Zhanjiang</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/zhanjiang-china.jpg?1657152999</t>
+    <t>https://nomadlist.com/assets/img/places/zhanjiang-china.jpg?1657152999</t>
   </si>
   <si>
     <t>Bridgeport</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bridgeport-ct-united-states.jpg?1653006341</t>
+    <t>https://nomadlist.com/assets/img/places/bridgeport-ct-united-states.jpg?1653006341</t>
   </si>
   <si>
     <t>Idaho Falls</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/idaho-falls-id-united-states.jpg?1653007280</t>
+    <t>https://nomadlist.com/assets/img/places/idaho-falls-id-united-states.jpg?1653007280</t>
   </si>
   <si>
     <t>Rome</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rome-italy.jpg?1651104419</t>
+    <t>https://nomadlist.com/assets/img/places/rome-italy.jpg?1651104419</t>
   </si>
   <si>
     <t>Bern</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bern-switzerland.jpg?1642465147</t>
+    <t>https://nomadlist.com/assets/img/places/bern-switzerland.jpg?1642465147</t>
   </si>
   <si>
     <t>Naypyidaw</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/naypyidaw-myanmar.jpg?1642896488</t>
+    <t>https://nomadlist.com/assets/img/places/naypyidaw-myanmar.jpg?1642896488</t>
   </si>
   <si>
     <t>Jarabacoa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/jarabacoa-dominican-republic.jpg?1653006489</t>
+    <t>https://nomadlist.com/assets/img/places/jarabacoa-dominican-republic.jpg?1653006489</t>
   </si>
   <si>
     <t>Rajkot</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rajkot-india.jpg?1642810049</t>
+    <t>https://nomadlist.com/assets/img/places/rajkot-india.jpg?1642810049</t>
   </si>
   <si>
     <t>Exeter</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/exeter-united-kingdom.jpg?1642896564</t>
+    <t>https://nomadlist.com/assets/img/places/exeter-united-kingdom.jpg?1642896564</t>
   </si>
   <si>
     <t>Flagstaff</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/flagstaff-az-united-states.jpg?1654825280</t>
+    <t>https://nomadlist.com/assets/img/places/flagstaff-az-united-states.jpg?1654825280</t>
   </si>
   <si>
     <t>Fushun</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/fushun-china.jpg?1643157469</t>
+    <t>https://nomadlist.com/assets/img/places/fushun-china.jpg?1643157469</t>
   </si>
   <si>
     <t>Homs</t>
@@ -5081,139 +5084,139 @@
     <t>Syria</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/homs-syria.jpg?1642982930</t>
+    <t>https://nomadlist.com/assets/img/places/homs-syria.jpg?1642982930</t>
   </si>
   <si>
     <t>Daytona Beach</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/daytona-beach-fl-united-states.jpg?1657067400</t>
+    <t>https://nomadlist.com/assets/img/places/daytona-beach-fl-united-states.jpg?1657067400</t>
   </si>
   <si>
     <t>Joliet</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/joliet-il-united-states.jpg?1653005741</t>
+    <t>https://nomadlist.com/assets/img/places/joliet-il-united-states.jpg?1653005741</t>
   </si>
   <si>
     <t>Sanur</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sanur-bali-indonesia.jpg?1653005674</t>
+    <t>https://nomadlist.com/assets/img/places/sanur-bali-indonesia.jpg?1653005674</t>
   </si>
   <si>
     <t>Xining</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/xining-china.jpg?1653006829</t>
+    <t>https://nomadlist.com/assets/img/places/xining-china.jpg?1653006829</t>
   </si>
   <si>
     <t>Casa Grande</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/casa-grande-az-united-states.jpg?1652919181</t>
+    <t>https://nomadlist.com/assets/img/places/casa-grande-az-united-states.jpg?1652919181</t>
   </si>
   <si>
     <t>Midland</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/midland-tx-united-states.jpg?1653006753</t>
+    <t>https://nomadlist.com/assets/img/places/midland-tx-united-states.jpg?1653006753</t>
   </si>
   <si>
     <t>Anderson</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/anderson-in-united-states.jpg?1656030137</t>
+    <t>https://nomadlist.com/assets/img/places/anderson-in-united-states.jpg?1656030137</t>
   </si>
   <si>
     <t>Cairo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cairo-egypt.jpg?1657153025</t>
+    <t>https://nomadlist.com/assets/img/places/cairo-egypt.jpg?1657153025</t>
   </si>
   <si>
     <t>Shaoxing</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/shaoxing-china.jpg?1652919186</t>
+    <t>https://nomadlist.com/assets/img/places/shaoxing-china.jpg?1652919186</t>
   </si>
   <si>
     <t>Putian</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/putian-china.jpg?1643328444</t>
+    <t>https://nomadlist.com/assets/img/places/putian-china.jpg?1643328444</t>
   </si>
   <si>
     <t>Livingstone</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/livingstone-zambia.jpg?1642637186</t>
+    <t>https://nomadlist.com/assets/img/places/livingstone-zambia.jpg?1642637186</t>
   </si>
   <si>
     <t>Cheyenne</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cheyenne-wy-united-states.jpg?1653006393</t>
+    <t>https://nomadlist.com/assets/img/places/cheyenne-wy-united-states.jpg?1653006393</t>
   </si>
   <si>
     <t>Tarifa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tarifa-spain.jpg?1653869244</t>
+    <t>https://nomadlist.com/assets/img/places/tarifa-spain.jpg?1653869244</t>
   </si>
   <si>
     <t>Hartford</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hartford-ct-united-states.jpg?1653006471</t>
+    <t>https://nomadlist.com/assets/img/places/hartford-ct-united-states.jpg?1653006471</t>
   </si>
   <si>
     <t>Soweto</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/soweto-south-africa.jpg?1653006782</t>
+    <t>https://nomadlist.com/assets/img/places/soweto-south-africa.jpg?1653006782</t>
   </si>
   <si>
     <t>Santa Barbara</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/santa-barbara-ca-united-states.jpg?1642724500</t>
+    <t>https://nomadlist.com/assets/img/places/santa-barbara-ca-united-states.jpg?1642724500</t>
   </si>
   <si>
     <t>Qinhuangdao</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/qinhuangdao-china.jpg?1643069709</t>
+    <t>https://nomadlist.com/assets/img/places/qinhuangdao-china.jpg?1643069709</t>
   </si>
   <si>
     <t>Modena</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/modena-italy.jpg?1642896573</t>
+    <t>https://nomadlist.com/assets/img/places/modena-italy.jpg?1642896573</t>
   </si>
   <si>
     <t>Aarhus</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/aarhus-denmark.jpg?1652919191</t>
+    <t>https://nomadlist.com/assets/img/places/aarhus-denmark.jpg?1652919191</t>
   </si>
   <si>
     <t>Qiqihar</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/qiqihar-china.jpg?1642724700</t>
+    <t>https://nomadlist.com/assets/img/places/qiqihar-china.jpg?1642724700</t>
   </si>
   <si>
     <t>Yokohama</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/yokohama-japan.jpg?1642465161</t>
+    <t>https://nomadlist.com/assets/img/places/yokohama-japan.jpg?1642465161</t>
   </si>
   <si>
     <t>Torreon</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/torreon-mexico.jpg?1652833973</t>
+    <t>https://nomadlist.com/assets/img/places/torreon-mexico.jpg?1652833973</t>
   </si>
   <si>
     <t>Juba</t>
@@ -5222,49 +5225,49 @@
     <t>South Sudan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/juba-south-sudan.jpg?1644451956</t>
+    <t>https://nomadlist.com/assets/img/places/juba-south-sudan.jpg?1644451956</t>
   </si>
   <si>
     <t>Arnhem</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/arnhem-netherlands.jpg?1656116145</t>
+    <t>https://nomadlist.com/assets/img/places/arnhem-netherlands.jpg?1656116145</t>
   </si>
   <si>
     <t>Sendai</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sendai-japan.jpg?1642465069</t>
+    <t>https://nomadlist.com/assets/img/places/sendai-japan.jpg?1642465069</t>
   </si>
   <si>
     <t>Mcleod Ganj</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mcleod-ganj-india.jpg?1654302169</t>
+    <t>https://nomadlist.com/assets/img/places/mcleod-ganj-india.jpg?1654302169</t>
   </si>
   <si>
     <t>Tebessa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tebessa-algeria.jpg?1652919210</t>
+    <t>https://nomadlist.com/assets/img/places/tebessa-algeria.jpg?1652919210</t>
   </si>
   <si>
     <t>Onitsha</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/onitsha-nigeria.jpg?1653007147</t>
+    <t>https://nomadlist.com/assets/img/places/onitsha-nigeria.jpg?1653007147</t>
   </si>
   <si>
     <t>Annecy</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/annecy-france.jpg?1642465546</t>
+    <t>https://nomadlist.com/assets/img/places/annecy-france.jpg?1642465546</t>
   </si>
   <si>
     <t>Cheltenham</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cheltenham-united-kingdom.jpg?1643157339</t>
+    <t>https://nomadlist.com/assets/img/places/cheltenham-united-kingdom.jpg?1643157339</t>
   </si>
   <si>
     <t>Pyongyang</t>
@@ -5273,133 +5276,133 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/pyongyang-north-korea.jpg?1649722347</t>
+    <t>https://nomadlist.com/assets/img/places/pyongyang-north-korea.jpg?1649722347</t>
   </si>
   <si>
     <t>Dijon</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dijon-france.jpg?1653006647</t>
+    <t>https://nomadlist.com/assets/img/places/dijon-france.jpg?1653006647</t>
   </si>
   <si>
     <t>Bergen</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bergen-norway.jpg?1657067564</t>
+    <t>https://nomadlist.com/assets/img/places/bergen-norway.jpg?1657067564</t>
   </si>
   <si>
     <t>Lincoln</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lincoln-ne-united-states.jpg?1653005822</t>
+    <t>https://nomadlist.com/assets/img/places/lincoln-ne-united-states.jpg?1653005822</t>
   </si>
   <si>
     <t>Brentwood</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/brentwood-ca-united-states.jpg?1652919237</t>
+    <t>https://nomadlist.com/assets/img/places/brentwood-ca-united-states.jpg?1652919237</t>
   </si>
   <si>
     <t>Scottsdale</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/scottsdale-az-united-states.jpg?1652919341</t>
+    <t>https://nomadlist.com/assets/img/places/scottsdale-az-united-states.jpg?1652919341</t>
   </si>
   <si>
     <t>Tabriz</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tabriz-iran.jpg?1642465101</t>
+    <t>https://nomadlist.com/assets/img/places/tabriz-iran.jpg?1642465101</t>
   </si>
   <si>
     <t>Dededo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dededo-guam.jpg?1653006574</t>
+    <t>https://nomadlist.com/assets/img/places/dededo-guam.jpg?1653006574</t>
   </si>
   <si>
     <t>Kamiyama</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kamiyama-japan.jpg?1653006711</t>
+    <t>https://nomadlist.com/assets/img/places/kamiyama-japan.jpg?1653006711</t>
   </si>
   <si>
     <t>Ruian</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ruian-china.jpg?1646439897</t>
+    <t>https://nomadlist.com/assets/img/places/ruian-china.jpg?1646439897</t>
   </si>
   <si>
     <t>Rimini</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rimini-italy.jpg?1653006682</t>
+    <t>https://nomadlist.com/assets/img/places/rimini-italy.jpg?1653006682</t>
   </si>
   <si>
     <t>Fort Myers</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/fort-myers-fl-united-states.jpg?1653006472</t>
+    <t>https://nomadlist.com/assets/img/places/fort-myers-fl-united-states.jpg?1653006472</t>
   </si>
   <si>
     <t>Kearney</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kearney-ne-united-states.jpg?1653005903</t>
+    <t>https://nomadlist.com/assets/img/places/kearney-ne-united-states.jpg?1653005903</t>
   </si>
   <si>
     <t>Murrieta</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/murrieta-ca-united-states.jpg?1653006683</t>
+    <t>https://nomadlist.com/assets/img/places/murrieta-ca-united-states.jpg?1653006683</t>
   </si>
   <si>
     <t>Lucknow</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lucknow-india.jpg?1652919277</t>
+    <t>https://nomadlist.com/assets/img/places/lucknow-india.jpg?1652919277</t>
   </si>
   <si>
     <t>Nago</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nago-okinawa-japan.jpg?1643069560</t>
+    <t>https://nomadlist.com/assets/img/places/nago-okinawa-japan.jpg?1643069560</t>
   </si>
   <si>
     <t>Jimbaran</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/jimbaran-bali-indonesia.jpg?1647389249</t>
+    <t>https://nomadlist.com/assets/img/places/jimbaran-bali-indonesia.jpg?1647389249</t>
   </si>
   <si>
     <t>Deventer</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/deventer-netherlands.jpg?1652919158</t>
+    <t>https://nomadlist.com/assets/img/places/deventer-netherlands.jpg?1652919158</t>
   </si>
   <si>
     <t>BelGood</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/belGood-united-kingdom.jpg?1657239187</t>
+    <t>https://nomadlist.com/assets/img/places/belGood-united-kingdom.jpg?1657239187</t>
   </si>
   <si>
     <t>Fairfax</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/fairfax-va-united-states.jpg?1653006866</t>
+    <t>https://nomadlist.com/assets/img/places/fairfax-va-united-states.jpg?1653006866</t>
   </si>
   <si>
     <t>Stamford</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/stamford-ct-united-states.jpg?1642724253</t>
+    <t>https://nomadlist.com/assets/img/places/stamford-ct-united-states.jpg?1642724253</t>
   </si>
   <si>
     <t>Harbin</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/harbin-china.jpg?1653006897</t>
+    <t>https://nomadlist.com/assets/img/places/harbin-china.jpg?1653006897</t>
   </si>
   <si>
     <t>Nuuk</t>
@@ -5408,91 +5411,91 @@
     <t>Greenland</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nuuk-greenland.jpg?1654474032</t>
+    <t>https://nomadlist.com/assets/img/places/nuuk-greenland.jpg?1654474032</t>
   </si>
   <si>
     <t>Wonsan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/wonsan-north-korea.jpg?1653006767</t>
+    <t>https://nomadlist.com/assets/img/places/wonsan-north-korea.jpg?1653006767</t>
   </si>
   <si>
     <t>Lake Como</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lake-como-italy.jpg?1643676159</t>
+    <t>https://nomadlist.com/assets/img/places/lake-como-italy.jpg?1643676159</t>
   </si>
   <si>
     <t>Tampere</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tampere-finland.jpg?1642724138</t>
+    <t>https://nomadlist.com/assets/img/places/tampere-finland.jpg?1642724138</t>
   </si>
   <si>
     <t>Juarez</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/juarez-mexico.jpg?1653006825</t>
+    <t>https://nomadlist.com/assets/img/places/juarez-mexico.jpg?1653006825</t>
   </si>
   <si>
     <t>Avignon</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/avignon-france.jpg?1653006661</t>
+    <t>https://nomadlist.com/assets/img/places/avignon-france.jpg?1653006661</t>
   </si>
   <si>
     <t>Spokane</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/spokane-wa-united-states.jpg?1652919225</t>
+    <t>https://nomadlist.com/assets/img/places/spokane-wa-united-states.jpg?1652919225</t>
   </si>
   <si>
     <t>Santa Marta</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/santa-marta-colombia.jpg?1642465097</t>
+    <t>https://nomadlist.com/assets/img/places/santa-marta-colombia.jpg?1642465097</t>
   </si>
   <si>
     <t>Sioux City</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sioux-city-ia-united-states.jpg?1653006143</t>
+    <t>https://nomadlist.com/assets/img/places/sioux-city-ia-united-states.jpg?1653006143</t>
   </si>
   <si>
     <t>Yuma</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/yuma-az-united-states.jpg?1653005718</t>
+    <t>https://nomadlist.com/assets/img/places/yuma-az-united-states.jpg?1653005718</t>
   </si>
   <si>
     <t>Aligarh</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/aligarh-india.jpg?1656634128</t>
+    <t>https://nomadlist.com/assets/img/places/aligarh-india.jpg?1656634128</t>
   </si>
   <si>
     <t>Whistler</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/whistler-canada.jpg?1645402135</t>
+    <t>https://nomadlist.com/assets/img/places/whistler-canada.jpg?1645402135</t>
   </si>
   <si>
     <t>Okayama</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/okayama-japan.jpg?1653006837</t>
+    <t>https://nomadlist.com/assets/img/places/okayama-japan.jpg?1653006837</t>
   </si>
   <si>
     <t>Milwaukee</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/milwaukee-wi-united-states.jpg?1642723878</t>
+    <t>https://nomadlist.com/assets/img/places/milwaukee-wi-united-states.jpg?1642723878</t>
   </si>
   <si>
     <t>Nashua</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nashua-nh-united-states.jpg?1653006563</t>
+    <t>https://nomadlist.com/assets/img/places/nashua-nh-united-states.jpg?1653006563</t>
   </si>
   <si>
     <t>Lilongwe</t>
@@ -5501,43 +5504,43 @@
     <t>Malawi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lilongwe-malawi.jpg?1642809935</t>
+    <t>https://nomadlist.com/assets/img/places/lilongwe-malawi.jpg?1642809935</t>
   </si>
   <si>
     <t>Kelowna</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kelowna-canada.jpg?1642637437</t>
+    <t>https://nomadlist.com/assets/img/places/kelowna-canada.jpg?1642637437</t>
   </si>
   <si>
     <t>Trondheim</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/trondheim-norway.jpg?1642637487</t>
+    <t>https://nomadlist.com/assets/img/places/trondheim-norway.jpg?1642637487</t>
   </si>
   <si>
     <t>Gold Coast</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/gold-coast-australia.jpg?1653869313</t>
+    <t>https://nomadlist.com/assets/img/places/gold-coast-australia.jpg?1653869313</t>
   </si>
   <si>
     <t>Bhopal</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bhopal-india.jpg?1642529419</t>
+    <t>https://nomadlist.com/assets/img/places/bhopal-india.jpg?1642529419</t>
   </si>
   <si>
     <t>Aleppo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/aleppo-syria.jpg?1643157163</t>
+    <t>https://nomadlist.com/assets/img/places/aleppo-syria.jpg?1643157163</t>
   </si>
   <si>
     <t>Canberra</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/canberra-australia.jpg?1643846858</t>
+    <t>https://nomadlist.com/assets/img/places/canberra-australia.jpg?1643846858</t>
   </si>
   <si>
     <t>Caracas</t>
@@ -5546,25 +5549,25 @@
     <t>Venezuela</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/caracas-venezuela.jpg?1652919405</t>
+    <t>https://nomadlist.com/assets/img/places/caracas-venezuela.jpg?1652919405</t>
   </si>
   <si>
     <t>Liuzhou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/liuzhou-china.jpg?1642465256</t>
+    <t>https://nomadlist.com/assets/img/places/liuzhou-china.jpg?1642465256</t>
   </si>
   <si>
     <t>Lanzhou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lanzhou-china.jpg?1652919175</t>
+    <t>https://nomadlist.com/assets/img/places/lanzhou-china.jpg?1652919175</t>
   </si>
   <si>
     <t>Lodi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lodi-ca-united-states.jpg?1652919292</t>
+    <t>https://nomadlist.com/assets/img/places/lodi-ca-united-states.jpg?1652919292</t>
   </si>
   <si>
     <t>Niamey</t>
@@ -5573,127 +5576,127 @@
     <t>Niger</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/niamey-niger.jpg?1653007207</t>
+    <t>https://nomadlist.com/assets/img/places/niamey-niger.jpg?1653007207</t>
   </si>
   <si>
     <t>Erlangen</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/erlangen-germany.jpg?1642529437</t>
+    <t>https://nomadlist.com/assets/img/places/erlangen-germany.jpg?1642529437</t>
   </si>
   <si>
     <t>Giza</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/giza-egypt.jpg?1657152992</t>
+    <t>https://nomadlist.com/assets/img/places/giza-egypt.jpg?1657152992</t>
   </si>
   <si>
     <t>Sayulita</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sayulita-mexico.jpg?1649981232</t>
+    <t>https://nomadlist.com/assets/img/places/sayulita-mexico.jpg?1649981232</t>
   </si>
   <si>
     <t>Marseille</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/marseille-france.jpg?1646439517</t>
+    <t>https://nomadlist.com/assets/img/places/marseille-france.jpg?1646439517</t>
   </si>
   <si>
     <t>Sapporo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sapporo-japan.jpg?1642465465</t>
+    <t>https://nomadlist.com/assets/img/places/sapporo-japan.jpg?1642465465</t>
   </si>
   <si>
     <t>Maracay</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/maracay-venezuela.jpg?1653007201</t>
+    <t>https://nomadlist.com/assets/img/places/maracay-venezuela.jpg?1653007201</t>
   </si>
   <si>
     <t>Xiamen</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/xiamen-china.jpg?1652573353</t>
+    <t>https://nomadlist.com/assets/img/places/xiamen-china.jpg?1652573353</t>
   </si>
   <si>
     <t>Hangzhou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hangzhou-china.jpg?1642529684</t>
+    <t>https://nomadlist.com/assets/img/places/hangzhou-china.jpg?1642529684</t>
   </si>
   <si>
     <t>Omaha</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/omaha-ne-united-states.jpg?1642464523</t>
+    <t>https://nomadlist.com/assets/img/places/omaha-ne-united-states.jpg?1642464523</t>
   </si>
   <si>
     <t>Bruges</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bruges-belgium.jpg?1657067464</t>
+    <t>https://nomadlist.com/assets/img/places/bruges-belgium.jpg?1657067464</t>
   </si>
   <si>
     <t>Vientiane</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/vientiane-laos.jpg?1655856928</t>
+    <t>https://nomadlist.com/assets/img/places/vientiane-laos.jpg?1655856928</t>
   </si>
   <si>
     <t>Kisangani</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kisangani-dr-congo.jpg?1652919524</t>
+    <t>https://nomadlist.com/assets/img/places/kisangani-dr-congo.jpg?1652919524</t>
   </si>
   <si>
     <t>Texel</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/texel-netherlands.jpg?1642465213</t>
+    <t>https://nomadlist.com/assets/img/places/texel-netherlands.jpg?1642465213</t>
   </si>
   <si>
     <t>Bozeman</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bozeman-mt-united-states.jpg?1657067651</t>
+    <t>https://nomadlist.com/assets/img/places/bozeman-mt-united-states.jpg?1657067651</t>
   </si>
   <si>
     <t>Noida</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/noida-india.jpg?1653007174</t>
+    <t>https://nomadlist.com/assets/img/places/noida-india.jpg?1653007174</t>
   </si>
   <si>
     <t>Dubuque</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dubuque-ia-united-states.jpg?1653006094</t>
+    <t>https://nomadlist.com/assets/img/places/dubuque-ia-united-states.jpg?1653006094</t>
   </si>
   <si>
     <t>Reno</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/reno-nv-united-states.jpg?1643328501</t>
+    <t>https://nomadlist.com/assets/img/places/reno-nv-united-states.jpg?1643328501</t>
   </si>
   <si>
     <t>Mexicali</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mexicali-mexico.jpg?1653956307</t>
+    <t>https://nomadlist.com/assets/img/places/mexicali-mexico.jpg?1653956307</t>
   </si>
   <si>
     <t>Cardiff</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cardiff-united-kingdom.jpg?1642637890</t>
+    <t>https://nomadlist.com/assets/img/places/cardiff-united-kingdom.jpg?1642637890</t>
   </si>
   <si>
     <t>Boulder</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/boulder-co-united-states.jpg?1653006743</t>
+    <t>https://nomadlist.com/assets/img/places/boulder-co-united-states.jpg?1653006743</t>
   </si>
   <si>
     <t>Yaounde</t>
@@ -5702,13 +5705,13 @@
     <t>Cameroon</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/yaounde-cameroon.jpg?1653007217</t>
+    <t>https://nomadlist.com/assets/img/places/yaounde-cameroon.jpg?1653007217</t>
   </si>
   <si>
     <t>Nantong</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nantong-china.jpg?1643157171</t>
+    <t>https://nomadlist.com/assets/img/places/nantong-china.jpg?1643157171</t>
   </si>
   <si>
     <t>Dar Es Salaam</t>
@@ -5717,25 +5720,25 @@
     <t>Tanzania</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dar-es-salaam-tanzania.jpg?1643415723</t>
+    <t>https://nomadlist.com/assets/img/places/dar-es-salaam-tanzania.jpg?1643415723</t>
   </si>
   <si>
     <t>Malang</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/malang-indonesia.jpg?1642465056</t>
+    <t>https://nomadlist.com/assets/img/places/malang-indonesia.jpg?1642465056</t>
   </si>
   <si>
     <t>Wenzhou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/wenzhou-china.jpg?1653007129</t>
+    <t>https://nomadlist.com/assets/img/places/wenzhou-china.jpg?1653007129</t>
   </si>
   <si>
     <t>Denpasar</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/denpasar-bali-indonesia.jpg?1656029923</t>
+    <t>https://nomadlist.com/assets/img/places/denpasar-bali-indonesia.jpg?1656029923</t>
   </si>
   <si>
     <t>Nouakchott</t>
@@ -5744,13 +5747,13 @@
     <t>Mauritania</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nouakchott-mauritania.jpg?1653006705</t>
+    <t>https://nomadlist.com/assets/img/places/nouakchott-mauritania.jpg?1653006705</t>
   </si>
   <si>
     <t>Rethymno</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rethymno-greece.jpg?1653006658</t>
+    <t>https://nomadlist.com/assets/img/places/rethymno-greece.jpg?1653006658</t>
   </si>
   <si>
     <t>Port Au Prince</t>
@@ -5759,145 +5762,145 @@
     <t>Haiti</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/port-au-prince-haiti.jpg?1653006732</t>
+    <t>https://nomadlist.com/assets/img/places/port-au-prince-haiti.jpg?1653006732</t>
   </si>
   <si>
     <t>Weston</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/weston-fl-united-states.jpg?1646611638</t>
+    <t>https://nomadlist.com/assets/img/places/weston-fl-united-states.jpg?1646611638</t>
   </si>
   <si>
     <t>Yangshuo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/yangshuo-china.jpg?1653007235</t>
+    <t>https://nomadlist.com/assets/img/places/yangshuo-china.jpg?1653007235</t>
   </si>
   <si>
     <t>Centennial</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/centennial-co-united-states.jpg?1653006774</t>
+    <t>https://nomadlist.com/assets/img/places/centennial-co-united-states.jpg?1653006774</t>
   </si>
   <si>
     <t>Abu Dhabi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/abu-dhabi-united-arab-emirates.jpg?1642810117</t>
+    <t>https://nomadlist.com/assets/img/places/abu-dhabi-united-arab-emirates.jpg?1642810117</t>
   </si>
   <si>
     <t>Nagpur</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nagpur-india.jpg?1642464644</t>
+    <t>https://nomadlist.com/assets/img/places/nagpur-india.jpg?1642464644</t>
   </si>
   <si>
     <t>Jaipur</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/jaipur-india.jpg?1653007060</t>
+    <t>https://nomadlist.com/assets/img/places/jaipur-india.jpg?1653007060</t>
   </si>
   <si>
     <t>Eugene</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/eugene-or-united-states.jpg?1653006258</t>
+    <t>https://nomadlist.com/assets/img/places/eugene-or-united-states.jpg?1653006258</t>
   </si>
   <si>
     <t>Kauai</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kauai-hawaii-united-states.jpg?1653006770</t>
+    <t>https://nomadlist.com/assets/img/places/kauai-hawaii-united-states.jpg?1653006770</t>
   </si>
   <si>
     <t>Venice</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/venice-italy.jpg?1644451760</t>
+    <t>https://nomadlist.com/assets/img/places/venice-italy.jpg?1644451760</t>
   </si>
   <si>
     <t>Macon</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/macon-ga-united-states.jpg?1653006270</t>
+    <t>https://nomadlist.com/assets/img/places/macon-ga-united-states.jpg?1653006270</t>
   </si>
   <si>
     <t>Eindhoven</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/eindhoven-netherlands.jpg?1653006669</t>
+    <t>https://nomadlist.com/assets/img/places/eindhoven-netherlands.jpg?1653006669</t>
   </si>
   <si>
     <t>Hiroshima</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hiroshima-japan.jpg?1642465110</t>
+    <t>https://nomadlist.com/assets/img/places/hiroshima-japan.jpg?1642465110</t>
   </si>
   <si>
     <t>Tromso</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tromso-norway.jpg?1642724682</t>
+    <t>https://nomadlist.com/assets/img/places/tromso-norway.jpg?1642724682</t>
   </si>
   <si>
     <t>Buffalo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/buffalo-ny-united-states.jpg?1653006176</t>
+    <t>https://nomadlist.com/assets/img/places/buffalo-ny-united-states.jpg?1653006176</t>
   </si>
   <si>
     <t>Park City</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/park-city-ut-united-states.jpg?1653006788</t>
+    <t>https://nomadlist.com/assets/img/places/park-city-ut-united-states.jpg?1653006788</t>
   </si>
   <si>
     <t>Nanning</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nanning-china.jpg?1642724502</t>
+    <t>https://nomadlist.com/assets/img/places/nanning-china.jpg?1642724502</t>
   </si>
   <si>
     <t>Maracaibo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/maracaibo-venezuela.jpg?1642810093</t>
+    <t>https://nomadlist.com/assets/img/places/maracaibo-venezuela.jpg?1642810093</t>
   </si>
   <si>
     <t>Worcester</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/worcester-ma-united-states.jpg?1653006721</t>
+    <t>https://nomadlist.com/assets/img/places/worcester-ma-united-states.jpg?1653006721</t>
   </si>
   <si>
     <t>Huzhou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/huzhou-china.jpg?1642465137</t>
+    <t>https://nomadlist.com/assets/img/places/huzhou-china.jpg?1642465137</t>
   </si>
   <si>
     <t>Rouen</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rouen-france.jpg?1642465496</t>
+    <t>https://nomadlist.com/assets/img/places/rouen-france.jpg?1642465496</t>
   </si>
   <si>
     <t>Albuquerque</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/albuquerque-nm-united-states.jpg?1657067527</t>
+    <t>https://nomadlist.com/assets/img/places/albuquerque-nm-united-states.jpg?1657067527</t>
   </si>
   <si>
     <t>Bodrum</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bodrum-turkey.jpg?1643069160</t>
+    <t>https://nomadlist.com/assets/img/places/bodrum-turkey.jpg?1643069160</t>
   </si>
   <si>
     <t>Tanchon</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tanchon-north-korea.jpg?1653006998</t>
+    <t>https://nomadlist.com/assets/img/places/tanchon-north-korea.jpg?1653006998</t>
   </si>
   <si>
     <t>Maputo</t>
@@ -5906,61 +5909,61 @@
     <t>Mozambique</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/maputo-mozambique.jpg?1643242228</t>
+    <t>https://nomadlist.com/assets/img/places/maputo-mozambique.jpg?1643242228</t>
   </si>
   <si>
     <t>Santa Rosa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/santa-rosa-ca-united-states.jpg?1653006851</t>
+    <t>https://nomadlist.com/assets/img/places/santa-rosa-ca-united-states.jpg?1653006851</t>
   </si>
   <si>
     <t>Cannes</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cannes-france.jpg?1642465420</t>
+    <t>https://nomadlist.com/assets/img/places/cannes-france.jpg?1642465420</t>
   </si>
   <si>
     <t>Milan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/milan-italy.jpg?1654215847</t>
+    <t>https://nomadlist.com/assets/img/places/milan-italy.jpg?1654215847</t>
   </si>
   <si>
     <t>Kaduna</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kaduna-nigeria.jpg?1652919526</t>
+    <t>https://nomadlist.com/assets/img/places/kaduna-nigeria.jpg?1652919526</t>
   </si>
   <si>
     <t>Sarasota</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sarasota-fl-united-states.jpg?1657067533</t>
+    <t>https://nomadlist.com/assets/img/places/sarasota-fl-united-states.jpg?1657067533</t>
   </si>
   <si>
     <t>Qom</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/qom-iran.jpg?1642637771</t>
+    <t>https://nomadlist.com/assets/img/places/qom-iran.jpg?1642637771</t>
   </si>
   <si>
     <t>Ahmedabad</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ahmedabad-india.jpg?1642637857</t>
+    <t>https://nomadlist.com/assets/img/places/ahmedabad-india.jpg?1642637857</t>
   </si>
   <si>
     <t>Beaverton</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/beaverton-or-united-states.jpg?1653006909</t>
+    <t>https://nomadlist.com/assets/img/places/beaverton-or-united-states.jpg?1653006909</t>
   </si>
   <si>
     <t>Santorini</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/santorini-greece.jpg?1653006829</t>
+    <t>https://nomadlist.com/assets/img/places/santorini-greece.jpg?1653006829</t>
   </si>
   <si>
     <t>Bridgetown</t>
@@ -5969,7 +5972,7 @@
     <t>Barbados</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bridgetown-barbados.jpg?1653007269</t>
+    <t>https://nomadlist.com/assets/img/places/bridgetown-barbados.jpg?1653007269</t>
   </si>
   <si>
     <t>Avarua</t>
@@ -5978,79 +5981,79 @@
     <t>Cook Islands</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/avarua-cook-islands.jpg?1653178095</t>
+    <t>https://nomadlist.com/assets/img/places/avarua-cook-islands.jpg?1653178095</t>
   </si>
   <si>
     <t>Xi An</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/xi-an-china.jpg?1642465546</t>
+    <t>https://nomadlist.com/assets/img/places/xi-an-china.jpg?1642465546</t>
   </si>
   <si>
     <t>Punta Cana</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/punta-cana-dominican-republic.jpg?1642529576</t>
+    <t>https://nomadlist.com/assets/img/places/punta-cana-dominican-republic.jpg?1642529576</t>
   </si>
   <si>
     <t>Hama</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hama-syria.jpg?1653006972</t>
+    <t>https://nomadlist.com/assets/img/places/hama-syria.jpg?1653006972</t>
   </si>
   <si>
     <t>Shrewsbury</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/shrewsbury-united-kingdom.jpg?1642465542</t>
+    <t>https://nomadlist.com/assets/img/places/shrewsbury-united-kingdom.jpg?1642465542</t>
   </si>
   <si>
     <t>Galveston</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/galveston-tx-united-states.jpg?1657067785</t>
+    <t>https://nomadlist.com/assets/img/places/galveston-tx-united-states.jpg?1657067785</t>
   </si>
   <si>
     <t>Kanpur</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kanpur-india.jpg?1653006946</t>
+    <t>https://nomadlist.com/assets/img/places/kanpur-india.jpg?1653006946</t>
   </si>
   <si>
     <t>Temecula</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/temecula-ca-united-states.jpg?1653006982</t>
+    <t>https://nomadlist.com/assets/img/places/temecula-ca-united-states.jpg?1653006982</t>
   </si>
   <si>
     <t>Datong</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/datong-china.jpg?1643157187</t>
+    <t>https://nomadlist.com/assets/img/places/datong-china.jpg?1643157187</t>
   </si>
   <si>
     <t>Scheveningen</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/scheveningen-netherlands.jpg?1642465304</t>
+    <t>https://nomadlist.com/assets/img/places/scheveningen-netherlands.jpg?1642465304</t>
   </si>
   <si>
     <t>Wuhu</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/wuhu-china.jpg?1653007295</t>
+    <t>https://nomadlist.com/assets/img/places/wuhu-china.jpg?1653007295</t>
   </si>
   <si>
     <t>Lexington</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lexington-ky-united-states.jpg?1653006760</t>
+    <t>https://nomadlist.com/assets/img/places/lexington-ky-united-states.jpg?1653006760</t>
   </si>
   <si>
     <t>Yogyakarta</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/yogyakarta-indonesia.jpg?1642809832</t>
+    <t>https://nomadlist.com/assets/img/places/yogyakarta-indonesia.jpg?1642809832</t>
   </si>
   <si>
     <t>Ramallah</t>
@@ -6059,49 +6062,49 @@
     <t>Palestine</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ramallah-palestine.jpg?1653006632</t>
+    <t>https://nomadlist.com/assets/img/places/ramallah-palestine.jpg?1653006632</t>
   </si>
   <si>
     <t>Nanchang</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nanchang-china.jpg?1653006481</t>
+    <t>https://nomadlist.com/assets/img/places/nanchang-china.jpg?1653006481</t>
   </si>
   <si>
     <t>Surakarta</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/surakarta-indonesia.jpg?1653006119</t>
+    <t>https://nomadlist.com/assets/img/places/surakarta-indonesia.jpg?1653006119</t>
   </si>
   <si>
     <t>Punta Del Este</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/punta-del-este-uruguay.jpg?1642465110</t>
+    <t>https://nomadlist.com/assets/img/places/punta-del-este-uruguay.jpg?1642465110</t>
   </si>
   <si>
     <t>Lawrence</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lawrence-ks-united-states.jpg?1653006185</t>
+    <t>https://nomadlist.com/assets/img/places/lawrence-ks-united-states.jpg?1653006185</t>
   </si>
   <si>
     <t>Zhoukou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/zhoukou-china.jpg?1655168933</t>
+    <t>https://nomadlist.com/assets/img/places/zhoukou-china.jpg?1655168933</t>
   </si>
   <si>
     <t>Charleston</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/charleston-sc-united-states.jpg?1657067618</t>
+    <t>https://nomadlist.com/assets/img/places/charleston-sc-united-states.jpg?1657067618</t>
   </si>
   <si>
     <t>Gurgaon</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/gurgaon-india.jpg?1653006942</t>
+    <t>https://nomadlist.com/assets/img/places/gurgaon-india.jpg?1653006942</t>
   </si>
   <si>
     <t>Funafuti</t>
@@ -6110,31 +6113,31 @@
     <t>Tuvalu</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/funafuti-tuvalu.jpg?1644366692</t>
+    <t>https://nomadlist.com/assets/img/places/funafuti-tuvalu.jpg?1644366692</t>
   </si>
   <si>
     <t>Sheffield</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sheffield-united-kingdom.jpg?1642724514</t>
+    <t>https://nomadlist.com/assets/img/places/sheffield-united-kingdom.jpg?1642724514</t>
   </si>
   <si>
     <t>Bend</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bend-or-united-states.jpg?1657067425</t>
+    <t>https://nomadlist.com/assets/img/places/bend-or-united-states.jpg?1657067425</t>
   </si>
   <si>
     <t>Anapolis</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/anapolis-brazil.jpg?1653006887</t>
+    <t>https://nomadlist.com/assets/img/places/anapolis-brazil.jpg?1653006887</t>
   </si>
   <si>
     <t>Jabalpur</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/jabalpur-india.jpg?1642810079</t>
+    <t>https://nomadlist.com/assets/img/places/jabalpur-india.jpg?1642810079</t>
   </si>
   <si>
     <t>Asmara</t>
@@ -6143,7 +6146,7 @@
     <t>Eritrea</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/asmara-eritrea.jpg?1642465316</t>
+    <t>https://nomadlist.com/assets/img/places/asmara-eritrea.jpg?1642465316</t>
   </si>
   <si>
     <t>Honiara</t>
@@ -6152,37 +6155,37 @@
     <t>Solomon Islands</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/honiara-solomon-islands.jpg?1642529569</t>
+    <t>https://nomadlist.com/assets/img/places/honiara-solomon-islands.jpg?1642529569</t>
   </si>
   <si>
     <t>Carlsbad</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/carlsbad-ca-united-states.jpg?1652919461</t>
+    <t>https://nomadlist.com/assets/img/places/carlsbad-ca-united-states.jpg?1652919461</t>
   </si>
   <si>
     <t>Kaechon</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kaechon-north-korea.jpg?1652919377</t>
+    <t>https://nomadlist.com/assets/img/places/kaechon-north-korea.jpg?1652919377</t>
   </si>
   <si>
     <t>Palo Alto</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/palo-alto-ca-united-states.jpg?1653007007</t>
+    <t>https://nomadlist.com/assets/img/places/palo-alto-ca-united-states.jpg?1653007007</t>
   </si>
   <si>
     <t>Port Said</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/port-said-egypt.jpg?1653006359</t>
+    <t>https://nomadlist.com/assets/img/places/port-said-egypt.jpg?1653006359</t>
   </si>
   <si>
     <t>Wuhan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/wuhan-china.jpg?1642465586</t>
+    <t>https://nomadlist.com/assets/img/places/wuhan-china.jpg?1642465586</t>
   </si>
   <si>
     <t>Bamako</t>
@@ -6191,127 +6194,127 @@
     <t>Mali</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bamako-mali.jpg?1644538399</t>
+    <t>https://nomadlist.com/assets/img/places/bamako-mali.jpg?1644538399</t>
   </si>
   <si>
     <t>Kobe</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kobe-japan.jpg?1653006544</t>
+    <t>https://nomadlist.com/assets/img/places/kobe-japan.jpg?1653006544</t>
   </si>
   <si>
     <t>San Clemente</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/san-clemente-ca-united-states.jpg?1652919333</t>
+    <t>https://nomadlist.com/assets/img/places/san-clemente-ca-united-states.jpg?1652919333</t>
   </si>
   <si>
     <t>Siena</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/siena-italy.jpg?1657067696</t>
+    <t>https://nomadlist.com/assets/img/places/siena-italy.jpg?1657067696</t>
   </si>
   <si>
     <t>Byron Bay</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/byron-bay-australia.jpg?1642465320</t>
+    <t>https://nomadlist.com/assets/img/places/byron-bay-australia.jpg?1642465320</t>
   </si>
   <si>
     <t>Linyi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/linyi-china.jpg?1652919473</t>
+    <t>https://nomadlist.com/assets/img/places/linyi-china.jpg?1652919473</t>
   </si>
   <si>
     <t>Ludhiana</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ludhiana-india.jpg?1653007067</t>
+    <t>https://nomadlist.com/assets/img/places/ludhiana-india.jpg?1653007067</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nice-france.jpg?1653006810</t>
+    <t>https://nomadlist.com/assets/img/places/nice-france.jpg?1653006810</t>
   </si>
   <si>
     <t>Newport Beach</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/newport-beach-ca-united-states.jpg?1653007003</t>
+    <t>https://nomadlist.com/assets/img/places/newport-beach-ca-united-states.jpg?1653007003</t>
   </si>
   <si>
     <t>Manhattan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/manhattan-ks-united-states.jpg?1652919221</t>
+    <t>https://nomadlist.com/assets/img/places/manhattan-ks-united-states.jpg?1652919221</t>
   </si>
   <si>
     <t>Anchorage</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/anchorage-ak-united-states.jpg?1657067499</t>
+    <t>https://nomadlist.com/assets/img/places/anchorage-ak-united-states.jpg?1657067499</t>
   </si>
   <si>
     <t>West Palm Beach</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/west-palm-beach-fl-united-states.jpg?1657067609</t>
+    <t>https://nomadlist.com/assets/img/places/west-palm-beach-fl-united-states.jpg?1657067609</t>
   </si>
   <si>
     <t>Kota</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kota-india.jpg?1644192704</t>
+    <t>https://nomadlist.com/assets/img/places/kota-india.jpg?1644192704</t>
   </si>
   <si>
     <t>Cagliari</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cagliari-italy.jpg?1653006970</t>
+    <t>https://nomadlist.com/assets/img/places/cagliari-italy.jpg?1653006970</t>
   </si>
   <si>
     <t>Oxnard</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/oxnard-ca-united-states.jpg?1653007056</t>
+    <t>https://nomadlist.com/assets/img/places/oxnard-ca-united-states.jpg?1653007056</t>
   </si>
   <si>
     <t>Tianjin</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tianjin-china.jpg?1652919314</t>
+    <t>https://nomadlist.com/assets/img/places/tianjin-china.jpg?1652919314</t>
   </si>
   <si>
     <t>Mountain View</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mountain-view-ca-united-states.jpg?1653007049</t>
+    <t>https://nomadlist.com/assets/img/places/mountain-view-ca-united-states.jpg?1653007049</t>
   </si>
   <si>
     <t>Anshan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/anshan-china.jpg?1642465404</t>
+    <t>https://nomadlist.com/assets/img/places/anshan-china.jpg?1642465404</t>
   </si>
   <si>
     <t>Dorobo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dorobo-japan.jpg?1652919366</t>
+    <t>https://nomadlist.com/assets/img/places/dorobo-japan.jpg?1652919366</t>
   </si>
   <si>
     <t>Sinuiju</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sinuiju-north-korea.jpg?1653006957</t>
+    <t>https://nomadlist.com/assets/img/places/sinuiju-north-korea.jpg?1653006957</t>
   </si>
   <si>
     <t>Princeton</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/princeton-nj-united-states.jpg?1652833950</t>
+    <t>https://nomadlist.com/assets/img/places/princeton-nj-united-states.jpg?1652833950</t>
   </si>
   <si>
     <t>Sanaa</t>
@@ -6320,157 +6323,157 @@
     <t>Yemen</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sanaa-yemen.jpg?1655770348</t>
+    <t>https://nomadlist.com/assets/img/places/sanaa-yemen.jpg?1655770348</t>
   </si>
   <si>
     <t>Amalfi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/amalfi-italy.jpg?1642465605</t>
+    <t>https://nomadlist.com/assets/img/places/amalfi-italy.jpg?1642465605</t>
   </si>
   <si>
     <t>Grand Island</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/grand-island-ne-united-states.jpg?1653006314</t>
+    <t>https://nomadlist.com/assets/img/places/grand-island-ne-united-states.jpg?1653006314</t>
   </si>
   <si>
     <t>Key West</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/key-west-fl-united-states.jpg?1657067654</t>
+    <t>https://nomadlist.com/assets/img/places/key-west-fl-united-states.jpg?1657067654</t>
   </si>
   <si>
     <t>Waukegan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/waukegan-il-united-states.jpg?1653007236</t>
+    <t>https://nomadlist.com/assets/img/places/waukegan-il-united-states.jpg?1653007236</t>
   </si>
   <si>
     <t>Weihai</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/weihai-china.jpg?1643157467</t>
+    <t>https://nomadlist.com/assets/img/places/weihai-china.jpg?1643157467</t>
   </si>
   <si>
     <t>Wilmington</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/wilmington-nc-united-states.jpg?1657067485</t>
+    <t>https://nomadlist.com/assets/img/places/wilmington-nc-united-states.jpg?1657067485</t>
   </si>
   <si>
     <t>Pensacola</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/pensacola-fl-united-states.jpg?1657067112</t>
+    <t>https://nomadlist.com/assets/img/places/pensacola-fl-united-states.jpg?1657067112</t>
   </si>
   <si>
     <t>Yinchuan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/yinchuan-china.jpg?1643157413</t>
+    <t>https://nomadlist.com/assets/img/places/yinchuan-china.jpg?1643157413</t>
   </si>
   <si>
     <t>Frederick</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/frederick-md-united-states.jpg?1653006956</t>
+    <t>https://nomadlist.com/assets/img/places/frederick-md-united-states.jpg?1653006956</t>
   </si>
   <si>
     <t>Dongying</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dongying-china.jpg?1653006603</t>
+    <t>https://nomadlist.com/assets/img/places/dongying-china.jpg?1653006603</t>
   </si>
   <si>
     <t>Ube</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ube-japan.jpg?1642529631</t>
+    <t>https://nomadlist.com/assets/img/places/ube-japan.jpg?1642529631</t>
   </si>
   <si>
     <t>Ibiza</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ibiza-spain.jpg?1646699912</t>
+    <t>https://nomadlist.com/assets/img/places/ibiza-spain.jpg?1646699912</t>
   </si>
   <si>
     <t>Memphis</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/memphis-tn-united-states.jpg?1657067530</t>
+    <t>https://nomadlist.com/assets/img/places/memphis-tn-united-states.jpg?1657067530</t>
   </si>
   <si>
     <t>Xuzhou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/xuzhou-china.jpg?1642724602</t>
+    <t>https://nomadlist.com/assets/img/places/xuzhou-china.jpg?1642724602</t>
   </si>
   <si>
     <t>Dhaka</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dhaka-bangladesh.jpg?1643501760</t>
+    <t>https://nomadlist.com/assets/img/places/dhaka-bangladesh.jpg?1643501760</t>
   </si>
   <si>
     <t>Verona</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/verona-italy.jpg?1653007077</t>
+    <t>https://nomadlist.com/assets/img/places/verona-italy.jpg?1653007077</t>
   </si>
   <si>
     <t>Helena</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/helena-mt-united-states.jpg?1652919233</t>
+    <t>https://nomadlist.com/assets/img/places/helena-mt-united-states.jpg?1652919233</t>
   </si>
   <si>
     <t>Portland Me</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/portland-me-united-states.jpg?1649809907</t>
+    <t>https://nomadlist.com/assets/img/places/portland-me-united-states.jpg?1649809907</t>
   </si>
   <si>
     <t>Nanyang</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nanyang-china.jpg?1643069751</t>
+    <t>https://nomadlist.com/assets/img/places/nanyang-china.jpg?1643069751</t>
   </si>
   <si>
     <t>Zhengzhou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/zhengzhou-china.jpg?1653007012</t>
+    <t>https://nomadlist.com/assets/img/places/zhengzhou-china.jpg?1653007012</t>
   </si>
   <si>
     <t>Bilbao</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bilbao-spain.jpg?1653006374</t>
+    <t>https://nomadlist.com/assets/img/places/bilbao-spain.jpg?1653006374</t>
   </si>
   <si>
     <t>Menlo Park</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/menlo-park-ca-united-states.jpg?1642465526</t>
+    <t>https://nomadlist.com/assets/img/places/menlo-park-ca-united-states.jpg?1642465526</t>
   </si>
   <si>
     <t>Ithaca</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ithaca-ny-united-states.jpg?1653007108</t>
+    <t>https://nomadlist.com/assets/img/places/ithaca-ny-united-states.jpg?1653007108</t>
   </si>
   <si>
     <t>Monterey</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/monterey-ca-united-states.jpg?1652919482</t>
+    <t>https://nomadlist.com/assets/img/places/monterey-ca-united-states.jpg?1652919482</t>
   </si>
   <si>
     <t>Savannah</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/savannah-ga-united-states.jpg?1657067508</t>
+    <t>https://nomadlist.com/assets/img/places/savannah-ga-united-states.jpg?1657067508</t>
   </si>
   <si>
     <t>Karachi</t>
@@ -6479,13 +6482,13 @@
     <t>Pakistan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/karachi-pakistan.jpg?1642465552</t>
+    <t>https://nomadlist.com/assets/img/places/karachi-pakistan.jpg?1642465552</t>
   </si>
   <si>
     <t>Aurangabad</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/aurangabad-india.jpg?1653006854</t>
+    <t>https://nomadlist.com/assets/img/places/aurangabad-india.jpg?1653006854</t>
   </si>
   <si>
     <t>Mosul</t>
@@ -6494,7 +6497,7 @@
     <t>Iraq</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mosul-iraq.jpg?1653007090</t>
+    <t>https://nomadlist.com/assets/img/places/mosul-iraq.jpg?1653007090</t>
   </si>
   <si>
     <t>Basse Terre</t>
@@ -6503,7 +6506,7 @@
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/basse-terre-guadeloupe.jpg?1652919544</t>
+    <t>https://nomadlist.com/assets/img/places/basse-terre-guadeloupe.jpg?1652919544</t>
   </si>
   <si>
     <t>San Juan Del Sur</t>
@@ -6512,61 +6515,61 @@
     <t>Nicaragua</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/san-juan-del-sur-nicaragua.jpg?1653006282</t>
+    <t>https://nomadlist.com/assets/img/places/san-juan-del-sur-nicaragua.jpg?1653006282</t>
   </si>
   <si>
     <t>Oceanside</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/oceanside-ca-united-states.jpg?1642465232</t>
+    <t>https://nomadlist.com/assets/img/places/oceanside-ca-united-states.jpg?1642465232</t>
   </si>
   <si>
     <t>Coeur Dalene</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/coeur-dalene-id-united-states.jpg?1653007025</t>
+    <t>https://nomadlist.com/assets/img/places/coeur-dalene-id-united-states.jpg?1653007025</t>
   </si>
   <si>
     <t>Accra</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/accra-ghana.jpg?1642465458</t>
+    <t>https://nomadlist.com/assets/img/places/accra-ghana.jpg?1642465458</t>
   </si>
   <si>
     <t>Vista</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/vista-ca-united-states.jpg?1652919487</t>
+    <t>https://nomadlist.com/assets/img/places/vista-ca-united-states.jpg?1652919487</t>
   </si>
   <si>
     <t>Chandigarh</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/chandigarh-india.jpg?1643676015</t>
+    <t>https://nomadlist.com/assets/img/places/chandigarh-india.jpg?1643676015</t>
   </si>
   <si>
     <t>Corvallis</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/corvallis-or-united-states.jpg?1652834090</t>
+    <t>https://nomadlist.com/assets/img/places/corvallis-or-united-states.jpg?1652834090</t>
   </si>
   <si>
     <t>Alesund</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/alesund-norway.jpg?1643069587</t>
+    <t>https://nomadlist.com/assets/img/places/alesund-norway.jpg?1643069587</t>
   </si>
   <si>
     <t>San Mateo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/san-mateo-ca-united-states.jpg?1652919529</t>
+    <t>https://nomadlist.com/assets/img/places/san-mateo-ca-united-states.jpg?1652919529</t>
   </si>
   <si>
     <t>Tengzhou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tengzhou-china.jpg?1653006913</t>
+    <t>https://nomadlist.com/assets/img/places/tengzhou-china.jpg?1653006913</t>
   </si>
   <si>
     <t>Dammam</t>
@@ -6575,133 +6578,133 @@
     <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dammam-saudi-arabia.jpg?1653007095</t>
+    <t>https://nomadlist.com/assets/img/places/dammam-saudi-arabia.jpg?1653007095</t>
   </si>
   <si>
     <t>Monaco</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/monaco-monaco.jpg?1642465425</t>
+    <t>https://nomadlist.com/assets/img/places/monaco-monaco.jpg?1642465425</t>
   </si>
   <si>
     <t>Salento</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/salento-colombia.jpg?1653006313</t>
+    <t>https://nomadlist.com/assets/img/places/salento-colombia.jpg?1653006313</t>
   </si>
   <si>
     <t>Vineland</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/vineland-nj-united-states.jpg?1653006987</t>
+    <t>https://nomadlist.com/assets/img/places/vineland-nj-united-states.jpg?1653006987</t>
   </si>
   <si>
     <t>Kaesong</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kaesong-north-korea.jpg?1653007225</t>
+    <t>https://nomadlist.com/assets/img/places/kaesong-north-korea.jpg?1653007225</t>
   </si>
   <si>
     <t>Basel</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/basel-switzerland.jpg?1642465281</t>
+    <t>https://nomadlist.com/assets/img/places/basel-switzerland.jpg?1642465281</t>
   </si>
   <si>
     <t>Kuta</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kuta-bali-indonesia.jpg?1642809896</t>
+    <t>https://nomadlist.com/assets/img/places/kuta-bali-indonesia.jpg?1642809896</t>
   </si>
   <si>
     <t>Darwin</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/darwin-australia.jpg?1653438721</t>
+    <t>https://nomadlist.com/assets/img/places/darwin-australia.jpg?1653438721</t>
   </si>
   <si>
     <t>Medina</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/medina-saudi-arabia.jpg?1653007009</t>
+    <t>https://nomadlist.com/assets/img/places/medina-saudi-arabia.jpg?1653007009</t>
   </si>
   <si>
     <t>Biarritz</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/biarritz-france.jpg?1642465541</t>
+    <t>https://nomadlist.com/assets/img/places/biarritz-france.jpg?1642465541</t>
   </si>
   <si>
     <t>Haarlem</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/haarlem-netherlands.jpg?1653007059</t>
+    <t>https://nomadlist.com/assets/img/places/haarlem-netherlands.jpg?1653007059</t>
   </si>
   <si>
     <t>Luoyang</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/luoyang-china.jpg?1642638048</t>
+    <t>https://nomadlist.com/assets/img/places/luoyang-china.jpg?1642638048</t>
   </si>
   <si>
     <t>Banff</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/banff-canada.jpg?1642465161</t>
+    <t>https://nomadlist.com/assets/img/places/banff-canada.jpg?1642465161</t>
   </si>
   <si>
     <t>Indio</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/indio-ca-united-states.jpg?1653007213</t>
+    <t>https://nomadlist.com/assets/img/places/indio-ca-united-states.jpg?1653007213</t>
   </si>
   <si>
     <t>Quetta</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/quetta-pakistan.jpg?1653006725</t>
+    <t>https://nomadlist.com/assets/img/places/quetta-pakistan.jpg?1653006725</t>
   </si>
   <si>
     <t>Jerusalem</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/jerusalem-israel.jpg?1643676148</t>
+    <t>https://nomadlist.com/assets/img/places/jerusalem-israel.jpg?1643676148</t>
   </si>
   <si>
     <t>Luxembourg</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/luxembourg-luxembourg.jpg?1657067473</t>
+    <t>https://nomadlist.com/assets/img/places/luxembourg-luxembourg.jpg?1657067473</t>
   </si>
   <si>
     <t>Cody</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cody-wy-united-states.jpg?1653007022</t>
+    <t>https://nomadlist.com/assets/img/places/cody-wy-united-states.jpg?1653007022</t>
   </si>
   <si>
     <t>Petaluma</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/petaluma-ca-united-states.jpg?1653007133</t>
+    <t>https://nomadlist.com/assets/img/places/petaluma-ca-united-states.jpg?1653007133</t>
   </si>
   <si>
     <t>Leeuwarden</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/leeuwarden-netherlands.jpg?1644020133</t>
+    <t>https://nomadlist.com/assets/img/places/leeuwarden-netherlands.jpg?1644020133</t>
   </si>
   <si>
     <t>Jiaxing</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/jiaxing-china.jpg?1643069680</t>
+    <t>https://nomadlist.com/assets/img/places/jiaxing-china.jpg?1643069680</t>
   </si>
   <si>
     <t>Sparks</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sparks-nv-united-states.jpg?1653006761</t>
+    <t>https://nomadlist.com/assets/img/places/sparks-nv-united-states.jpg?1653006761</t>
   </si>
   <si>
     <t>Libreville</t>
@@ -6710,7 +6713,7 @@
     <t>Gabon</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/libreville-gabon.jpg?1642465530</t>
+    <t>https://nomadlist.com/assets/img/places/libreville-gabon.jpg?1642465530</t>
   </si>
   <si>
     <t>Road Town</t>
@@ -6719,37 +6722,37 @@
     <t>British Virgin Islands</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/road-town-british-virgin-islands.jpg?1642465414</t>
+    <t>https://nomadlist.com/assets/img/places/road-town-british-virgin-islands.jpg?1642465414</t>
   </si>
   <si>
     <t>Bonita Springs</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bonita-springs-fl-united-states.jpg?1654740400</t>
+    <t>https://nomadlist.com/assets/img/places/bonita-springs-fl-united-states.jpg?1654740400</t>
   </si>
   <si>
     <t>Urumqi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/urumqi-china.jpg?1644624732</t>
+    <t>https://nomadlist.com/assets/img/places/urumqi-china.jpg?1644624732</t>
   </si>
   <si>
     <t>Shijiazhuang</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/shijiazhuang-china.jpg?1643157518</t>
+    <t>https://nomadlist.com/assets/img/places/shijiazhuang-china.jpg?1643157518</t>
   </si>
   <si>
     <t>Knoxville</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/knoxville-tn-united-states.jpg?1657067704</t>
+    <t>https://nomadlist.com/assets/img/places/knoxville-tn-united-states.jpg?1657067704</t>
   </si>
   <si>
     <t>Cali</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cali-colombia.jpg?1656548550</t>
+    <t>https://nomadlist.com/assets/img/places/cali-colombia.jpg?1656548550</t>
   </si>
   <si>
     <t>Port Vila</t>
@@ -6758,49 +6761,49 @@
     <t>Vanuatu</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/port-vila-vanuatu.jpg?1643069611</t>
+    <t>https://nomadlist.com/assets/img/places/port-vila-vanuatu.jpg?1643069611</t>
   </si>
   <si>
     <t>Zhucheng</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/zhucheng-china.jpg?1652919498</t>
+    <t>https://nomadlist.com/assets/img/places/zhucheng-china.jpg?1652919498</t>
   </si>
   <si>
     <t>Zhuzhou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/zhuzhou-china.jpg?1653006584</t>
+    <t>https://nomadlist.com/assets/img/places/zhuzhou-china.jpg?1653006584</t>
   </si>
   <si>
     <t>Jinan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/jinan-china.jpg?1652833312</t>
+    <t>https://nomadlist.com/assets/img/places/jinan-china.jpg?1652833312</t>
   </si>
   <si>
     <t>Napa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/napa-ca-united-states.jpg?1657067619</t>
+    <t>https://nomadlist.com/assets/img/places/napa-ca-united-states.jpg?1657067619</t>
   </si>
   <si>
     <t>Salem Ma</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/salem-ma-united-states.jpg?1652919494</t>
+    <t>https://nomadlist.com/assets/img/places/salem-ma-united-states.jpg?1652919494</t>
   </si>
   <si>
     <t>Xiangyang</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/xiangyang-china.jpg?1653007307</t>
+    <t>https://nomadlist.com/assets/img/places/xiangyang-china.jpg?1653007307</t>
   </si>
   <si>
     <t>Monza</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/monza-italy.jpg?1642810109</t>
+    <t>https://nomadlist.com/assets/img/places/monza-italy.jpg?1642810109</t>
   </si>
   <si>
     <t>George Town</t>
@@ -6812,7 +6815,7 @@
     <t>Ferrara</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ferrara-italy.jpg?1642465605</t>
+    <t>https://nomadlist.com/assets/img/places/ferrara-italy.jpg?1642465605</t>
   </si>
   <si>
     <t>Puerto Viejo</t>
@@ -6821,25 +6824,25 @@
     <t>Costa Rica</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/puerto-viejo-costa-rica.jpg?1649549007</t>
+    <t>https://nomadlist.com/assets/img/places/puerto-viejo-costa-rica.jpg?1649549007</t>
   </si>
   <si>
     <t>Baoding</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/baoding-china.jpg?1653006901</t>
+    <t>https://nomadlist.com/assets/img/places/baoding-china.jpg?1653006901</t>
   </si>
   <si>
     <t>Canton</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/canton-oh-united-states.jpg?1653006447</t>
+    <t>https://nomadlist.com/assets/img/places/canton-oh-united-states.jpg?1653006447</t>
   </si>
   <si>
     <t>Oshkosh</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/oshkosh-wi-united-states.jpg?1652919113</t>
+    <t>https://nomadlist.com/assets/img/places/oshkosh-wi-united-states.jpg?1652919113</t>
   </si>
   <si>
     <t>Mogadishu</t>
@@ -6848,49 +6851,49 @@
     <t>Somalia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mogadishu-somalia.jpg?1642724661</t>
+    <t>https://nomadlist.com/assets/img/places/mogadishu-somalia.jpg?1642724661</t>
   </si>
   <si>
     <t>Chongjin</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/chongjin-north-korea.jpg?1644192689</t>
+    <t>https://nomadlist.com/assets/img/places/chongjin-north-korea.jpg?1644192689</t>
   </si>
   <si>
     <t>Sharjah</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sharjah-united-arab-emirates.jpg?1642724108</t>
+    <t>https://nomadlist.com/assets/img/places/sharjah-united-arab-emirates.jpg?1642724108</t>
   </si>
   <si>
     <t>Zandvoort</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/zandvoort-netherlands.jpg?1642529627</t>
+    <t>https://nomadlist.com/assets/img/places/zandvoort-netherlands.jpg?1642529627</t>
   </si>
   <si>
     <t>Gulfport</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/gulfport-ms-united-states.jpg?1657067670</t>
+    <t>https://nomadlist.com/assets/img/places/gulfport-ms-united-states.jpg?1657067670</t>
   </si>
   <si>
     <t>Hamhung</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hamhung-north-korea.jpg?1653007284</t>
+    <t>https://nomadlist.com/assets/img/places/hamhung-north-korea.jpg?1653007284</t>
   </si>
   <si>
     <t>Turin</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/turin-italy.jpg?1642638040</t>
+    <t>https://nomadlist.com/assets/img/places/turin-italy.jpg?1642638040</t>
   </si>
   <si>
     <t>Tuscaloosa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tuscaloosa-al-united-states.jpg?1657067748</t>
+    <t>https://nomadlist.com/assets/img/places/tuscaloosa-al-united-states.jpg?1657067748</t>
   </si>
   <si>
     <t>Hamilton</t>
@@ -6899,199 +6902,199 @@
     <t>Bermuda</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hamilton-bermuda.jpg?1644192667</t>
+    <t>https://nomadlist.com/assets/img/places/hamilton-bermuda.jpg?1644192667</t>
   </si>
   <si>
     <t>Baghdad</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/baghdad-iraq.jpg?1653007324</t>
+    <t>https://nomadlist.com/assets/img/places/baghdad-iraq.jpg?1653007324</t>
   </si>
   <si>
     <t>Isfahan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/isfahan-iran.jpg?1642637974</t>
+    <t>https://nomadlist.com/assets/img/places/isfahan-iran.jpg?1642637974</t>
   </si>
   <si>
     <t>Lucca</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lucca-italy.jpg?1642465596</t>
+    <t>https://nomadlist.com/assets/img/places/lucca-italy.jpg?1642465596</t>
   </si>
   <si>
     <t>Lausanne</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lausanne-switzerland.jpg?1657067687</t>
+    <t>https://nomadlist.com/assets/img/places/lausanne-switzerland.jpg?1657067687</t>
   </si>
   <si>
     <t>Lahore</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lahore-pakistan.jpg?1643847120</t>
+    <t>https://nomadlist.com/assets/img/places/lahore-pakistan.jpg?1643847120</t>
   </si>
   <si>
     <t>Weifang</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/weifang-china.jpg?1653007124</t>
+    <t>https://nomadlist.com/assets/img/places/weifang-china.jpg?1653007124</t>
   </si>
   <si>
     <t>Lugano</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lugano-switzerland.jpg?1642724652</t>
+    <t>https://nomadlist.com/assets/img/places/lugano-switzerland.jpg?1642724652</t>
   </si>
   <si>
     <t>Cathedral City</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cathedral-city-ca-united-states.jpg?1653007273</t>
+    <t>https://nomadlist.com/assets/img/places/cathedral-city-ca-united-states.jpg?1653007273</t>
   </si>
   <si>
     <t>Riyadh</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/riyadh-saudi-arabia.jpg?1657239409</t>
+    <t>https://nomadlist.com/assets/img/places/riyadh-saudi-arabia.jpg?1657239409</t>
   </si>
   <si>
     <t>Palm Desert</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/palmdale-ca-united-states.jpg?1653005823</t>
+    <t>https://nomadlist.com/assets/img/places/palmdale-ca-united-states.jpg?1653005823</t>
   </si>
   <si>
     <t>Zaria</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/zaria-nigeria.jpg?1642638025</t>
+    <t>https://nomadlist.com/assets/img/places/zaria-nigeria.jpg?1642638025</t>
   </si>
   <si>
     <t>Liberia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/liberia-costa-rica.jpg?1653006672</t>
+    <t>https://nomadlist.com/assets/img/places/liberia-costa-rica.jpg?1653006672</t>
   </si>
   <si>
     <t>Sariwon</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sariwon-north-korea.jpg?1644797257</t>
+    <t>https://nomadlist.com/assets/img/places/sariwon-north-korea.jpg?1644797257</t>
   </si>
   <si>
     <t>Constantine</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/constantine-algeria.jpg?1653007291</t>
+    <t>https://nomadlist.com/assets/img/places/constantine-algeria.jpg?1653007291</t>
   </si>
   <si>
     <t>Ko Samui</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ko-samui-thailand.jpg?1642465520</t>
+    <t>https://nomadlist.com/assets/img/places/ko-samui-thailand.jpg?1642465520</t>
   </si>
   <si>
     <t>Cabarete</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cabarete-dominican-republic.jpg?1655352016</t>
+    <t>https://nomadlist.com/assets/img/places/cabarete-dominican-republic.jpg?1655352016</t>
   </si>
   <si>
     <t>Yichang</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/yichang-china.jpg?1642724722</t>
+    <t>https://nomadlist.com/assets/img/places/yichang-china.jpg?1642724722</t>
   </si>
   <si>
     <t>Anyang</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/anyang-china.jpg?1642637966</t>
+    <t>https://nomadlist.com/assets/img/places/anyang-china.jpg?1642637966</t>
   </si>
   <si>
     <t>Interlaken</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/interlaken-switzerland.jpg?1654561147</t>
+    <t>https://nomadlist.com/assets/img/places/interlaken-switzerland.jpg?1654561147</t>
   </si>
   <si>
     <t>Beersheba</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/beersheba-israel.jpg?1653007242</t>
+    <t>https://nomadlist.com/assets/img/places/beersheba-israel.jpg?1653007242</t>
   </si>
   <si>
     <t>Sargodha</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sargodha-pakistan.jpg?1652919576</t>
+    <t>https://nomadlist.com/assets/img/places/sargodha-pakistan.jpg?1652919576</t>
   </si>
   <si>
     <t>Daejeon</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/daejeon-south-korea.jpg?1653007322</t>
+    <t>https://nomadlist.com/assets/img/places/daejeon-south-korea.jpg?1653007322</t>
   </si>
   <si>
     <t>St Gallen</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/st-gallen-switzerland.jpg?1642810172</t>
+    <t>https://nomadlist.com/assets/img/places/st-gallen-switzerland.jpg?1642810172</t>
   </si>
   <si>
     <t>Rawalpindi</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rawalpindi-pakistan.jpg?1653006757</t>
+    <t>https://nomadlist.com/assets/img/places/rawalpindi-pakistan.jpg?1653006757</t>
   </si>
   <si>
     <t>Nampo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nampo-north-korea.jpg?1642529693</t>
+    <t>https://nomadlist.com/assets/img/places/nampo-north-korea.jpg?1642529693</t>
   </si>
   <si>
     <t>Peshawar</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/peshawar-pakistan.jpg?1642465051</t>
+    <t>https://nomadlist.com/assets/img/places/peshawar-pakistan.jpg?1642465051</t>
   </si>
   <si>
     <t>Xiangtan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/xiangtan-china.jpg?1643156851</t>
+    <t>https://nomadlist.com/assets/img/places/xiangtan-china.jpg?1643156851</t>
   </si>
   <si>
     <t>Haifa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/haifa-israel.jpg?1642465422</t>
+    <t>https://nomadlist.com/assets/img/places/haifa-israel.jpg?1642465422</t>
   </si>
   <si>
     <t>Tangshan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tangshan-china.jpg?1642724672</t>
+    <t>https://nomadlist.com/assets/img/places/tangshan-china.jpg?1642724672</t>
   </si>
   <si>
     <t>Bahawalpur</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bahawalpur-pakistan.jpg?1653007093</t>
+    <t>https://nomadlist.com/assets/img/places/bahawalpur-pakistan.jpg?1653007093</t>
   </si>
   <si>
     <t>Mykonos</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mykonos-greece.jpg?1642465552</t>
+    <t>https://nomadlist.com/assets/img/places/mykonos-greece.jpg?1642465552</t>
   </si>
   <si>
     <t>Kenosha</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kenosha-wi-united-states.jpg?1653007300</t>
+    <t>https://nomadlist.com/assets/img/places/kenosha-wi-united-states.jpg?1653007300</t>
   </si>
   <si>
     <t>Kabul</t>
@@ -7100,31 +7103,31 @@
     <t>Afghanistan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kabul-afghanistan.jpg?1652919586</t>
+    <t>https://nomadlist.com/assets/img/places/kabul-afghanistan.jpg?1652919586</t>
   </si>
   <si>
     <t>Zibo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/zibo-china.jpg?1653007193</t>
+    <t>https://nomadlist.com/assets/img/places/zibo-china.jpg?1653007193</t>
   </si>
   <si>
     <t>Leon</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/leon-nicaragua.jpg?1642465416</t>
+    <t>https://nomadlist.com/assets/img/places/leon-nicaragua.jpg?1642465416</t>
   </si>
   <si>
     <t>Handan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/handan-china.jpg?1652919488</t>
+    <t>https://nomadlist.com/assets/img/places/handan-china.jpg?1652919488</t>
   </si>
   <si>
     <t>Islamabad</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/islamabad-pakistan.jpg?1644192641</t>
+    <t>https://nomadlist.com/assets/img/places/islamabad-pakistan.jpg?1644192641</t>
   </si>
   <si>
     <t>Ashgabat</t>
@@ -7133,25 +7136,25 @@
     <t>Turkmenistan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ashgabat-turkmenistan.jpg?1642465324</t>
+    <t>https://nomadlist.com/assets/img/places/ashgabat-turkmenistan.jpg?1642465324</t>
   </si>
   <si>
     <t>Tamarindo</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tamarindo-costa-rica.jpg?1650759081</t>
+    <t>https://nomadlist.com/assets/img/places/tamarindo-costa-rica.jpg?1650759081</t>
   </si>
   <si>
     <t>Faisalabad</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/faisalabad-pakistan.jpg?1657325758</t>
+    <t>https://nomadlist.com/assets/img/places/faisalabad-pakistan.jpg?1657325758</t>
   </si>
   <si>
     <t>Multan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/multan-pakistan.jpg?1653007210</t>
+    <t>https://nomadlist.com/assets/img/places/multan-pakistan.jpg?1653007210</t>
   </si>
   <si>
     <t>Benghazi</t>
@@ -7160,7 +7163,7 @@
     <t>Libya</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/benghazi-libya.jpg?1647995372</t>
+    <t>https://nomadlist.com/assets/img/places/benghazi-libya.jpg?1647995372</t>
   </si>
   <si>
     <t>Tegucigalpa</t>
@@ -7169,43 +7172,43 @@
     <t>Honduras</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tegucigalpa-honduras.jpg?1649376472</t>
+    <t>https://nomadlist.com/assets/img/places/tegucigalpa-honduras.jpg?1649376472</t>
   </si>
   <si>
     <t>Gujranwala</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/gujranwala-pakistan.jpg?1642465587</t>
+    <t>https://nomadlist.com/assets/img/places/gujranwala-pakistan.jpg?1642465587</t>
   </si>
   <si>
     <t>Ko Tao</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ko-tao-thailand.jpg?1642465558</t>
+    <t>https://nomadlist.com/assets/img/places/ko-tao-thailand.jpg?1642465558</t>
   </si>
   <si>
     <t>Bellevue</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bellevue-ne-united-states.jpg?1653006872</t>
+    <t>https://nomadlist.com/assets/img/places/bellevue-ne-united-states.jpg?1653006872</t>
   </si>
   <si>
     <t>Basra</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/basra-iraq.jpg?1642529688</t>
+    <t>https://nomadlist.com/assets/img/places/basra-iraq.jpg?1642529688</t>
   </si>
   <si>
     <t>Yantai</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/yantai-china.jpg?1642810114</t>
+    <t>https://nomadlist.com/assets/img/places/yantai-china.jpg?1642810114</t>
   </si>
   <si>
     <t>Sialkot</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/sialkot-pakistan.jpg?1653007256</t>
+    <t>https://nomadlist.com/assets/img/places/sialkot-pakistan.jpg?1653007256</t>
   </si>
   <si>
     <t>Cayenne</t>
@@ -7214,25 +7217,25 @@
     <t>French Guiana</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/cayenne-french-guiana.jpg?1648944595</t>
+    <t>https://nomadlist.com/assets/img/places/cayenne-french-guiana.jpg?1648944595</t>
   </si>
   <si>
     <t>Martinique</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/martinique-martinique.jpg?1653007333</t>
+    <t>https://nomadlist.com/assets/img/places/martinique-martinique.jpg?1653007333</t>
   </si>
   <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ajaccio-corsica-france.jpg?1642465600</t>
+    <t>https://nomadlist.com/assets/img/places/ajaccio-corsica-france.jpg?1642465600</t>
   </si>
   <si>
     <t>Ahvaz</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ahvaz-iran.jpg?1642465463</t>
+    <t>https://nomadlist.com/assets/img/places/ahvaz-iran.jpg?1642465463</t>
   </si>
   <si>
     <t>Kuwait City</t>
@@ -7241,25 +7244,25 @@
     <t>Kuwait</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kuwait-city-kuwait.jpg?1642529696</t>
+    <t>https://nomadlist.com/assets/img/places/kuwait-city-kuwait.jpg?1642529696</t>
   </si>
   <si>
     <t>Hamamatsu</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/hamamatsu-japan.jpg?1653007339</t>
+    <t>https://nomadlist.com/assets/img/places/hamamatsu-japan.jpg?1653007339</t>
   </si>
   <si>
     <t>Djibouti</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/djibouti-djibouti.jpg?1642465553</t>
+    <t>https://nomadlist.com/assets/img/places/djibouti-djibouti.jpg?1642465553</t>
   </si>
   <si>
     <t>Changsha</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/changsha-china.jpg?1642465542</t>
+    <t>https://nomadlist.com/assets/img/places/changsha-china.jpg?1642465542</t>
   </si>
   <si>
     <t>Bangui</t>
@@ -7268,31 +7271,31 @@
     <t>Central African Republic</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/bangui-central-african-republic.jpg?1644192717</t>
+    <t>https://nomadlist.com/assets/img/places/bangui-central-african-republic.jpg?1644192717</t>
   </si>
   <si>
     <t>Yangzhou</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/yangzhou-china.jpg?1652919606</t>
+    <t>https://nomadlist.com/assets/img/places/yangzhou-china.jpg?1652919606</t>
   </si>
   <si>
     <t>Jeddah</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/jeddah-saudi-arabia.jpg?1651019712</t>
+    <t>https://nomadlist.com/assets/img/places/jeddah-saudi-arabia.jpg?1651019712</t>
   </si>
   <si>
     <t>Mecca</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/mecca-saudi-arabia.jpg?1646266663</t>
+    <t>https://nomadlist.com/assets/img/places/mecca-saudi-arabia.jpg?1646266663</t>
   </si>
   <si>
     <t>Monrovia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/monrovia-liberia.jpg?1642465613</t>
+    <t>https://nomadlist.com/assets/img/places/monrovia-liberia.jpg?1642465613</t>
   </si>
   <si>
     <t>Noumea</t>
@@ -7301,7 +7304,7 @@
     <t>New Caledonia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/noumea-new-caledonia.jpg?1648686036</t>
+    <t>https://nomadlist.com/assets/img/places/noumea-new-caledonia.jpg?1648686036</t>
   </si>
   <si>
     <t>Ndjamena</t>
@@ -7310,7 +7313,7 @@
     <t>Chad</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ndjamena-chad.jpg?1642724726</t>
+    <t>https://nomadlist.com/assets/img/places/ndjamena-chad.jpg?1642724726</t>
   </si>
   <si>
     <t>Kyiv</t>
@@ -7319,7 +7322,7 @@
     <t>Ukraine</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kyiv-ukraine.jpg?1642550434</t>
+    <t>https://nomadlist.com/assets/img/places/kyiv-ukraine.jpg?1642550434</t>
   </si>
   <si>
     <t>Moscow</t>
@@ -7328,157 +7331,157 @@
     <t>Russia</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/moscow-russia.jpg?1648513163</t>
+    <t>https://nomadlist.com/assets/img/places/moscow-russia.jpg?1648513163</t>
   </si>
   <si>
     <t>Lviv</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/lviv-ukraine.jpg?1648167146</t>
+    <t>https://nomadlist.com/assets/img/places/lviv-ukraine.jpg?1648167146</t>
   </si>
   <si>
     <t>Odessa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/odessa-ukraine.jpg?1653007358</t>
+    <t>https://nomadlist.com/assets/img/places/odessa-ukraine.jpg?1653007358</t>
   </si>
   <si>
     <t>Ivano Frankivsk</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ivano-frankivsk-ukraine.jpg?1645833745</t>
+    <t>https://nomadlist.com/assets/img/places/ivano-frankivsk-ukraine.jpg?1645833745</t>
   </si>
   <si>
     <t>Saint Petersburg</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/saint-petersburg-russia.jpg?1647216563</t>
+    <t>https://nomadlist.com/assets/img/places/saint-petersburg-russia.jpg?1647216563</t>
   </si>
   <si>
     <t>Ufa</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ufa-russia.jpg?1655085894</t>
+    <t>https://nomadlist.com/assets/img/places/ufa-russia.jpg?1655085894</t>
   </si>
   <si>
     <t>Kharkiv</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kharkiv-ukraine.jpg?1652919622</t>
+    <t>https://nomadlist.com/assets/img/places/kharkiv-ukraine.jpg?1652919622</t>
   </si>
   <si>
     <t>Krasnodar</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/krasnodar-russia.jpg?1651019740</t>
+    <t>https://nomadlist.com/assets/img/places/krasnodar-russia.jpg?1651019740</t>
   </si>
   <si>
     <t>Krasnoyarsk</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/krasnoyarsk-russia.jpg?1651104619</t>
+    <t>https://nomadlist.com/assets/img/places/krasnoyarsk-russia.jpg?1651104619</t>
   </si>
   <si>
     <t>Dnipro</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/dnipro-ukraine.jpg?1642529218</t>
+    <t>https://nomadlist.com/assets/img/places/dnipro-ukraine.jpg?1642529218</t>
   </si>
   <si>
     <t>Krivoy Rog</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/krivoy-rog-ukraine.jpg?1645834058</t>
+    <t>https://nomadlist.com/assets/img/places/krivoy-rog-ukraine.jpg?1645834058</t>
   </si>
   <si>
     <t>Izhevsk</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/izhevsk-russia.jpg?1642464897</t>
+    <t>https://nomadlist.com/assets/img/places/izhevsk-russia.jpg?1642464897</t>
   </si>
   <si>
     <t>Chelyabinsk</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/chelyabinsk-russia.jpg?1648600546</t>
+    <t>https://nomadlist.com/assets/img/places/chelyabinsk-russia.jpg?1648600546</t>
   </si>
   <si>
     <t>Saratov</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/saratov-russia.jpg?1654303137</t>
+    <t>https://nomadlist.com/assets/img/places/saratov-russia.jpg?1654303137</t>
   </si>
   <si>
     <t>Omsk</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/omsk-russia.jpg?1653007368</t>
+    <t>https://nomadlist.com/assets/img/places/omsk-russia.jpg?1653007368</t>
   </si>
   <si>
     <t>Yekaterinburg</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/yekaterinburg-russia.jpg?1653007380</t>
+    <t>https://nomadlist.com/assets/img/places/yekaterinburg-russia.jpg?1653007380</t>
   </si>
   <si>
     <t>Kaliningrad</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kaliningrad-russia.jpg?1650067882</t>
+    <t>https://nomadlist.com/assets/img/places/kaliningrad-russia.jpg?1650067882</t>
   </si>
   <si>
     <t>Ulyanovsk</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/ulyanovsk-russia.jpg?1654913649</t>
+    <t>https://nomadlist.com/assets/img/places/ulyanovsk-russia.jpg?1654913649</t>
   </si>
   <si>
     <t>Obninsk</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/obninsk-russia.jpg?1652919632</t>
+    <t>https://nomadlist.com/assets/img/places/obninsk-russia.jpg?1652919632</t>
   </si>
   <si>
     <t>Rostov On Don</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/rostov-on-don-russia.jpg?1655525157</t>
+    <t>https://nomadlist.com/assets/img/places/rostov-on-don-russia.jpg?1655525157</t>
   </si>
   <si>
     <t>Samara</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/samara-russia.jpg?1656375914</t>
+    <t>https://nomadlist.com/assets/img/places/samara-russia.jpg?1656375914</t>
   </si>
   <si>
     <t>Novosibirsk</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/novosibirsk-russia.jpg?1650154179</t>
+    <t>https://nomadlist.com/assets/img/places/novosibirsk-russia.jpg?1650154179</t>
   </si>
   <si>
     <t>Tomsk</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/tomsk-russia.jpg?1653007371</t>
+    <t>https://nomadlist.com/assets/img/places/tomsk-russia.jpg?1653007371</t>
   </si>
   <si>
     <t>Vladivostok</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/vladivostok-russia.jpg?1647995413</t>
+    <t>https://nomadlist.com/assets/img/places/vladivostok-russia.jpg?1647995413</t>
   </si>
   <si>
     <t>Kazan</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/kazan-russia.jpg?1648167156</t>
+    <t>https://nomadlist.com/assets/img/places/kazan-russia.jpg?1648167156</t>
   </si>
   <si>
     <t>Nizhny</t>
   </si>
   <si>
-    <t>https://nomadlist.com/cdn-cgi/image/format=auto,fit=cover,width=300,height=150,quality=25/https://nomadlist.com/assets/img/places/nizhny-russia.jpg?1653007391</t>
+    <t>https://nomadlist.com/assets/img/places/nizhny-russia.jpg?1653007391</t>
   </si>
 </sst>
 </file>
@@ -7859,10 +7862,13 @@
   <dimension ref="A1:V1156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="22" max="22" width="88.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -86473,6 +86479,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V1156" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>